--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
         <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83">
+        <v>1.8</v>
+      </c>
+      <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
         <v>3</v>
-      </c>
-      <c r="J83" t="s">
-        <v>43</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>3.3</v>
-      </c>
-      <c r="M83">
-        <v>3.4</v>
-      </c>
-      <c r="N83">
-        <v>1.909</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
       </c>
       <c r="P83">
         <v>3.75</v>
       </c>
       <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.75</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
+        <v>1.85</v>
+      </c>
+      <c r="W83">
+        <v>1.05</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.75</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>1.85</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>2.75</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB83">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7680775</v>
+        <v>7680774</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16544,49 +16544,49 @@
         <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>45339.375</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K181">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M181">
+        <v>1.615</v>
+      </c>
+      <c r="N181">
+        <v>5.25</v>
+      </c>
+      <c r="O181">
+        <v>3.75</v>
+      </c>
+      <c r="P181">
+        <v>1.571</v>
+      </c>
+      <c r="Q181">
+        <v>0.75</v>
+      </c>
+      <c r="R181">
+        <v>2.025</v>
+      </c>
+      <c r="S181">
+        <v>1.775</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
         <v>1.95</v>
       </c>
-      <c r="N181">
-        <v>3.3</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>2.1</v>
-      </c>
-      <c r="Q181">
-        <v>0.25</v>
-      </c>
-      <c r="R181">
-        <v>1.975</v>
-      </c>
-      <c r="S181">
-        <v>1.825</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>2.05</v>
-      </c>
       <c r="V181">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -16609,7 +16609,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7680774</v>
+        <v>7680773</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16618,40 +16618,40 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.375</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K182">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L182">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
+        <v>1.75</v>
+      </c>
+      <c r="N182">
+        <v>6</v>
+      </c>
+      <c r="O182">
+        <v>3.5</v>
+      </c>
+      <c r="P182">
         <v>1.615</v>
       </c>
-      <c r="N182">
-        <v>5.25</v>
-      </c>
-      <c r="O182">
-        <v>3.75</v>
-      </c>
-      <c r="P182">
-        <v>1.571</v>
-      </c>
       <c r="Q182">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R182">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
         <v>2.5</v>
@@ -16683,7 +16683,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7680773</v>
+        <v>7680776</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16692,49 +16692,49 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45340.375</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K183">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L183">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M183">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P183">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="Q183">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
         <v>0</v>
@@ -16749,80 +16749,6 @@
         <v>0</v>
       </c>
       <c r="AA183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>7680776</v>
-      </c>
-      <c r="C184" t="s">
-        <v>28</v>
-      </c>
-      <c r="D184" t="s">
-        <v>28</v>
-      </c>
-      <c r="E184" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F184" t="s">
-        <v>38</v>
-      </c>
-      <c r="G184" t="s">
-        <v>37</v>
-      </c>
-      <c r="K184">
-        <v>3.2</v>
-      </c>
-      <c r="L184">
-        <v>3.2</v>
-      </c>
-      <c r="M184">
-        <v>2.15</v>
-      </c>
-      <c r="N184">
-        <v>4.2</v>
-      </c>
-      <c r="O184">
-        <v>3.4</v>
-      </c>
-      <c r="P184">
-        <v>1.75</v>
-      </c>
-      <c r="Q184">
-        <v>0.5</v>
-      </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>1.8</v>
-      </c>
-      <c r="T184">
-        <v>2.5</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
-      <c r="W184">
-        <v>0</v>
-      </c>
-      <c r="X184">
-        <v>0</v>
-      </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5495053</v>
+        <v>5498503</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O80">
         <v>3.4</v>
       </c>
       <c r="P80">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.825</v>
+      </c>
+      <c r="V80">
         <v>1.975</v>
       </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5498503</v>
+        <v>5495053</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O81">
         <v>3.4</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="V81">
-        <v>1.975</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.825</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82">
+        <v>1.8</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>2.05</v>
+      </c>
+      <c r="O82">
         <v>3</v>
-      </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>3.3</v>
-      </c>
-      <c r="M82">
-        <v>3.4</v>
-      </c>
-      <c r="N82">
-        <v>1.909</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
       </c>
       <c r="P82">
         <v>3.75</v>
       </c>
       <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>2.05</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
+        <v>1.85</v>
+      </c>
+      <c r="W82">
+        <v>1.05</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.75</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>1.85</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>2.75</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB82">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
         <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7680774</v>
+        <v>7680773</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16544,49 +16544,49 @@
         <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>45339.45833333334</v>
+        <v>45340.375</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K181">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L181">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="N181">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="O181">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="Q181">
         <v>0.75</v>
       </c>
       <c r="R181">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -16609,7 +16609,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7680773</v>
+        <v>7680776</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16618,49 +16618,49 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45340.375</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K182">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="N182">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P182">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="Q182">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16675,80 +16675,6 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>7680776</v>
-      </c>
-      <c r="C183" t="s">
-        <v>28</v>
-      </c>
-      <c r="D183" t="s">
-        <v>28</v>
-      </c>
-      <c r="E183" s="2">
-        <v>45340.45833333334</v>
-      </c>
-      <c r="F183" t="s">
-        <v>38</v>
-      </c>
-      <c r="G183" t="s">
-        <v>37</v>
-      </c>
-      <c r="K183">
-        <v>3.2</v>
-      </c>
-      <c r="L183">
-        <v>3.2</v>
-      </c>
-      <c r="M183">
-        <v>2.15</v>
-      </c>
-      <c r="N183">
-        <v>3.8</v>
-      </c>
-      <c r="O183">
-        <v>3.3</v>
-      </c>
-      <c r="P183">
-        <v>1.833</v>
-      </c>
-      <c r="Q183">
-        <v>0.5</v>
-      </c>
-      <c r="R183">
-        <v>1.975</v>
-      </c>
-      <c r="S183">
-        <v>1.825</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.975</v>
-      </c>
-      <c r="V183">
-        <v>1.825</v>
-      </c>
-      <c r="W183">
-        <v>0</v>
-      </c>
-      <c r="X183">
-        <v>0</v>
-      </c>
-      <c r="Y183">
-        <v>0</v>
-      </c>
-      <c r="Z183">
-        <v>0</v>
-      </c>
-      <c r="AA183">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5498504</v>
+        <v>5499423</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,40 +7380,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7422,22 +7422,22 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7449,7 +7449,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5499423</v>
+        <v>5498504</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,40 +7469,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R79">
         <v>1.95</v>
@@ -7511,22 +7511,22 @@
         <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y79">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
@@ -7538,7 +7538,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5498503</v>
+        <v>5495053</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O80">
         <v>3.4</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="V80">
-        <v>1.975</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.825</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5495053</v>
+        <v>5498503</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O81">
         <v>3.4</v>
       </c>
       <c r="P81">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
+        <v>1.825</v>
+      </c>
+      <c r="V81">
         <v>1.975</v>
       </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7680773</v>
+        <v>7680775</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16544,64 +16544,79 @@
         <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>45340.375</v>
+        <v>45339.375</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H181">
+        <v>4</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>41</v>
       </c>
       <c r="K181">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L181">
         <v>3.4</v>
       </c>
       <c r="M181">
+        <v>1.95</v>
+      </c>
+      <c r="N181">
+        <v>3.3</v>
+      </c>
+      <c r="O181">
+        <v>3.2</v>
+      </c>
+      <c r="P181">
+        <v>2.1</v>
+      </c>
+      <c r="Q181">
+        <v>0.25</v>
+      </c>
+      <c r="R181">
+        <v>1.975</v>
+      </c>
+      <c r="S181">
+        <v>1.825</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>2.05</v>
+      </c>
+      <c r="V181">
         <v>1.75</v>
       </c>
-      <c r="N181">
-        <v>5</v>
-      </c>
-      <c r="O181">
-        <v>3.6</v>
-      </c>
-      <c r="P181">
-        <v>1.7</v>
-      </c>
-      <c r="Q181">
-        <v>0.75</v>
-      </c>
-      <c r="R181">
-        <v>1.85</v>
-      </c>
-      <c r="S181">
-        <v>1.95</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.975</v>
-      </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
       <c r="W181">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>1.05</v>
+      </c>
+      <c r="AC181">
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16609,7 +16624,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7680776</v>
+        <v>7680774</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16618,63 +16633,537 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45340.45833333334</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="F182" t="s">
+        <v>35</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>3</v>
+      </c>
+      <c r="J182" t="s">
+        <v>43</v>
+      </c>
+      <c r="K182">
+        <v>4.8</v>
+      </c>
+      <c r="L182">
+        <v>3.8</v>
+      </c>
+      <c r="M182">
+        <v>1.615</v>
+      </c>
+      <c r="N182">
+        <v>5.25</v>
+      </c>
+      <c r="O182">
+        <v>3.75</v>
+      </c>
+      <c r="P182">
+        <v>1.571</v>
+      </c>
+      <c r="Q182">
+        <v>0.75</v>
+      </c>
+      <c r="R182">
+        <v>2.025</v>
+      </c>
+      <c r="S182">
+        <v>1.775</v>
+      </c>
+      <c r="T182">
+        <v>2.5</v>
+      </c>
+      <c r="U182">
+        <v>1.85</v>
+      </c>
+      <c r="V182">
+        <v>1.95</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>-1</v>
+      </c>
+      <c r="Y182">
+        <v>0.571</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB182">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7680773</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45340.375</v>
+      </c>
+      <c r="F183" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" t="s">
+        <v>30</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>42</v>
+      </c>
+      <c r="K183">
+        <v>4.5</v>
+      </c>
+      <c r="L183">
+        <v>3.4</v>
+      </c>
+      <c r="M183">
+        <v>1.75</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183">
+        <v>3.6</v>
+      </c>
+      <c r="P183">
+        <v>1.7</v>
+      </c>
+      <c r="Q183">
+        <v>0.75</v>
+      </c>
+      <c r="R183">
+        <v>1.925</v>
+      </c>
+      <c r="S183">
+        <v>1.875</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
+        <v>1.85</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>2.6</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.925</v>
+      </c>
+      <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>6814411</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45342.5625</v>
+      </c>
+      <c r="F184" t="s">
+        <v>35</v>
+      </c>
+      <c r="G184" t="s">
+        <v>39</v>
+      </c>
+      <c r="K184">
+        <v>1.909</v>
+      </c>
+      <c r="L184">
+        <v>3.4</v>
+      </c>
+      <c r="M184">
+        <v>3.5</v>
+      </c>
+      <c r="N184">
+        <v>1.909</v>
+      </c>
+      <c r="O184">
+        <v>3.4</v>
+      </c>
+      <c r="P184">
+        <v>3.5</v>
+      </c>
+      <c r="Q184">
+        <v>-0.5</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>1.85</v>
+      </c>
+      <c r="T184">
+        <v>2.5</v>
+      </c>
+      <c r="U184">
+        <v>1.9</v>
+      </c>
+      <c r="V184">
+        <v>1.9</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>6814408</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45343.45833333334</v>
+      </c>
+      <c r="F185" t="s">
+        <v>29</v>
+      </c>
+      <c r="G185" t="s">
+        <v>33</v>
+      </c>
+      <c r="K185">
+        <v>1.533</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>5</v>
+      </c>
+      <c r="N185">
+        <v>1.4</v>
+      </c>
+      <c r="O185">
+        <v>4.5</v>
+      </c>
+      <c r="P185">
+        <v>6.5</v>
+      </c>
+      <c r="Q185">
+        <v>-1.25</v>
+      </c>
+      <c r="R185">
+        <v>1.925</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>2.75</v>
+      </c>
+      <c r="U185">
+        <v>1.8</v>
+      </c>
+      <c r="V185">
+        <v>2</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>6814410</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45343.5625</v>
+      </c>
+      <c r="F186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G186" t="s">
         <v>38</v>
       </c>
-      <c r="G182" t="s">
+      <c r="K186">
+        <v>1.8</v>
+      </c>
+      <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
+        <v>4</v>
+      </c>
+      <c r="N186">
+        <v>1.8</v>
+      </c>
+      <c r="O186">
+        <v>3.4</v>
+      </c>
+      <c r="P186">
+        <v>4</v>
+      </c>
+      <c r="Q186">
+        <v>-0.5</v>
+      </c>
+      <c r="R186">
+        <v>1.825</v>
+      </c>
+      <c r="S186">
+        <v>1.975</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.95</v>
+      </c>
+      <c r="V186">
+        <v>1.85</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>6816452</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45344.45833333334</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>40</v>
+      </c>
+      <c r="K187">
+        <v>1.25</v>
+      </c>
+      <c r="L187">
+        <v>5.75</v>
+      </c>
+      <c r="M187">
+        <v>8.5</v>
+      </c>
+      <c r="N187">
+        <v>1.25</v>
+      </c>
+      <c r="O187">
+        <v>5.75</v>
+      </c>
+      <c r="P187">
+        <v>8.5</v>
+      </c>
+      <c r="Q187">
+        <v>-1.75</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>3.25</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.825</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>6814409</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45344.5625</v>
+      </c>
+      <c r="F188" t="s">
         <v>37</v>
       </c>
-      <c r="K182">
-        <v>3.2</v>
-      </c>
-      <c r="L182">
-        <v>3.2</v>
-      </c>
-      <c r="M182">
-        <v>2.15</v>
-      </c>
-      <c r="N182">
-        <v>3.8</v>
-      </c>
-      <c r="O182">
-        <v>3.3</v>
-      </c>
-      <c r="P182">
-        <v>1.833</v>
-      </c>
-      <c r="Q182">
-        <v>0.5</v>
-      </c>
-      <c r="R182">
-        <v>1.975</v>
-      </c>
-      <c r="S182">
-        <v>1.825</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.975</v>
-      </c>
-      <c r="V182">
-        <v>1.825</v>
-      </c>
-      <c r="W182">
+      <c r="G188" t="s">
+        <v>36</v>
+      </c>
+      <c r="K188">
+        <v>1.615</v>
+      </c>
+      <c r="L188">
+        <v>3.75</v>
+      </c>
+      <c r="M188">
+        <v>4.75</v>
+      </c>
+      <c r="N188">
+        <v>1.615</v>
+      </c>
+      <c r="O188">
+        <v>3.75</v>
+      </c>
+      <c r="P188">
+        <v>4.75</v>
+      </c>
+      <c r="Q188">
+        <v>-0.75</v>
+      </c>
+      <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.875</v>
+      </c>
+      <c r="V188">
+        <v>1.925</v>
+      </c>
+      <c r="W188">
         <v>0</v>
       </c>
-      <c r="X182">
+      <c r="X188">
         <v>0</v>
       </c>
-      <c r="Y182">
+      <c r="Y188">
         <v>0</v>
       </c>
-      <c r="Z182">
+      <c r="Z188">
         <v>0</v>
       </c>
-      <c r="AA182">
+      <c r="AA188">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5495053</v>
+        <v>5498503</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O80">
         <v>3.4</v>
       </c>
       <c r="P80">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.825</v>
+      </c>
+      <c r="V80">
         <v>1.975</v>
       </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5498503</v>
+        <v>5495053</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O81">
         <v>3.4</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="V81">
-        <v>1.975</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.825</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
         <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83">
+        <v>1.8</v>
+      </c>
+      <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
         <v>3</v>
-      </c>
-      <c r="J83" t="s">
-        <v>43</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>3.3</v>
-      </c>
-      <c r="M83">
-        <v>3.4</v>
-      </c>
-      <c r="N83">
-        <v>1.909</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
       </c>
       <c r="P83">
         <v>3.75</v>
       </c>
       <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.75</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
+        <v>1.85</v>
+      </c>
+      <c r="W83">
+        <v>1.05</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.75</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>1.85</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>2.75</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB83">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -16829,22 +16829,22 @@
         <v>3.5</v>
       </c>
       <c r="N184">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
         <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>2.5</v>
@@ -16915,19 +16915,19 @@
         <v>-1.25</v>
       </c>
       <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
         <v>1.925</v>
-      </c>
-      <c r="S185">
-        <v>1.875</v>
       </c>
       <c r="T185">
         <v>2.75</v>
       </c>
       <c r="U185">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16989,10 +16989,10 @@
         <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T186">
         <v>2.5</v>
@@ -17063,10 +17063,10 @@
         <v>-1.75</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
         <v>3.25</v>
@@ -17125,31 +17125,31 @@
         <v>4.75</v>
       </c>
       <c r="N188">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O188">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
         <v>0</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5499423</v>
+        <v>5498504</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,40 +7380,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N78">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7422,22 +7422,22 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y78">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7449,7 +7449,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5498504</v>
+        <v>5499423</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,40 +7469,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>1.95</v>
@@ -7511,22 +7511,22 @@
         <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z79">
         <v>-1</v>
@@ -7538,7 +7538,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82">
+        <v>1.8</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>2.05</v>
+      </c>
+      <c r="O82">
         <v>3</v>
-      </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>3.3</v>
-      </c>
-      <c r="M82">
-        <v>3.4</v>
-      </c>
-      <c r="N82">
-        <v>1.909</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
       </c>
       <c r="P82">
         <v>3.75</v>
       </c>
       <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>2.05</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
+        <v>1.85</v>
+      </c>
+      <c r="W82">
+        <v>1.05</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.75</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>1.85</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>2.75</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB82">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
         <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -16819,6 +16819,15 @@
       <c r="G184" t="s">
         <v>39</v>
       </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184" t="s">
+        <v>43</v>
+      </c>
       <c r="K184">
         <v>1.909</v>
       </c>
@@ -16829,13 +16838,13 @@
         <v>3.5</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O184">
         <v>3.5</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q184">
         <v>-0.5</v>
@@ -16856,19 +16865,25 @@
         <v>1.9</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB184">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC184">
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16915,19 +16930,19 @@
         <v>-1.25</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U185">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -17051,31 +17066,31 @@
         <v>8.5</v>
       </c>
       <c r="N187">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="O187">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P187">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q187">
         <v>-1.75</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>3.25</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
         <v>0</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,61 +8359,61 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N89">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P89">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8422,13 +8422,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,61 +8448,61 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.925</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.8</v>
-      </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8511,13 +8511,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -16908,6 +16908,15 @@
       <c r="G185" t="s">
         <v>33</v>
       </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>41</v>
+      </c>
       <c r="K185">
         <v>1.533</v>
       </c>
@@ -16918,46 +16927,52 @@
         <v>5</v>
       </c>
       <c r="N185">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O185">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P185">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>3</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V185">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16965,7 +16980,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6814410</v>
+        <v>6816452</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16974,49 +16989,49 @@
         <v>28</v>
       </c>
       <c r="E186" s="2">
-        <v>45343.5625</v>
+        <v>45344.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K186">
+        <v>1.25</v>
+      </c>
+      <c r="L186">
+        <v>5.75</v>
+      </c>
+      <c r="M186">
+        <v>8.5</v>
+      </c>
+      <c r="N186">
+        <v>1.285</v>
+      </c>
+      <c r="O186">
+        <v>5.25</v>
+      </c>
+      <c r="P186">
+        <v>7.5</v>
+      </c>
+      <c r="Q186">
+        <v>-1.5</v>
+      </c>
+      <c r="R186">
+        <v>1.825</v>
+      </c>
+      <c r="S186">
+        <v>1.975</v>
+      </c>
+      <c r="T186">
+        <v>3.25</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
         <v>1.8</v>
-      </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
-      <c r="M186">
-        <v>4</v>
-      </c>
-      <c r="N186">
-        <v>1.8</v>
-      </c>
-      <c r="O186">
-        <v>3.4</v>
-      </c>
-      <c r="P186">
-        <v>4</v>
-      </c>
-      <c r="Q186">
-        <v>-0.5</v>
-      </c>
-      <c r="R186">
-        <v>1.8</v>
-      </c>
-      <c r="S186">
-        <v>2</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
-      <c r="V186">
-        <v>1.85</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17039,7 +17054,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6816452</v>
+        <v>6814409</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17048,49 +17063,49 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45344.45833333334</v>
+        <v>45344.5625</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K187">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="L187">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="N187">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
+        <v>3.8</v>
+      </c>
+      <c r="P187">
         <v>5.5</v>
       </c>
-      <c r="P187">
-        <v>8</v>
-      </c>
       <c r="Q187">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17113,7 +17128,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6814409</v>
+        <v>6814412</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17122,63 +17137,359 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45344.5625</v>
+        <v>45346.5625</v>
       </c>
       <c r="F188" t="s">
+        <v>39</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
+      <c r="K188">
+        <v>5.5</v>
+      </c>
+      <c r="L188">
+        <v>4.4</v>
+      </c>
+      <c r="M188">
+        <v>1.45</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188">
+        <v>4.333</v>
+      </c>
+      <c r="P188">
+        <v>1.5</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>1.8</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>6816451</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45347.375</v>
+      </c>
+      <c r="F189" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" t="s">
         <v>37</v>
       </c>
-      <c r="G188" t="s">
+      <c r="K189">
+        <v>6</v>
+      </c>
+      <c r="L189">
+        <v>4.6</v>
+      </c>
+      <c r="M189">
+        <v>1.4</v>
+      </c>
+      <c r="N189">
+        <v>4.75</v>
+      </c>
+      <c r="O189">
+        <v>4.333</v>
+      </c>
+      <c r="P189">
+        <v>1.533</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+      <c r="R189">
+        <v>1.9</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>3</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
+        <v>1.775</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>6814415</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F190" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" t="s">
+        <v>30</v>
+      </c>
+      <c r="K190">
+        <v>6</v>
+      </c>
+      <c r="L190">
+        <v>4.6</v>
+      </c>
+      <c r="M190">
+        <v>1.4</v>
+      </c>
+      <c r="N190">
+        <v>4.75</v>
+      </c>
+      <c r="O190">
+        <v>4.2</v>
+      </c>
+      <c r="P190">
+        <v>1.55</v>
+      </c>
+      <c r="Q190">
+        <v>0.75</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>1.7</v>
+      </c>
+      <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
+        <v>1.8</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>6814413</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45347.5625</v>
+      </c>
+      <c r="F191" t="s">
+        <v>38</v>
+      </c>
+      <c r="G191" t="s">
+        <v>35</v>
+      </c>
+      <c r="K191">
+        <v>1.952</v>
+      </c>
+      <c r="L191">
+        <v>3.4</v>
+      </c>
+      <c r="M191">
+        <v>3.4</v>
+      </c>
+      <c r="N191">
+        <v>2.15</v>
+      </c>
+      <c r="O191">
+        <v>3.3</v>
+      </c>
+      <c r="P191">
+        <v>3</v>
+      </c>
+      <c r="Q191">
+        <v>-0.25</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
+        <v>1.85</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>1.975</v>
+      </c>
+      <c r="V191">
+        <v>1.825</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>6814414</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45348.45833333334</v>
+      </c>
+      <c r="F192" t="s">
         <v>36</v>
       </c>
-      <c r="K188">
-        <v>1.615</v>
-      </c>
-      <c r="L188">
-        <v>3.75</v>
-      </c>
-      <c r="M188">
-        <v>4.75</v>
-      </c>
-      <c r="N188">
-        <v>1.533</v>
-      </c>
-      <c r="O188">
-        <v>3.8</v>
-      </c>
-      <c r="P188">
-        <v>5.5</v>
-      </c>
-      <c r="Q188">
-        <v>-1</v>
-      </c>
-      <c r="R188">
+      <c r="G192" t="s">
+        <v>32</v>
+      </c>
+      <c r="K192">
+        <v>2.8</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>2.25</v>
+      </c>
+      <c r="N192">
+        <v>2.8</v>
+      </c>
+      <c r="O192">
+        <v>3.4</v>
+      </c>
+      <c r="P192">
+        <v>2.25</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>1.7</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
         <v>1.975</v>
       </c>
-      <c r="S188">
+      <c r="V192">
         <v>1.825</v>
       </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5498504</v>
+        <v>5499423</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,40 +7380,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7422,22 +7422,22 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7449,7 +7449,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5499423</v>
+        <v>5498504</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,40 +7469,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N79">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O79">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P79">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R79">
         <v>1.95</v>
@@ -7511,22 +7511,22 @@
         <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y79">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
@@ -7538,7 +7538,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5498503</v>
+        <v>5495053</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O80">
         <v>3.4</v>
       </c>
       <c r="P80">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.975</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="V80">
-        <v>1.975</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.825</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5495053</v>
+        <v>5498503</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O81">
         <v>3.4</v>
       </c>
       <c r="P81">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
+        <v>1.825</v>
+      </c>
+      <c r="V81">
         <v>1.975</v>
       </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -16997,6 +16997,15 @@
       <c r="G186" t="s">
         <v>40</v>
       </c>
+      <c r="H186">
+        <v>4</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>41</v>
+      </c>
       <c r="K186">
         <v>1.25</v>
       </c>
@@ -17007,46 +17016,52 @@
         <v>8.5</v>
       </c>
       <c r="N186">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="O186">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P186">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Q186">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
         <v>3.25</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V186">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>0.825</v>
+      </c>
+      <c r="AC186">
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17071,6 +17086,15 @@
       <c r="G187" t="s">
         <v>36</v>
       </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>41</v>
+      </c>
       <c r="K187">
         <v>1.615</v>
       </c>
@@ -17081,46 +17105,52 @@
         <v>4.75</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O187">
         <v>3.8</v>
       </c>
       <c r="P187">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB187">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC187">
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17155,22 +17185,22 @@
         <v>1.45</v>
       </c>
       <c r="N188">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="O188">
         <v>4.333</v>
       </c>
       <c r="P188">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q188">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.75</v>
@@ -17241,19 +17271,19 @@
         <v>1</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17303,31 +17333,31 @@
         <v>1.4</v>
       </c>
       <c r="N190">
+        <v>6.5</v>
+      </c>
+      <c r="O190">
         <v>4.75</v>
       </c>
-      <c r="O190">
-        <v>4.2</v>
-      </c>
       <c r="P190">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R190">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17377,7 +17407,7 @@
         <v>3.4</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O191">
         <v>3.3</v>
@@ -17389,19 +17419,19 @@
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5499423</v>
+        <v>5498504</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,40 +7380,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N78">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7422,22 +7422,22 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y78">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
@@ -7449,7 +7449,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5498504</v>
+        <v>5499423</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,40 +7469,40 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P79">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R79">
         <v>1.95</v>
@@ -7511,22 +7511,22 @@
         <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z79">
         <v>-1</v>
@@ -7538,7 +7538,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
         <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z82">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83">
+        <v>1.8</v>
+      </c>
+      <c r="L83">
+        <v>3.5</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>2.05</v>
+      </c>
+      <c r="O83">
         <v>3</v>
-      </c>
-      <c r="J83" t="s">
-        <v>43</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>3.3</v>
-      </c>
-      <c r="M83">
-        <v>3.4</v>
-      </c>
-      <c r="N83">
-        <v>1.909</v>
-      </c>
-      <c r="O83">
-        <v>3.4</v>
       </c>
       <c r="P83">
         <v>3.75</v>
       </c>
       <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>1.75</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
+        <v>1.85</v>
+      </c>
+      <c r="W83">
+        <v>1.05</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.75</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.95</v>
-      </c>
-      <c r="S83">
-        <v>1.85</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>2.75</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
-      <c r="AA83">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB83">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,61 +8359,61 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O89">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>1.925</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
         <v>1.85</v>
       </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.8</v>
-      </c>
-      <c r="V89">
-        <v>2</v>
-      </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8422,13 +8422,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,61 +8448,61 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8511,13 +8511,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -17185,31 +17185,31 @@
         <v>1.45</v>
       </c>
       <c r="N188">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P188">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="Q188">
         <v>1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17280,10 +17280,10 @@
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17345,19 +17345,19 @@
         <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17428,10 +17428,10 @@
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17481,22 +17481,22 @@
         <v>2.25</v>
       </c>
       <c r="N192">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="O192">
         <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q192">
         <v>0</v>
       </c>
       <c r="R192">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
         <v>2.5</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -17203,13 +17203,13 @@
         <v>1.85</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
         <v>1.775</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17345,10 +17345,10 @@
         <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
         <v>2.75</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5495053</v>
+        <v>5498503</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="O80">
         <v>3.4</v>
       </c>
       <c r="P80">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.825</v>
+      </c>
+      <c r="V80">
         <v>1.975</v>
       </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5498503</v>
+        <v>5495053</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45066.63541666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="N81">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="O81">
         <v>3.4</v>
       </c>
       <c r="P81">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>2.5</v>
       </c>
       <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="V81">
-        <v>1.975</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.825</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82">
+        <v>1.8</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>2.05</v>
+      </c>
+      <c r="O82">
         <v>3</v>
-      </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>3.3</v>
-      </c>
-      <c r="M82">
-        <v>3.4</v>
-      </c>
-      <c r="N82">
-        <v>1.909</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
       </c>
       <c r="P82">
         <v>3.75</v>
       </c>
       <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.75</v>
+      </c>
+      <c r="S82">
+        <v>2.05</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
+        <v>1.85</v>
+      </c>
+      <c r="W82">
+        <v>1.05</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.75</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>1.95</v>
-      </c>
-      <c r="S82">
-        <v>1.85</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>2.75</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB82">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,76 +7825,76 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
         <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z83">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -17175,6 +17175,15 @@
       <c r="G188" t="s">
         <v>29</v>
       </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+      <c r="J188" t="s">
+        <v>43</v>
+      </c>
       <c r="K188">
         <v>5.5</v>
       </c>
@@ -17185,46 +17194,52 @@
         <v>1.45</v>
       </c>
       <c r="N188">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O188">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P188">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="Q188">
         <v>1.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
+        <v>1.775</v>
+      </c>
+      <c r="V188">
         <v>2.025</v>
       </c>
-      <c r="V188">
-        <v>1.775</v>
-      </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB188">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17333,13 +17348,13 @@
         <v>1.4</v>
       </c>
       <c r="N190">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="O190">
         <v>4.75</v>
       </c>
       <c r="P190">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="Q190">
         <v>1.25</v>
@@ -17481,22 +17496,22 @@
         <v>2.25</v>
       </c>
       <c r="N192">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O192">
         <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q192">
         <v>0</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T192">
         <v>2.5</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -17360,10 +17360,10 @@
         <v>1.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
         <v>2.75</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10405,6 +10405,15 @@
       <c r="G112" t="s">
         <v>31</v>
       </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>41</v>
+      </c>
       <c r="K112">
         <v>2.8</v>
       </c>
@@ -10415,45 +10424,421 @@
         <v>2.25</v>
       </c>
       <c r="N112">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P112">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q112">
         <v>0</v>
       </c>
       <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.8</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>2.3</v>
+      </c>
+      <c r="Y112">
+        <v>-1</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>-0</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>6814419</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45352.5625</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113">
+        <v>2.75</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>2.375</v>
+      </c>
+      <c r="N113">
+        <v>2.75</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.375</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>2.05</v>
+      </c>
+      <c r="S113">
+        <v>1.75</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>1.95</v>
+      </c>
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>6814416</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F114" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="K114">
+        <v>2.375</v>
+      </c>
+      <c r="L114">
+        <v>3.2</v>
+      </c>
+      <c r="M114">
+        <v>2.875</v>
+      </c>
+      <c r="N114">
+        <v>2.375</v>
+      </c>
+      <c r="O114">
+        <v>3.2</v>
+      </c>
+      <c r="P114">
+        <v>2.875</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>2.05</v>
+      </c>
+      <c r="S114">
+        <v>1.75</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
+        <v>1.85</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>6814417</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45353.5625</v>
+      </c>
+      <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115">
+        <v>1.5</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>5.5</v>
+      </c>
+      <c r="N115">
+        <v>1.45</v>
+      </c>
+      <c r="O115">
+        <v>4.2</v>
+      </c>
+      <c r="P115">
+        <v>5.75</v>
+      </c>
+      <c r="Q115">
+        <v>-1.25</v>
+      </c>
+      <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.775</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
         <v>1.825</v>
       </c>
-      <c r="S112">
+      <c r="V115">
         <v>1.975</v>
       </c>
-      <c r="T112">
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6816450</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+      <c r="K116">
+        <v>1.4</v>
+      </c>
+      <c r="L116">
+        <v>4.333</v>
+      </c>
+      <c r="M116">
+        <v>6.5</v>
+      </c>
+      <c r="N116">
+        <v>1.4</v>
+      </c>
+      <c r="O116">
+        <v>4.333</v>
+      </c>
+      <c r="P116">
+        <v>6.5</v>
+      </c>
+      <c r="Q116">
+        <v>-1.25</v>
+      </c>
+      <c r="R116">
+        <v>1.9</v>
+      </c>
+      <c r="S116">
+        <v>1.9</v>
+      </c>
+      <c r="T116">
+        <v>2.75</v>
+      </c>
+      <c r="U116">
+        <v>1.85</v>
+      </c>
+      <c r="V116">
+        <v>1.95</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>6814418</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45354.5625</v>
+      </c>
+      <c r="F117" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>30</v>
+      </c>
+      <c r="K117">
+        <v>3.1</v>
+      </c>
+      <c r="L117">
+        <v>3.2</v>
+      </c>
+      <c r="M117">
+        <v>2.2</v>
+      </c>
+      <c r="N117">
+        <v>3.1</v>
+      </c>
+      <c r="O117">
+        <v>3.2</v>
+      </c>
+      <c r="P117">
+        <v>2.2</v>
+      </c>
+      <c r="Q117">
+        <v>0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>2.5</v>
       </c>
-      <c r="U112">
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="V112">
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-      <c r="X112">
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
+        <v>-0.25</v>
+      </c>
+      <c r="R2">
+        <v>1.75</v>
+      </c>
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>1.95</v>
+      </c>
+      <c r="V2">
+        <v>1.85</v>
+      </c>
+      <c r="W2">
+        <v>1.05</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.95</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>2.5</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>2.75</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>1.363</v>
@@ -1325,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
         <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>36</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10504,22 +10504,22 @@
         <v>2.375</v>
       </c>
       <c r="N113">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O113">
         <v>3.2</v>
       </c>
       <c r="P113">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
+        <v>1.75</v>
+      </c>
+      <c r="S113">
         <v>2.05</v>
-      </c>
-      <c r="S113">
-        <v>1.75</v>
       </c>
       <c r="T113">
         <v>2.5</v>
@@ -10587,13 +10587,13 @@
         <v>2.875</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
+        <v>1.75</v>
+      </c>
+      <c r="S114">
         <v>2.05</v>
-      </c>
-      <c r="S114">
-        <v>1.75</v>
       </c>
       <c r="T114">
         <v>2.5</v>
@@ -10652,31 +10652,31 @@
         <v>5.5</v>
       </c>
       <c r="N115">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q115">
         <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -10726,31 +10726,31 @@
         <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10800,31 +10800,31 @@
         <v>2.2</v>
       </c>
       <c r="N117">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>0</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>1.85</v>
+      </c>
+      <c r="W3">
+        <v>1.05</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.75</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1.363</v>
@@ -1325,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
         <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>36</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10492,7 +10492,16 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>40</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10510,7 +10519,7 @@
         <v>3.2</v>
       </c>
       <c r="P113">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q113">
         <v>0.25</v>
@@ -10525,28 +10534,34 @@
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10578,31 +10593,31 @@
         <v>2.875</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O114">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -10620,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:29">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10652,31 +10667,31 @@
         <v>5.5</v>
       </c>
       <c r="N115">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O115">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
         <v>3</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -10694,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:29">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10768,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:29">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10788,7 +10803,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10800,22 +10815,22 @@
         <v>2.2</v>
       </c>
       <c r="N117">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O117">
         <v>3</v>
       </c>
       <c r="P117">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>2.25</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10583,6 +10583,15 @@
       <c r="G114" t="s">
         <v>37</v>
       </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>41</v>
+      </c>
       <c r="K114">
         <v>2.375</v>
       </c>
@@ -10593,46 +10602,52 @@
         <v>2.875</v>
       </c>
       <c r="N114">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O114">
         <v>3.1</v>
       </c>
       <c r="P114">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10652,10 +10667,19 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
       </c>
-      <c r="G115" t="s">
-        <v>36</v>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>40</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10667,22 +10691,22 @@
         <v>5.5</v>
       </c>
       <c r="N115">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O115">
         <v>4.75</v>
       </c>
       <c r="P115">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q115">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
         <v>2</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
       </c>
       <c r="T115">
         <v>3</v>
@@ -10694,19 +10718,25 @@
         <v>1.825</v>
       </c>
       <c r="W115">
+        <v>0.363</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.8</v>
+      </c>
+      <c r="AA115">
+        <v>-1</v>
+      </c>
+      <c r="AB115">
         <v>0</v>
       </c>
-      <c r="X115">
-        <v>0</v>
-      </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
+      <c r="AC115">
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10741,10 +10771,10 @@
         <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
         <v>4.75</v>
@@ -10827,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
         <v>2.25</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10761,6 +10761,15 @@
       <c r="G116" t="s">
         <v>38</v>
       </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>39</v>
+      </c>
       <c r="K116">
         <v>1.4</v>
       </c>
@@ -10771,10 +10780,10 @@
         <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P116">
         <v>4.75</v>
@@ -10783,34 +10792,40 @@
         <v>-0.75</v>
       </c>
       <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>1.975</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
         <v>1.8</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>2</v>
       </c>
-      <c r="T116">
-        <v>2.75</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
       <c r="W116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB116">
+        <v>0.8</v>
+      </c>
+      <c r="AC116">
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10835,6 +10850,15 @@
       <c r="G117" t="s">
         <v>30</v>
       </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>39</v>
+      </c>
       <c r="K117">
         <v>3.1</v>
       </c>
@@ -10866,24 +10890,400 @@
         <v>2.25</v>
       </c>
       <c r="U117">
+        <v>2.025</v>
+      </c>
+      <c r="V117">
+        <v>1.775</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>1.55</v>
+      </c>
+      <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>6814421</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>33</v>
+      </c>
+      <c r="K118">
+        <v>1.666</v>
+      </c>
+      <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>5</v>
+      </c>
+      <c r="N118">
+        <v>1.65</v>
+      </c>
+      <c r="O118">
+        <v>3.5</v>
+      </c>
+      <c r="P118">
+        <v>5.25</v>
+      </c>
+      <c r="Q118">
+        <v>-0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
+        <v>2.5</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>1.8</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>6814423</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>3.3</v>
+      </c>
+      <c r="M119">
+        <v>3.5</v>
+      </c>
+      <c r="N119">
+        <v>1.95</v>
+      </c>
+      <c r="O119">
+        <v>3.3</v>
+      </c>
+      <c r="P119">
+        <v>3.6</v>
+      </c>
+      <c r="Q119">
+        <v>-0.5</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
+        <v>1.875</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>6816449</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45361.375</v>
+      </c>
+      <c r="F120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120">
+        <v>2.625</v>
+      </c>
+      <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
+        <v>2.7</v>
+      </c>
+      <c r="O120">
+        <v>3.2</v>
+      </c>
+      <c r="P120">
+        <v>2.45</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
         <v>1.975</v>
       </c>
-      <c r="V117">
+      <c r="S120">
         <v>1.825</v>
       </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-      <c r="X117">
-        <v>0</v>
-      </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>2.025</v>
+      </c>
+      <c r="V120">
+        <v>1.775</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>6814420</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="K121">
+        <v>5.75</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>1.5</v>
+      </c>
+      <c r="N121">
+        <v>5.25</v>
+      </c>
+      <c r="O121">
+        <v>3.8</v>
+      </c>
+      <c r="P121">
+        <v>1.55</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>1.775</v>
+      </c>
+      <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
+        <v>1.95</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>6814422</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45361.67708333334</v>
+      </c>
+      <c r="F122" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3.25</v>
+      </c>
+      <c r="M122">
+        <v>2.2</v>
+      </c>
+      <c r="N122">
+        <v>3.1</v>
+      </c>
+      <c r="O122">
+        <v>3.25</v>
+      </c>
+      <c r="P122">
+        <v>2.15</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6814421</v>
+        <v>6814423</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10931,34 +10931,34 @@
         <v>28</v>
       </c>
       <c r="E118" s="2">
-        <v>45360.45833333334</v>
+        <v>45360.5625</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L118">
+        <v>3.3</v>
+      </c>
+      <c r="M118">
         <v>3.5</v>
       </c>
-      <c r="M118">
-        <v>5</v>
-      </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P118">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
         <v>1.85</v>
@@ -10970,10 +10970,10 @@
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -10996,7 +10996,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6814423</v>
+        <v>6816449</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11005,49 +11005,49 @@
         <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>45360.5625</v>
+        <v>45361.375</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
+        <v>2.5</v>
+      </c>
+      <c r="O119">
+        <v>3.2</v>
+      </c>
+      <c r="P119">
+        <v>2.625</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
         <v>1.95</v>
-      </c>
-      <c r="O119">
-        <v>3.3</v>
-      </c>
-      <c r="P119">
-        <v>3.6</v>
-      </c>
-      <c r="Q119">
-        <v>-0.5</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.8</v>
       </c>
       <c r="T119">
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6816449</v>
+        <v>6814420</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11079,49 +11079,49 @@
         <v>28</v>
       </c>
       <c r="E120" s="2">
-        <v>45361.375</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K120">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N120">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6814420</v>
+        <v>6814422</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11153,49 +11153,49 @@
         <v>28</v>
       </c>
       <c r="E121" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.67708333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K121">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="N121">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="Q121">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>0</v>
@@ -11210,80 +11210,6 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>6814422</v>
-      </c>
-      <c r="C122" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" t="s">
-        <v>28</v>
-      </c>
-      <c r="E122" s="2">
-        <v>45361.67708333334</v>
-      </c>
-      <c r="F122" t="s">
-        <v>36</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
-      <c r="K122">
-        <v>3</v>
-      </c>
-      <c r="L122">
-        <v>3.25</v>
-      </c>
-      <c r="M122">
-        <v>2.2</v>
-      </c>
-      <c r="N122">
-        <v>3.1</v>
-      </c>
-      <c r="O122">
-        <v>3.25</v>
-      </c>
-      <c r="P122">
-        <v>2.15</v>
-      </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
-        <v>1.9</v>
-      </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.95</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-      <c r="X122">
-        <v>0</v>
-      </c>
-      <c r="Y122">
-        <v>0</v>
-      </c>
-      <c r="Z122">
-        <v>0</v>
-      </c>
-      <c r="AA122">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6814423</v>
+        <v>6814421</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10931,34 +10931,43 @@
         <v>28</v>
       </c>
       <c r="E118" s="2">
-        <v>45360.5625</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O118">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R118">
         <v>1.85</v>
@@ -10970,25 +10979,31 @@
         <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -10996,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6816449</v>
+        <v>6814423</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11005,34 +11020,43 @@
         <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>45361.375</v>
+        <v>45360.5625</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N119">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
         <v>1.85</v>
@@ -11044,25 +11068,31 @@
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
+        <v>0.95</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11070,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6814420</v>
+        <v>6816449</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11079,34 +11109,43 @@
         <v>28</v>
       </c>
       <c r="E120" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.375</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>40</v>
       </c>
       <c r="K120">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="Q120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120">
         <v>1.85</v>
@@ -11115,7 +11154,7 @@
         <v>1.95</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
         <v>1.825</v>
@@ -11124,19 +11163,25 @@
         <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11144,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6814422</v>
+        <v>6814420</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11153,63 +11198,374 @@
         <v>28</v>
       </c>
       <c r="E121" s="2">
-        <v>45361.67708333334</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121">
+        <v>5.75</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>1.5</v>
+      </c>
+      <c r="N121">
+        <v>5.5</v>
+      </c>
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121">
+        <v>1.533</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>1.85</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
+        <v>1.95</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>3</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>0.95</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>6814427</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45364.44791666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
+        <v>30</v>
+      </c>
+      <c r="K122">
+        <v>2.5</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>2.55</v>
+      </c>
+      <c r="N122">
+        <v>2.625</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.45</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
+        <v>1.825</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
+        <v>1.825</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>6816448</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45364.53125</v>
+      </c>
+      <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="K123">
+        <v>2.15</v>
+      </c>
+      <c r="L123">
+        <v>3.2</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>2.6</v>
+      </c>
+      <c r="O123">
+        <v>3.2</v>
+      </c>
+      <c r="P123">
+        <v>2.4</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>1.975</v>
+      </c>
+      <c r="S123">
+        <v>1.825</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.925</v>
+      </c>
+      <c r="V123">
+        <v>1.875</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>6814426</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45364.61458333334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
         <v>35</v>
       </c>
-      <c r="G121" t="s">
+      <c r="K124">
+        <v>2.55</v>
+      </c>
+      <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
+        <v>2.4</v>
+      </c>
+      <c r="N124">
+        <v>2.25</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>2.7</v>
+      </c>
+      <c r="Q124">
+        <v>-0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.775</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.825</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>6814425</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45365.53125</v>
+      </c>
+      <c r="F125" t="s">
         <v>31</v>
       </c>
-      <c r="K121">
-        <v>3</v>
-      </c>
-      <c r="L121">
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
+      <c r="L125">
         <v>3.25</v>
       </c>
-      <c r="M121">
-        <v>2.2</v>
-      </c>
-      <c r="N121">
-        <v>3.4</v>
-      </c>
-      <c r="O121">
-        <v>3.3</v>
-      </c>
-      <c r="P121">
-        <v>2</v>
-      </c>
-      <c r="Q121">
-        <v>0.25</v>
-      </c>
-      <c r="R121">
-        <v>2</v>
-      </c>
-      <c r="S121">
+      <c r="M125">
         <v>1.8</v>
       </c>
-      <c r="T121">
+      <c r="N125">
+        <v>3.8</v>
+      </c>
+      <c r="O125">
+        <v>3.25</v>
+      </c>
+      <c r="P125">
+        <v>1.833</v>
+      </c>
+      <c r="Q125">
+        <v>0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
         <v>2.5</v>
       </c>
-      <c r="U121">
-        <v>1.9</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121">
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>1.85</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11295,6 +11295,15 @@
       <c r="G122" t="s">
         <v>30</v>
       </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" t="s">
+        <v>39</v>
+      </c>
       <c r="K122">
         <v>2.5</v>
       </c>
@@ -11305,10 +11314,10 @@
         <v>2.55</v>
       </c>
       <c r="N122">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P122">
         <v>2.45</v>
@@ -11323,28 +11332,34 @@
         <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB122">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11369,6 +11384,15 @@
       <c r="G123" t="s">
         <v>38</v>
       </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>39</v>
+      </c>
       <c r="K123">
         <v>2.15</v>
       </c>
@@ -11379,22 +11403,22 @@
         <v>3</v>
       </c>
       <c r="N123">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11406,19 +11430,25 @@
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11441,7 +11471,16 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11453,13 +11492,13 @@
         <v>2.4</v>
       </c>
       <c r="N124">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
@@ -11480,19 +11519,25 @@
         <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11517,6 +11562,15 @@
       <c r="G125" t="s">
         <v>37</v>
       </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>39</v>
+      </c>
       <c r="K125">
         <v>4</v>
       </c>
@@ -11527,45 +11581,377 @@
         <v>1.8</v>
       </c>
       <c r="N125">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="Q125">
         <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.85</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="V125">
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>0.75</v>
+      </c>
+      <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>0.825</v>
+      </c>
+      <c r="AB125">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC125">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6814428</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126">
+        <v>3.4</v>
+      </c>
+      <c r="L126">
+        <v>3.4</v>
+      </c>
+      <c r="M126">
+        <v>1.909</v>
+      </c>
+      <c r="N126">
+        <v>3.6</v>
+      </c>
+      <c r="O126">
+        <v>3.3</v>
+      </c>
+      <c r="P126">
+        <v>1.909</v>
+      </c>
+      <c r="Q126">
+        <v>0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.8</v>
+      </c>
+      <c r="V126">
+        <v>2</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>2.3</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
+        <v>0.8</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>-0.5</v>
+      </c>
+      <c r="AC126">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>6814751</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45367.67708333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>40</v>
+      </c>
+      <c r="K127">
+        <v>1.727</v>
+      </c>
+      <c r="L127">
+        <v>3.6</v>
+      </c>
+      <c r="M127">
+        <v>3.9</v>
+      </c>
+      <c r="N127">
+        <v>1.8</v>
+      </c>
+      <c r="O127">
+        <v>3.6</v>
+      </c>
+      <c r="P127">
+        <v>3.75</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>1.975</v>
+      </c>
+      <c r="V127">
+        <v>1.825</v>
+      </c>
+      <c r="W127">
+        <v>0.8</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.925</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>6814429</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128">
+        <v>1.285</v>
+      </c>
+      <c r="L128">
+        <v>5</v>
+      </c>
+      <c r="M128">
+        <v>7.5</v>
+      </c>
+      <c r="N128">
+        <v>1.363</v>
+      </c>
+      <c r="O128">
+        <v>4.5</v>
+      </c>
+      <c r="P128">
+        <v>7</v>
+      </c>
+      <c r="Q128">
+        <v>-1.25</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="W125">
+      <c r="W128">
         <v>0</v>
       </c>
-      <c r="X125">
+      <c r="X128">
         <v>0</v>
       </c>
-      <c r="Y125">
+      <c r="Y128">
         <v>0</v>
       </c>
-      <c r="Z125">
+      <c r="Z128">
         <v>0</v>
       </c>
-      <c r="AA125">
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6814430</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F129" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129">
+        <v>1.666</v>
+      </c>
+      <c r="L129">
+        <v>3.6</v>
+      </c>
+      <c r="M129">
+        <v>4.2</v>
+      </c>
+      <c r="N129">
+        <v>1.8</v>
+      </c>
+      <c r="O129">
+        <v>3.5</v>
+      </c>
+      <c r="P129">
+        <v>3.75</v>
+      </c>
+      <c r="Q129">
+        <v>-0.5</v>
+      </c>
+      <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
+        <v>1.975</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC129"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11812,7 +11812,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6814429</v>
+        <v>6816447</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11821,137 +11821,715 @@
         <v>28</v>
       </c>
       <c r="E128" s="2">
-        <v>45368.45833333334</v>
+        <v>45368.375</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="L128">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M128">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="N128">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="Q128">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>0.45</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
+        <v>6814429</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>37</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>40</v>
+      </c>
+      <c r="K129">
+        <v>1.285</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>7.5</v>
+      </c>
+      <c r="N129">
+        <v>1.333</v>
+      </c>
+      <c r="O129">
+        <v>4.5</v>
+      </c>
+      <c r="P129">
+        <v>7</v>
+      </c>
+      <c r="Q129">
+        <v>-1.5</v>
+      </c>
+      <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>1.85</v>
+      </c>
+      <c r="W129">
+        <v>0.333</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.825</v>
+      </c>
+      <c r="AB129">
+        <v>0.475</v>
+      </c>
+      <c r="AC129">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
         <v>6814430</v>
       </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="2">
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
         <v>45368.5625</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F130" t="s">
         <v>35</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>31</v>
       </c>
-      <c r="K129">
+      <c r="H130">
+        <v>3</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>40</v>
+      </c>
+      <c r="K130">
         <v>1.666</v>
       </c>
-      <c r="L129">
+      <c r="L130">
         <v>3.6</v>
       </c>
-      <c r="M129">
+      <c r="M130">
         <v>4.2</v>
       </c>
-      <c r="N129">
+      <c r="N130">
+        <v>1.727</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>4</v>
+      </c>
+      <c r="Q130">
+        <v>-0.75</v>
+      </c>
+      <c r="R130">
+        <v>1.975</v>
+      </c>
+      <c r="S130">
+        <v>1.825</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
+        <v>1.95</v>
+      </c>
+      <c r="W130">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC130">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7907436</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45374.67708333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>40</v>
+      </c>
+      <c r="K131">
+        <v>1.85</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.8</v>
+      </c>
+      <c r="N131">
+        <v>1.95</v>
+      </c>
+      <c r="O131">
+        <v>3.25</v>
+      </c>
+      <c r="P131">
+        <v>3.5</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
         <v>1.8</v>
       </c>
-      <c r="O129">
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>0.95</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6816446</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45380.45833333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="K132">
+        <v>2.8</v>
+      </c>
+      <c r="L132">
         <v>3.5</v>
       </c>
-      <c r="P129">
-        <v>3.75</v>
-      </c>
-      <c r="Q129">
-        <v>-0.5</v>
-      </c>
-      <c r="R129">
+      <c r="M132">
+        <v>2.1</v>
+      </c>
+      <c r="N132">
+        <v>2.75</v>
+      </c>
+      <c r="O132">
+        <v>3.5</v>
+      </c>
+      <c r="P132">
+        <v>2.1</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.85</v>
+      </c>
+      <c r="S132">
+        <v>1.95</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
+        <v>1.85</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7977922</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45380.5625</v>
+      </c>
+      <c r="F133" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="K133">
+        <v>1.285</v>
+      </c>
+      <c r="L133">
+        <v>5.5</v>
+      </c>
+      <c r="M133">
+        <v>6.5</v>
+      </c>
+      <c r="N133">
+        <v>1.4</v>
+      </c>
+      <c r="O133">
+        <v>5</v>
+      </c>
+      <c r="P133">
+        <v>5</v>
+      </c>
+      <c r="Q133">
+        <v>-1.25</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
+        <v>1.95</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7977924</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45380.67708333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" t="s">
+        <v>29</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>3.1</v>
+      </c>
+      <c r="N134">
+        <v>2.3</v>
+      </c>
+      <c r="O134">
+        <v>3.4</v>
+      </c>
+      <c r="P134">
+        <v>2.6</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1.75</v>
+      </c>
+      <c r="S134">
+        <v>2.05</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.9</v>
+      </c>
+      <c r="V134">
+        <v>1.9</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7977921</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135">
+        <v>1.5</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>6</v>
+      </c>
+      <c r="N135">
+        <v>1.5</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>5.75</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.9</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>1.85</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7977923</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>33</v>
+      </c>
+      <c r="K136">
+        <v>1.2</v>
+      </c>
+      <c r="L136">
+        <v>6.5</v>
+      </c>
+      <c r="M136">
+        <v>8</v>
+      </c>
+      <c r="N136">
+        <v>1.2</v>
+      </c>
+      <c r="O136">
+        <v>6.5</v>
+      </c>
+      <c r="P136">
+        <v>8</v>
+      </c>
+      <c r="Q136">
+        <v>-1.75</v>
+      </c>
+      <c r="R136">
         <v>1.825</v>
       </c>
-      <c r="S129">
+      <c r="S136">
         <v>1.975</v>
       </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
-      <c r="W129">
-        <v>0</v>
-      </c>
-      <c r="X129">
-        <v>0</v>
-      </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6816446</v>
+        <v>7977922</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12177,49 +12177,49 @@
         <v>28</v>
       </c>
       <c r="E132" s="2">
-        <v>45380.45833333334</v>
+        <v>45380.5625</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M132">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N132">
+        <v>1.4</v>
+      </c>
+      <c r="O132">
+        <v>5</v>
+      </c>
+      <c r="P132">
+        <v>5</v>
+      </c>
+      <c r="Q132">
+        <v>-1.25</v>
+      </c>
+      <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
+        <v>1.825</v>
+      </c>
+      <c r="T132">
         <v>2.75</v>
       </c>
-      <c r="O132">
-        <v>3.5</v>
-      </c>
-      <c r="P132">
-        <v>2.1</v>
-      </c>
-      <c r="Q132">
-        <v>0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.85</v>
-      </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12242,7 +12242,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7977922</v>
+        <v>7977924</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12251,49 +12251,49 @@
         <v>28</v>
       </c>
       <c r="E133" s="2">
-        <v>45380.5625</v>
+        <v>45380.67708333334</v>
       </c>
       <c r="F133" t="s">
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K133">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O133">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12316,7 +12316,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7977924</v>
+        <v>7977921</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12325,43 +12325,43 @@
         <v>28</v>
       </c>
       <c r="E134" s="2">
-        <v>45380.67708333334</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N134">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
         <v>1.9</v>
@@ -12390,7 +12390,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7977921</v>
+        <v>7977923</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12399,49 +12399,49 @@
         <v>28</v>
       </c>
       <c r="E135" s="2">
-        <v>45381.45833333334</v>
+        <v>45381.5625</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M135">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N135">
-        <v>1.5</v>
+        <v>1.222</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P135">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -12456,80 +12456,6 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>7977923</v>
-      </c>
-      <c r="C136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45381.5625</v>
-      </c>
-      <c r="F136" t="s">
-        <v>37</v>
-      </c>
-      <c r="G136" t="s">
-        <v>33</v>
-      </c>
-      <c r="K136">
-        <v>1.2</v>
-      </c>
-      <c r="L136">
-        <v>6.5</v>
-      </c>
-      <c r="M136">
-        <v>8</v>
-      </c>
-      <c r="N136">
-        <v>1.2</v>
-      </c>
-      <c r="O136">
-        <v>6.5</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
-      <c r="Q136">
-        <v>-1.75</v>
-      </c>
-      <c r="R136">
-        <v>1.825</v>
-      </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
-      <c r="V136">
-        <v>1.95</v>
-      </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
-        <v>0</v>
-      </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7977922</v>
+        <v>7977921</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12177,49 +12177,49 @@
         <v>28</v>
       </c>
       <c r="E132" s="2">
-        <v>45380.5625</v>
+        <v>45381.45833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K132">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="L132">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O132">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P132">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
         <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12242,7 +12242,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7977924</v>
+        <v>7977923</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12251,49 +12251,49 @@
         <v>28</v>
       </c>
       <c r="E133" s="2">
-        <v>45380.67708333334</v>
+        <v>45381.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K133">
+        <v>1.2</v>
+      </c>
+      <c r="L133">
+        <v>6.5</v>
+      </c>
+      <c r="M133">
+        <v>8</v>
+      </c>
+      <c r="N133">
+        <v>1.222</v>
+      </c>
+      <c r="O133">
+        <v>6.5</v>
+      </c>
+      <c r="P133">
+        <v>10</v>
+      </c>
+      <c r="Q133">
+        <v>-1.75</v>
+      </c>
+      <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
         <v>2</v>
       </c>
-      <c r="L133">
-        <v>3.4</v>
-      </c>
-      <c r="M133">
-        <v>3.1</v>
-      </c>
-      <c r="N133">
-        <v>2.3</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
-      <c r="P133">
-        <v>2.625</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>1.75</v>
-      </c>
-      <c r="S133">
-        <v>2.05</v>
-      </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
         <v>0</v>
@@ -12308,154 +12308,6 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>7977921</v>
-      </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" t="s">
-        <v>28</v>
-      </c>
-      <c r="E134" s="2">
-        <v>45381.45833333334</v>
-      </c>
-      <c r="F134" t="s">
-        <v>34</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
-      <c r="K134">
-        <v>1.5</v>
-      </c>
-      <c r="L134">
-        <v>3.6</v>
-      </c>
-      <c r="M134">
-        <v>6</v>
-      </c>
-      <c r="N134">
-        <v>1.5</v>
-      </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
-      <c r="P134">
-        <v>5.75</v>
-      </c>
-      <c r="Q134">
-        <v>-1</v>
-      </c>
-      <c r="R134">
-        <v>1.85</v>
-      </c>
-      <c r="S134">
-        <v>1.95</v>
-      </c>
-      <c r="T134">
-        <v>2.75</v>
-      </c>
-      <c r="U134">
-        <v>1.9</v>
-      </c>
-      <c r="V134">
-        <v>1.9</v>
-      </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-      <c r="AA134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>7977923</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45381.5625</v>
-      </c>
-      <c r="F135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G135" t="s">
-        <v>33</v>
-      </c>
-      <c r="K135">
-        <v>1.2</v>
-      </c>
-      <c r="L135">
-        <v>6.5</v>
-      </c>
-      <c r="M135">
-        <v>8</v>
-      </c>
-      <c r="N135">
-        <v>1.222</v>
-      </c>
-      <c r="O135">
-        <v>6.5</v>
-      </c>
-      <c r="P135">
-        <v>10</v>
-      </c>
-      <c r="Q135">
-        <v>-1.75</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
-      </c>
-      <c r="Y135">
-        <v>0</v>
-      </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AA135">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12163,154 +12163,6 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>7977921</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="2">
-        <v>45381.45833333334</v>
-      </c>
-      <c r="F132" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="K132">
-        <v>1.5</v>
-      </c>
-      <c r="L132">
-        <v>3.6</v>
-      </c>
-      <c r="M132">
-        <v>6</v>
-      </c>
-      <c r="N132">
-        <v>1.5</v>
-      </c>
-      <c r="O132">
-        <v>3.75</v>
-      </c>
-      <c r="P132">
-        <v>5.75</v>
-      </c>
-      <c r="Q132">
-        <v>-1</v>
-      </c>
-      <c r="R132">
-        <v>1.85</v>
-      </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2.75</v>
-      </c>
-      <c r="U132">
-        <v>1.9</v>
-      </c>
-      <c r="V132">
-        <v>1.9</v>
-      </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-      <c r="X132">
-        <v>0</v>
-      </c>
-      <c r="Y132">
-        <v>0</v>
-      </c>
-      <c r="Z132">
-        <v>0</v>
-      </c>
-      <c r="AA132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>7977923</v>
-      </c>
-      <c r="C133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45381.5625</v>
-      </c>
-      <c r="F133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>33</v>
-      </c>
-      <c r="K133">
-        <v>1.2</v>
-      </c>
-      <c r="L133">
-        <v>6.5</v>
-      </c>
-      <c r="M133">
-        <v>8</v>
-      </c>
-      <c r="N133">
-        <v>1.222</v>
-      </c>
-      <c r="O133">
-        <v>6.5</v>
-      </c>
-      <c r="P133">
-        <v>10</v>
-      </c>
-      <c r="Q133">
-        <v>-1.75</v>
-      </c>
-      <c r="R133">
-        <v>1.8</v>
-      </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
-      <c r="T133">
-        <v>3</v>
-      </c>
-      <c r="U133">
-        <v>1.825</v>
-      </c>
-      <c r="V133">
-        <v>1.975</v>
-      </c>
-      <c r="W133">
-        <v>0</v>
-      </c>
-      <c r="X133">
-        <v>0</v>
-      </c>
-      <c r="Y133">
-        <v>0</v>
-      </c>
-      <c r="Z133">
-        <v>0</v>
-      </c>
-      <c r="AA133">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
+        <v>-0.25</v>
+      </c>
+      <c r="R2">
+        <v>1.75</v>
+      </c>
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>1.95</v>
+      </c>
+      <c r="V2">
+        <v>1.85</v>
+      </c>
+      <c r="W2">
+        <v>1.05</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.95</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>2.5</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>2.75</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1236,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>1.363</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
         <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,10 +11290,10 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
         <v>29</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12161,6 +12161,747 @@
       </c>
       <c r="AC131">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6816446</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45380.45833333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132">
+        <v>2.8</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>2.1</v>
+      </c>
+      <c r="N132">
+        <v>2.75</v>
+      </c>
+      <c r="O132">
+        <v>3.3</v>
+      </c>
+      <c r="P132">
+        <v>2.2</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.8</v>
+      </c>
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>1.875</v>
+      </c>
+      <c r="W132">
+        <v>1.75</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>0.8</v>
+      </c>
+      <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>-0.5</v>
+      </c>
+      <c r="AC132">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7977922</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45380.5625</v>
+      </c>
+      <c r="F133" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" t="s">
+        <v>32</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K133">
+        <v>1.285</v>
+      </c>
+      <c r="L133">
+        <v>5.5</v>
+      </c>
+      <c r="M133">
+        <v>6.5</v>
+      </c>
+      <c r="N133">
+        <v>1.333</v>
+      </c>
+      <c r="O133">
+        <v>5.25</v>
+      </c>
+      <c r="P133">
+        <v>5.5</v>
+      </c>
+      <c r="Q133">
+        <v>-1.5</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>1.8</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
+        <v>2.025</v>
+      </c>
+      <c r="W133">
+        <v>0.333</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.8</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>7977924</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45380.67708333334</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134" t="s">
+        <v>40</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>3.4</v>
+      </c>
+      <c r="M134">
+        <v>3.1</v>
+      </c>
+      <c r="N134">
+        <v>2.3</v>
+      </c>
+      <c r="O134">
+        <v>3.3</v>
+      </c>
+      <c r="P134">
+        <v>2.625</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
+        <v>2.025</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.8</v>
+      </c>
+      <c r="V134">
+        <v>2</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.625</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>1.025</v>
+      </c>
+      <c r="AB134">
+        <v>0.8</v>
+      </c>
+      <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7977921</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135">
+        <v>1.5</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>6</v>
+      </c>
+      <c r="N135">
+        <v>1.55</v>
+      </c>
+      <c r="O135">
+        <v>3.6</v>
+      </c>
+      <c r="P135">
+        <v>5.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
+        <v>2.75</v>
+      </c>
+      <c r="U135">
+        <v>2</v>
+      </c>
+      <c r="V135">
+        <v>1.8</v>
+      </c>
+      <c r="W135">
+        <v>0.55</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>-1</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>-0</v>
+      </c>
+      <c r="AB135">
+        <v>1</v>
+      </c>
+      <c r="AC135">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7977923</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>41</v>
+      </c>
+      <c r="K136">
+        <v>1.2</v>
+      </c>
+      <c r="L136">
+        <v>6.5</v>
+      </c>
+      <c r="M136">
+        <v>8</v>
+      </c>
+      <c r="N136">
+        <v>1.222</v>
+      </c>
+      <c r="O136">
+        <v>6.5</v>
+      </c>
+      <c r="P136">
+        <v>10</v>
+      </c>
+      <c r="Q136">
+        <v>-1.75</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>1.85</v>
+      </c>
+      <c r="V136">
+        <v>1.95</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>5.5</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>1</v>
+      </c>
+      <c r="AB136">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6814753</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45387.63541666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+      <c r="K137">
+        <v>6</v>
+      </c>
+      <c r="L137">
+        <v>4.5</v>
+      </c>
+      <c r="M137">
+        <v>1.444</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
+        <v>1.444</v>
+      </c>
+      <c r="Q137">
+        <v>1.25</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
+        <v>1.975</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>8035687</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138">
+        <v>6</v>
+      </c>
+      <c r="L138">
+        <v>4.333</v>
+      </c>
+      <c r="M138">
+        <v>1.45</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138">
+        <v>4.333</v>
+      </c>
+      <c r="P138">
+        <v>1.45</v>
+      </c>
+      <c r="Q138">
+        <v>1.25</v>
+      </c>
+      <c r="R138">
+        <v>1.775</v>
+      </c>
+      <c r="S138">
+        <v>2.025</v>
+      </c>
+      <c r="T138">
+        <v>3</v>
+      </c>
+      <c r="U138">
+        <v>2.025</v>
+      </c>
+      <c r="V138">
+        <v>1.775</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6814435</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>32</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139">
+        <v>2.55</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>2.55</v>
+      </c>
+      <c r="N139">
+        <v>2.55</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>2.55</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1.9</v>
+      </c>
+      <c r="S139">
+        <v>1.9</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.775</v>
+      </c>
+      <c r="V139">
+        <v>2.025</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6837117</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45388.63541666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s">
+        <v>37</v>
+      </c>
+      <c r="K140">
+        <v>5.25</v>
+      </c>
+      <c r="L140">
+        <v>4.2</v>
+      </c>
+      <c r="M140">
+        <v>1.5</v>
+      </c>
+      <c r="N140">
+        <v>5.25</v>
+      </c>
+      <c r="O140">
+        <v>4.2</v>
+      </c>
+      <c r="P140">
+        <v>1.5</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>1.85</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
+        <v>1.825</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>1.85</v>
+      </c>
+      <c r="W3">
+        <v>1.05</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.75</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1236,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>1.363</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,11 +7730,11 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
         <v>29</v>
       </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
       <c r="H82">
         <v>2</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
         <v>30</v>
       </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12361,7 +12361,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12658,13 +12658,13 @@
         <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12714,31 +12714,31 @@
         <v>1.45</v>
       </c>
       <c r="N138">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="Q138">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R138">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12788,31 +12788,31 @@
         <v>2.55</v>
       </c>
       <c r="N139">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O139">
         <v>3.25</v>
       </c>
       <c r="P139">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q139">
         <v>0</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12874,10 +12874,10 @@
         <v>1</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>2.75</v>
@@ -12901,6 +12901,80 @@
         <v>0</v>
       </c>
       <c r="AA140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>6814434</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
+        <v>35</v>
+      </c>
+      <c r="K141">
+        <v>1.833</v>
+      </c>
+      <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141">
+        <v>1.833</v>
+      </c>
+      <c r="O141">
+        <v>3.25</v>
+      </c>
+      <c r="P141">
+        <v>4</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.875</v>
+      </c>
+      <c r="S141">
+        <v>1.925</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>2</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -12643,7 +12643,7 @@
         <v>6</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P137">
         <v>1.444</v>
@@ -12652,19 +12652,19 @@
         <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
+        <v>1.775</v>
+      </c>
+      <c r="V137">
         <v>2.025</v>
-      </c>
-      <c r="V137">
-        <v>1.775</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12717,19 +12717,19 @@
         <v>5</v>
       </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="Q138">
         <v>1</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
         <v>2.75</v>
@@ -12948,10 +12948,10 @@
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.25</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12761,7 +12761,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6814435</v>
+        <v>8035687</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12770,49 +12770,49 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45388.52083333334</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K139">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M139">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="N139">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P139">
+        <v>1.571</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>1.825</v>
+      </c>
+      <c r="S139">
+        <v>1.975</v>
+      </c>
+      <c r="T139">
         <v>2.75</v>
       </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2.25</v>
-      </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6837117</v>
+        <v>6814435</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12844,49 +12844,49 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45388.63541666666</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K140">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="L140">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="N140">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12909,72 +12909,146 @@
         <v>139</v>
       </c>
       <c r="B141">
+        <v>6837117</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45388.63541666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141">
+        <v>5.25</v>
+      </c>
+      <c r="L141">
+        <v>4.2</v>
+      </c>
+      <c r="M141">
+        <v>1.5</v>
+      </c>
+      <c r="N141">
+        <v>5.25</v>
+      </c>
+      <c r="O141">
+        <v>4.2</v>
+      </c>
+      <c r="P141">
+        <v>1.5</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
+        <v>1.825</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
         <v>6814434</v>
       </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="2">
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
         <v>45389.41666666666</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>30</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G142" t="s">
         <v>35</v>
       </c>
-      <c r="K141">
+      <c r="K142">
         <v>1.833</v>
       </c>
-      <c r="L141">
+      <c r="L142">
         <v>3.25</v>
       </c>
-      <c r="M141">
+      <c r="M142">
         <v>4</v>
       </c>
-      <c r="N141">
+      <c r="N142">
         <v>1.833</v>
       </c>
-      <c r="O141">
+      <c r="O142">
         <v>3.25</v>
       </c>
-      <c r="P141">
+      <c r="P142">
         <v>4</v>
       </c>
-      <c r="Q141">
+      <c r="Q142">
         <v>-0.5</v>
       </c>
-      <c r="R141">
+      <c r="R142">
         <v>1.825</v>
       </c>
-      <c r="S141">
+      <c r="S142">
         <v>1.975</v>
       </c>
-      <c r="T141">
+      <c r="T142">
         <v>2.25</v>
       </c>
-      <c r="U141">
+      <c r="U142">
         <v>1.8</v>
       </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
+      <c r="V142">
+        <v>2</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12643,28 +12643,28 @@
         <v>6</v>
       </c>
       <c r="O137">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="Q137">
         <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
         <v>0</v>
@@ -12735,10 +12735,10 @@
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12761,7 +12761,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>8035687</v>
+        <v>6814435</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12770,34 +12770,34 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K139">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="N139">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139">
         <v>1.825</v>
@@ -12806,13 +12806,13 @@
         <v>1.975</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6814435</v>
+        <v>6837117</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12844,49 +12844,49 @@
         <v>28</v>
       </c>
       <c r="E140" s="2">
-        <v>45388.52083333334</v>
+        <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K140">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M140">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="N140">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
-      </c>
-      <c r="S140">
-        <v>1.975</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -12909,7 +12909,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6837117</v>
+        <v>6814434</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12918,49 +12918,49 @@
         <v>28</v>
       </c>
       <c r="E141" s="2">
-        <v>45388.63541666666</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K141">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="L141">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="N141">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P141">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q141">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -12975,80 +12975,6 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>6814434</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="2">
-        <v>45389.41666666666</v>
-      </c>
-      <c r="F142" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
-      <c r="K142">
-        <v>1.833</v>
-      </c>
-      <c r="L142">
-        <v>3.25</v>
-      </c>
-      <c r="M142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>1.833</v>
-      </c>
-      <c r="O142">
-        <v>3.25</v>
-      </c>
-      <c r="P142">
-        <v>4</v>
-      </c>
-      <c r="Q142">
-        <v>-0.5</v>
-      </c>
-      <c r="R142">
-        <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>1.975</v>
-      </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.8</v>
-      </c>
-      <c r="V142">
-        <v>2</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -12630,6 +12630,15 @@
       <c r="G137" t="s">
         <v>36</v>
       </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>39</v>
+      </c>
       <c r="K137">
         <v>6</v>
       </c>
@@ -12640,46 +12649,52 @@
         <v>1.444</v>
       </c>
       <c r="N137">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P137">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,31 +12729,31 @@
         <v>1.45</v>
       </c>
       <c r="N138">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O138">
         <v>4</v>
       </c>
       <c r="P138">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="Q138">
         <v>1</v>
       </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12809,10 +12824,10 @@
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12948,10 +12963,10 @@
         <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
         <v>2.25</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC141"/>
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12269,7 +12269,7 @@
         <v>45380.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12358,7 +12358,7 @@
         <v>45380.67708333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>8035687</v>
+        <v>6837117</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12711,49 +12711,49 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.63541666666</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K138">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="L138">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="M138">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N138">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P138">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q138">
         <v>1</v>
       </c>
       <c r="R138">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
         <v>0</v>
@@ -12776,7 +12776,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6814435</v>
+        <v>6814434</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12785,49 +12785,49 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45388.52083333334</v>
+        <v>45389.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K139">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
+        <v>1.975</v>
+      </c>
+      <c r="S139">
         <v>1.825</v>
-      </c>
-      <c r="S139">
-        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -12842,154 +12842,6 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>6837117</v>
-      </c>
-      <c r="C140" t="s">
-        <v>28</v>
-      </c>
-      <c r="D140" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45388.63541666666</v>
-      </c>
-      <c r="F140" t="s">
-        <v>29</v>
-      </c>
-      <c r="G140" t="s">
-        <v>37</v>
-      </c>
-      <c r="K140">
-        <v>5.25</v>
-      </c>
-      <c r="L140">
-        <v>4.2</v>
-      </c>
-      <c r="M140">
-        <v>1.5</v>
-      </c>
-      <c r="N140">
-        <v>5.25</v>
-      </c>
-      <c r="O140">
-        <v>4.2</v>
-      </c>
-      <c r="P140">
-        <v>1.5</v>
-      </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
-      <c r="R140">
-        <v>1.925</v>
-      </c>
-      <c r="S140">
-        <v>1.875</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>6814434</v>
-      </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="2">
-        <v>45389.41666666666</v>
-      </c>
-      <c r="F141" t="s">
-        <v>30</v>
-      </c>
-      <c r="G141" t="s">
-        <v>35</v>
-      </c>
-      <c r="K141">
-        <v>1.833</v>
-      </c>
-      <c r="L141">
-        <v>3.25</v>
-      </c>
-      <c r="M141">
-        <v>4</v>
-      </c>
-      <c r="N141">
-        <v>1.833</v>
-      </c>
-      <c r="O141">
-        <v>3.25</v>
-      </c>
-      <c r="P141">
-        <v>4</v>
-      </c>
-      <c r="Q141">
-        <v>-0.5</v>
-      </c>
-      <c r="R141">
-        <v>1.85</v>
-      </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
-      <c r="T141">
-        <v>2.25</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
-        <v>0</v>
-      </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC139"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12269,7 +12269,7 @@
         <v>45380.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12358,7 +12358,7 @@
         <v>45380.67708333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6837117</v>
+        <v>8035687</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12711,64 +12711,79 @@
         <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>45388.63541666666</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138" t="s">
+        <v>39</v>
       </c>
       <c r="K138">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="L138">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M138">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="N138">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="O138">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q138">
         <v>1</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z138">
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB138">
+        <v>1</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12776,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6814434</v>
+        <v>6814435</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12785,63 +12800,478 @@
         <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>45389.41666666666</v>
+        <v>45388.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>41</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N139">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P139">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
         <v>0</v>
       </c>
       <c r="AA139">
+        <v>-0</v>
+      </c>
+      <c r="AB139">
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>6837117</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45388.63541666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
+        <v>37</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140">
+        <v>5.25</v>
+      </c>
+      <c r="L140">
+        <v>4.2</v>
+      </c>
+      <c r="M140">
+        <v>1.5</v>
+      </c>
+      <c r="N140">
+        <v>5.75</v>
+      </c>
+      <c r="O140">
+        <v>4.333</v>
+      </c>
+      <c r="P140">
+        <v>1.45</v>
+      </c>
+      <c r="Q140">
+        <v>1.25</v>
+      </c>
+      <c r="R140">
+        <v>1.8</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
+        <v>1.825</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>0.45</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1</v>
+      </c>
+      <c r="AB140">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>6814434</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45389.41666666666</v>
+      </c>
+      <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" t="s">
+        <v>35</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141" t="s">
+        <v>39</v>
+      </c>
+      <c r="K141">
+        <v>1.833</v>
+      </c>
+      <c r="L141">
+        <v>3.25</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
+      </c>
+      <c r="N141">
+        <v>1.75</v>
+      </c>
+      <c r="O141">
+        <v>3.4</v>
+      </c>
+      <c r="P141">
+        <v>4.333</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.775</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>1.775</v>
+      </c>
+      <c r="V141">
+        <v>2.025</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>3.333</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>1.025</v>
+      </c>
+      <c r="AB141">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>6919052</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45392.40625</v>
+      </c>
+      <c r="F142" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>30</v>
+      </c>
+      <c r="K142">
+        <v>1.444</v>
+      </c>
+      <c r="L142">
+        <v>4.2</v>
+      </c>
+      <c r="M142">
+        <v>6</v>
+      </c>
+      <c r="N142">
+        <v>1.444</v>
+      </c>
+      <c r="O142">
+        <v>4.2</v>
+      </c>
+      <c r="P142">
+        <v>6</v>
+      </c>
+      <c r="Q142">
+        <v>-1.25</v>
+      </c>
+      <c r="R142">
+        <v>2.025</v>
+      </c>
+      <c r="S142">
+        <v>1.775</v>
+      </c>
+      <c r="T142">
+        <v>2.5</v>
+      </c>
+      <c r="U142">
+        <v>1.875</v>
+      </c>
+      <c r="V142">
+        <v>1.925</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>6860865</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45392.57291666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" t="s">
+        <v>32</v>
+      </c>
+      <c r="K143">
+        <v>1.363</v>
+      </c>
+      <c r="L143">
+        <v>4.5</v>
+      </c>
+      <c r="M143">
+        <v>7</v>
+      </c>
+      <c r="N143">
+        <v>1.363</v>
+      </c>
+      <c r="O143">
+        <v>4.5</v>
+      </c>
+      <c r="P143">
+        <v>7</v>
+      </c>
+      <c r="Q143">
+        <v>-1.25</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.9</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6847813</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45393.48958333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>33</v>
+      </c>
+      <c r="K144">
+        <v>1.615</v>
+      </c>
+      <c r="L144">
+        <v>3.8</v>
+      </c>
+      <c r="M144">
+        <v>4.75</v>
+      </c>
+      <c r="N144">
+        <v>1.6</v>
+      </c>
+      <c r="O144">
+        <v>3.8</v>
+      </c>
+      <c r="P144">
+        <v>4.75</v>
+      </c>
+      <c r="Q144">
+        <v>-0.75</v>
+      </c>
+      <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2.5</v>
+      </c>
+      <c r="U144">
+        <v>1.8</v>
+      </c>
+      <c r="V144">
+        <v>2</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC144"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
+        <v>-0.25</v>
+      </c>
+      <c r="R2">
+        <v>1.75</v>
+      </c>
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>1.95</v>
+      </c>
+      <c r="V2">
+        <v>1.85</v>
+      </c>
+      <c r="W2">
+        <v>1.05</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.95</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>2.5</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>2.75</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1236,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>1.363</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
         <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
         <v>29</v>
       </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12361,7 +12361,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12637,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K138">
         <v>6</v>
@@ -12892,7 +12892,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K140">
         <v>5.25</v>
@@ -12981,7 +12981,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>35</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13058,7 +13058,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6919052</v>
+        <v>6852774</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13067,49 +13067,49 @@
         <v>28</v>
       </c>
       <c r="E142" s="2">
-        <v>45392.40625</v>
+        <v>45391.57291666666</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
       </c>
       <c r="K142">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
         <v>4.2</v>
       </c>
       <c r="P142">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q142">
         <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -13132,7 +13132,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6860865</v>
+        <v>6919052</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13141,43 +13141,43 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>45392.57291666666</v>
+        <v>45392.40625</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K143">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
         <v>1.9</v>
@@ -13206,7 +13206,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6847813</v>
+        <v>6860865</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13215,49 +13215,49 @@
         <v>28</v>
       </c>
       <c r="E144" s="2">
-        <v>45393.48958333334</v>
+        <v>45392.57291666666</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K144">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L144">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N144">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O144">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13272,6 +13272,80 @@
         <v>0</v>
       </c>
       <c r="AA144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>6847813</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45393.48958333334</v>
+      </c>
+      <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
+        <v>33</v>
+      </c>
+      <c r="K145">
+        <v>1.615</v>
+      </c>
+      <c r="L145">
+        <v>3.8</v>
+      </c>
+      <c r="M145">
+        <v>4.75</v>
+      </c>
+      <c r="N145">
+        <v>1.666</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.5</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
+        <v>1.85</v>
+      </c>
+      <c r="V145">
+        <v>1.95</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13075,6 +13075,15 @@
       <c r="G142" t="s">
         <v>30</v>
       </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>39</v>
+      </c>
       <c r="K142">
         <v>1.5</v>
       </c>
@@ -13088,22 +13097,22 @@
         <v>1.4</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q142">
         <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U142">
         <v>2</v>
@@ -13112,19 +13121,25 @@
         <v>1.8</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB142">
+        <v>1</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,31 +13174,31 @@
         <v>6</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13206,7 +13221,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6860865</v>
+        <v>6828664</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13215,49 +13230,49 @@
         <v>28</v>
       </c>
       <c r="E144" s="2">
-        <v>45392.57291666666</v>
+        <v>45392.48958333334</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K144">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L144">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -13280,7 +13295,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6847813</v>
+        <v>6860865</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13289,49 +13304,49 @@
         <v>28</v>
       </c>
       <c r="E145" s="2">
-        <v>45393.48958333334</v>
+        <v>45392.57291666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K145">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M145">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N145">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>0</v>
@@ -13346,6 +13361,80 @@
         <v>0</v>
       </c>
       <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>6847813</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45393.48958333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
+        <v>33</v>
+      </c>
+      <c r="K146">
+        <v>1.615</v>
+      </c>
+      <c r="L146">
+        <v>3.8</v>
+      </c>
+      <c r="M146">
+        <v>4.75</v>
+      </c>
+      <c r="N146">
+        <v>1.666</v>
+      </c>
+      <c r="O146">
+        <v>3.75</v>
+      </c>
+      <c r="P146">
+        <v>4.5</v>
+      </c>
+      <c r="Q146">
+        <v>-0.75</v>
+      </c>
+      <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>1.9</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.825</v>
+      </c>
+      <c r="V146">
+        <v>1.975</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13147,7 +13147,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6919052</v>
+        <v>6847813</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13156,49 +13156,49 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>45392.40625</v>
+        <v>45393.48958333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K143">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M143">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N143">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P143">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.95</v>
-      </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -13213,228 +13213,6 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>6828664</v>
-      </c>
-      <c r="C144" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" t="s">
-        <v>28</v>
-      </c>
-      <c r="E144" s="2">
-        <v>45392.48958333334</v>
-      </c>
-      <c r="F144" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
-      <c r="K144">
-        <v>1.95</v>
-      </c>
-      <c r="L144">
-        <v>3.4</v>
-      </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
-      <c r="N144">
-        <v>2.15</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>3.1</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.85</v>
-      </c>
-      <c r="S144">
-        <v>1.95</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.8</v>
-      </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-      <c r="Y144">
-        <v>0</v>
-      </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>6860865</v>
-      </c>
-      <c r="C145" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="2">
-        <v>45392.57291666666</v>
-      </c>
-      <c r="F145" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
-      <c r="K145">
-        <v>1.363</v>
-      </c>
-      <c r="L145">
-        <v>4.5</v>
-      </c>
-      <c r="M145">
-        <v>7</v>
-      </c>
-      <c r="N145">
-        <v>1.444</v>
-      </c>
-      <c r="O145">
-        <v>4.2</v>
-      </c>
-      <c r="P145">
-        <v>6</v>
-      </c>
-      <c r="Q145">
-        <v>-1.25</v>
-      </c>
-      <c r="R145">
-        <v>1.925</v>
-      </c>
-      <c r="S145">
-        <v>1.875</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.825</v>
-      </c>
-      <c r="V145">
-        <v>1.975</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>6847813</v>
-      </c>
-      <c r="C146" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" t="s">
-        <v>28</v>
-      </c>
-      <c r="E146" s="2">
-        <v>45393.48958333334</v>
-      </c>
-      <c r="F146" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146" t="s">
-        <v>33</v>
-      </c>
-      <c r="K146">
-        <v>1.615</v>
-      </c>
-      <c r="L146">
-        <v>3.8</v>
-      </c>
-      <c r="M146">
-        <v>4.75</v>
-      </c>
-      <c r="N146">
-        <v>1.666</v>
-      </c>
-      <c r="O146">
-        <v>3.75</v>
-      </c>
-      <c r="P146">
-        <v>4.5</v>
-      </c>
-      <c r="Q146">
-        <v>-0.75</v>
-      </c>
-      <c r="R146">
-        <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
-      <c r="U146">
-        <v>1.825</v>
-      </c>
-      <c r="V146">
-        <v>1.975</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="X146">
-        <v>0</v>
-      </c>
-      <c r="Y146">
-        <v>0</v>
-      </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
-      <c r="AA146">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC143"/>
+  <dimension ref="A1:AC146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>1.85</v>
+      </c>
+      <c r="W3">
+        <v>1.05</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.75</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1678,10 +1678,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4259,10 +4259,10 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,10 +4526,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5060,10 +5060,10 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,10 +5594,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6484,11 +6484,11 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
       </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
       <c r="H68">
         <v>1</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,10 +7463,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
         <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,10 +8620,10 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8976,10 +8976,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9955,10 +9955,10 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
         <v>30</v>
       </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12269,7 +12269,7 @@
         <v>45380.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12358,10 +12358,10 @@
         <v>45380.67708333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12637,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138">
         <v>6</v>
@@ -12892,7 +12892,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K140">
         <v>5.25</v>
@@ -12981,10 +12981,10 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13070,10 +13070,10 @@
         <v>45391.57291666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K142">
         <v>1.5</v>
@@ -13147,7 +13147,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6847813</v>
+        <v>6919052</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13156,63 +13156,330 @@
         <v>28</v>
       </c>
       <c r="E143" s="2">
-        <v>45393.48958333334</v>
+        <v>45392.40625</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>40</v>
       </c>
       <c r="K143">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
+        <v>9.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1.75</v>
+      </c>
+      <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.825</v>
+      </c>
+      <c r="T143">
+        <v>2.75</v>
+      </c>
+      <c r="U143">
+        <v>1.85</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>0.222</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.825</v>
+      </c>
+      <c r="AB143">
+        <v>0.425</v>
+      </c>
+      <c r="AC143">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>6828664</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45392.48958333334</v>
+      </c>
+      <c r="F144" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144">
+        <v>1.95</v>
+      </c>
+      <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>3.5</v>
+      </c>
+      <c r="N144">
+        <v>2.55</v>
+      </c>
+      <c r="O144">
+        <v>3.1</v>
+      </c>
+      <c r="P144">
+        <v>2.6</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>1.6</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>6860865</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45392.57291666666</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>41</v>
+      </c>
+      <c r="K145">
+        <v>1.363</v>
+      </c>
+      <c r="L145">
+        <v>4.5</v>
+      </c>
+      <c r="M145">
+        <v>7</v>
+      </c>
+      <c r="N145">
+        <v>1.4</v>
+      </c>
+      <c r="O145">
         <v>4.333</v>
       </c>
-      <c r="Q143">
-        <v>-0.75</v>
-      </c>
-      <c r="R143">
+      <c r="P145">
+        <v>6.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.25</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
+        <v>1.775</v>
+      </c>
+      <c r="V145">
+        <v>2.025</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>3.333</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB145">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC145">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>6957487</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s">
+        <v>37</v>
+      </c>
+      <c r="K146">
+        <v>6.5</v>
+      </c>
+      <c r="L146">
+        <v>4.333</v>
+      </c>
+      <c r="M146">
+        <v>1.4</v>
+      </c>
+      <c r="N146">
+        <v>6.5</v>
+      </c>
+      <c r="O146">
+        <v>4.333</v>
+      </c>
+      <c r="P146">
+        <v>1.4</v>
+      </c>
+      <c r="Q146">
+        <v>1.25</v>
+      </c>
+      <c r="R146">
+        <v>1.8</v>
+      </c>
+      <c r="S146">
+        <v>2</v>
+      </c>
+      <c r="T146">
+        <v>2.75</v>
+      </c>
+      <c r="U146">
+        <v>1.875</v>
+      </c>
+      <c r="V146">
         <v>1.925</v>
       </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
-      <c r="U143">
-        <v>1.8</v>
-      </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
-      <c r="W143">
+      <c r="W146">
         <v>0</v>
       </c>
-      <c r="X143">
+      <c r="X146">
         <v>0</v>
       </c>
-      <c r="Y143">
+      <c r="Y146">
         <v>0</v>
       </c>
-      <c r="Z143">
+      <c r="Z146">
         <v>0</v>
       </c>
-      <c r="AA143">
+      <c r="AA146">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
+        <v>-0.25</v>
+      </c>
+      <c r="R2">
+        <v>1.75</v>
+      </c>
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>1.95</v>
+      </c>
+      <c r="V2">
+        <v>1.85</v>
+      </c>
+      <c r="W2">
+        <v>1.05</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.95</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>2.5</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>2.75</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>1.363</v>
@@ -1325,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
         <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>36</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
         <v>29</v>
       </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12361,7 +12361,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12637,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K138">
         <v>6</v>
@@ -12892,7 +12892,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K140">
         <v>5.25</v>
@@ -12981,7 +12981,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>36</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13073,7 +13073,7 @@
         <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K142">
         <v>1.5</v>
@@ -13162,7 +13162,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K143">
         <v>1.444</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K144">
         <v>1.95</v>
@@ -13414,7 +13414,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6957487</v>
+        <v>6847813</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13423,63 +13423,300 @@
         <v>28</v>
       </c>
       <c r="E146" s="2">
-        <v>45395.41666666666</v>
+        <v>45393.48958333334</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>39</v>
       </c>
       <c r="K146">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="L146">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M146">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="N146">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P146">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q146">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T146">
         <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>0</v>
       </c>
       <c r="AA146">
+        <v>-0</v>
+      </c>
+      <c r="AB146">
+        <v>0.4875</v>
+      </c>
+      <c r="AC146">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>6957487</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45395.41666666666</v>
+      </c>
+      <c r="F147" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" t="s">
+        <v>37</v>
+      </c>
+      <c r="K147">
+        <v>6.5</v>
+      </c>
+      <c r="L147">
+        <v>4.333</v>
+      </c>
+      <c r="M147">
+        <v>1.4</v>
+      </c>
+      <c r="N147">
+        <v>5.25</v>
+      </c>
+      <c r="O147">
+        <v>4.2</v>
+      </c>
+      <c r="P147">
+        <v>1.5</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.75</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.9</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>6957488</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45396.52083333334</v>
+      </c>
+      <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148">
+        <v>2.8</v>
+      </c>
+      <c r="L148">
+        <v>3.2</v>
+      </c>
+      <c r="M148">
+        <v>2.375</v>
+      </c>
+      <c r="N148">
+        <v>2.8</v>
+      </c>
+      <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
+        <v>2.375</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>1.75</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>1.8</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>6961772</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45397.52083333334</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+      <c r="G149" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149">
+        <v>3.2</v>
+      </c>
+      <c r="L149">
+        <v>3.25</v>
+      </c>
+      <c r="M149">
+        <v>2.1</v>
+      </c>
+      <c r="N149">
+        <v>3.2</v>
+      </c>
+      <c r="O149">
+        <v>3.25</v>
+      </c>
+      <c r="P149">
+        <v>2.1</v>
+      </c>
+      <c r="Q149">
+        <v>0.25</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>1.85</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>1.975</v>
+      </c>
+      <c r="V149">
+        <v>1.825</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13503,7 +13503,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6957487</v>
+        <v>6979329</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13512,49 +13512,49 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45395.41666666666</v>
+        <v>45396.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K147">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="L147">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="N147">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P147">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
         <v>0</v>
@@ -13613,13 +13613,13 @@
         <v>2.375</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
         <v>2.5</v>
@@ -13651,7 +13651,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6961772</v>
+        <v>6957486</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13660,34 +13660,34 @@
         <v>28</v>
       </c>
       <c r="E149" s="2">
-        <v>45397.52083333334</v>
+        <v>45396.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K149">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="N149">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O149">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P149">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q149">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R149">
         <v>1.95</v>
@@ -13696,13 +13696,13 @@
         <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13717,6 +13717,80 @@
         <v>0</v>
       </c>
       <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>6961772</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45397.52083333334</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+      <c r="G150" t="s">
+        <v>32</v>
+      </c>
+      <c r="K150">
+        <v>3.2</v>
+      </c>
+      <c r="L150">
+        <v>3.25</v>
+      </c>
+      <c r="M150">
+        <v>2.1</v>
+      </c>
+      <c r="N150">
+        <v>3.4</v>
+      </c>
+      <c r="O150">
+        <v>3.3</v>
+      </c>
+      <c r="P150">
+        <v>2</v>
+      </c>
+      <c r="Q150">
+        <v>0.5</v>
+      </c>
+      <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
+        <v>1.85</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13503,7 +13503,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6979329</v>
+        <v>6957487</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13512,64 +13512,79 @@
         <v>28</v>
       </c>
       <c r="E147" s="2">
-        <v>45396.41666666666</v>
+        <v>45395.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>40</v>
       </c>
       <c r="K147">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="N147">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O147">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P147">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
+        <v>1.85</v>
+      </c>
+      <c r="V147">
         <v>1.95</v>
       </c>
-      <c r="V147">
-        <v>1.85</v>
-      </c>
       <c r="W147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z147">
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB147">
+        <v>0.425</v>
+      </c>
+      <c r="AC147">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13577,7 +13592,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6957488</v>
+        <v>6961772</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13586,49 +13601,49 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45396.52083333334</v>
+        <v>45397.52083333334</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K148">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M148">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N148">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13643,154 +13658,6 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>6957486</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="2">
-        <v>45396.63541666666</v>
-      </c>
-      <c r="F149" t="s">
-        <v>36</v>
-      </c>
-      <c r="G149" t="s">
-        <v>34</v>
-      </c>
-      <c r="K149">
-        <v>4.75</v>
-      </c>
-      <c r="L149">
-        <v>4</v>
-      </c>
-      <c r="M149">
-        <v>1.571</v>
-      </c>
-      <c r="N149">
-        <v>4.333</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
-      <c r="P149">
-        <v>1.65</v>
-      </c>
-      <c r="Q149">
-        <v>0.75</v>
-      </c>
-      <c r="R149">
-        <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>6961772</v>
-      </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="2">
-        <v>45397.52083333334</v>
-      </c>
-      <c r="F150" t="s">
-        <v>33</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
-      <c r="K150">
-        <v>3.2</v>
-      </c>
-      <c r="L150">
-        <v>3.25</v>
-      </c>
-      <c r="M150">
-        <v>2.1</v>
-      </c>
-      <c r="N150">
-        <v>3.4</v>
-      </c>
-      <c r="O150">
-        <v>3.3</v>
-      </c>
-      <c r="P150">
-        <v>2</v>
-      </c>
-      <c r="Q150">
-        <v>0.5</v>
-      </c>
-      <c r="R150">
-        <v>1.825</v>
-      </c>
-      <c r="S150">
-        <v>1.975</v>
-      </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
-      <c r="U150">
-        <v>1.95</v>
-      </c>
-      <c r="V150">
-        <v>1.85</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>1.85</v>
+      </c>
+      <c r="W3">
+        <v>1.05</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.75</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1.363</v>
@@ -1325,7 +1325,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>35</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
         <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>36</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
         <v>30</v>
       </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12361,7 +12361,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12637,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138">
         <v>6</v>
@@ -12892,7 +12892,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K140">
         <v>5.25</v>
@@ -12981,7 +12981,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
         <v>36</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13073,7 +13073,7 @@
         <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K142">
         <v>1.5</v>
@@ -13162,7 +13162,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K143">
         <v>1.444</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K144">
         <v>1.95</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K146">
         <v>1.615</v>
@@ -13527,7 +13527,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K147">
         <v>6.5</v>
@@ -13592,7 +13592,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6961772</v>
+        <v>6979329</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13601,40 +13601,49 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45397.52083333334</v>
+        <v>45396.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>41</v>
       </c>
       <c r="K148">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L148">
+        <v>3.3</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3.1</v>
+      </c>
+      <c r="O148">
         <v>3.25</v>
       </c>
-      <c r="M148">
-        <v>2.1</v>
-      </c>
-      <c r="N148">
-        <v>3.6</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
       <c r="P148">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
         <v>2.5</v>
@@ -13646,19 +13655,114 @@
         <v>1.825</v>
       </c>
       <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>2.25</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.4375</v>
+      </c>
+      <c r="AA148">
+        <v>-0.5</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>6957488</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45396.52083333334</v>
+      </c>
+      <c r="F149" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>41</v>
+      </c>
+      <c r="K149">
+        <v>2.8</v>
+      </c>
+      <c r="L149">
+        <v>3.2</v>
+      </c>
+      <c r="M149">
+        <v>2.375</v>
+      </c>
+      <c r="N149">
+        <v>2.7</v>
+      </c>
+      <c r="O149">
+        <v>3.2</v>
+      </c>
+      <c r="P149">
+        <v>2.45</v>
+      </c>
+      <c r="Q149">
         <v>0</v>
       </c>
-      <c r="X148">
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1.8</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
+        <v>2</v>
+      </c>
+      <c r="V149">
+        <v>1.8</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>2.2</v>
+      </c>
+      <c r="Y149">
+        <v>-1</v>
+      </c>
+      <c r="Z149">
         <v>0</v>
       </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
-        <v>0</v>
+      <c r="AA149">
+        <v>-0</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13765,6 +13765,406 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>6957486</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45396.63541666666</v>
+      </c>
+      <c r="F150" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>39</v>
+      </c>
+      <c r="K150">
+        <v>4.75</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>1.571</v>
+      </c>
+      <c r="N150">
+        <v>4.333</v>
+      </c>
+      <c r="O150">
+        <v>3.8</v>
+      </c>
+      <c r="P150">
+        <v>1.65</v>
+      </c>
+      <c r="Q150">
+        <v>0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.95</v>
+      </c>
+      <c r="S150">
+        <v>1.85</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.9</v>
+      </c>
+      <c r="V150">
+        <v>1.9</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB150">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC150">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>6961772</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45397.52083333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+      <c r="G151" t="s">
+        <v>32</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>41</v>
+      </c>
+      <c r="K151">
+        <v>3.2</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>2.1</v>
+      </c>
+      <c r="N151">
+        <v>3.4</v>
+      </c>
+      <c r="O151">
+        <v>3.3</v>
+      </c>
+      <c r="P151">
+        <v>2</v>
+      </c>
+      <c r="Q151">
+        <v>0.25</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>1.825</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.925</v>
+      </c>
+      <c r="V151">
+        <v>1.875</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>2.3</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.4875</v>
+      </c>
+      <c r="AA151">
+        <v>-0.5</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>8100619</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45400.45833333334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152">
+        <v>3.1</v>
+      </c>
+      <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>2.05</v>
+      </c>
+      <c r="N152">
+        <v>2.9</v>
+      </c>
+      <c r="O152">
+        <v>3.5</v>
+      </c>
+      <c r="P152">
+        <v>2.2</v>
+      </c>
+      <c r="Q152">
+        <v>0.25</v>
+      </c>
+      <c r="R152">
+        <v>1.85</v>
+      </c>
+      <c r="S152">
+        <v>1.95</v>
+      </c>
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.925</v>
+      </c>
+      <c r="V152">
+        <v>1.875</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>6994887</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45402.41666666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s">
+        <v>29</v>
+      </c>
+      <c r="K153">
+        <v>2.625</v>
+      </c>
+      <c r="L153">
+        <v>3.25</v>
+      </c>
+      <c r="M153">
+        <v>2.45</v>
+      </c>
+      <c r="N153">
+        <v>2.25</v>
+      </c>
+      <c r="O153">
+        <v>3.25</v>
+      </c>
+      <c r="P153">
+        <v>2.8</v>
+      </c>
+      <c r="Q153">
+        <v>-0.25</v>
+      </c>
+      <c r="R153">
+        <v>2.025</v>
+      </c>
+      <c r="S153">
+        <v>1.775</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.8</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>6998172</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45402.52083333334</v>
+      </c>
+      <c r="F154" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" t="s">
+        <v>33</v>
+      </c>
+      <c r="K154">
+        <v>1.25</v>
+      </c>
+      <c r="L154">
+        <v>5.25</v>
+      </c>
+      <c r="M154">
+        <v>9.5</v>
+      </c>
+      <c r="N154">
+        <v>1.3</v>
+      </c>
+      <c r="O154">
+        <v>5</v>
+      </c>
+      <c r="P154">
+        <v>8</v>
+      </c>
+      <c r="Q154">
+        <v>-1.5</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>1.9</v>
+      </c>
+      <c r="V154">
+        <v>1.9</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12269,7 +12269,7 @@
         <v>45380.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12358,7 +12358,7 @@
         <v>45380.67708333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13070,7 +13070,7 @@
         <v>45391.57291666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13248,7 +13248,7 @@
         <v>45392.48958333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13607,7 +13607,7 @@
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13782,7 +13782,7 @@
         <v>45396.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>34</v>
@@ -13948,7 +13948,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8100619</v>
+        <v>6814424</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13957,34 +13957,43 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45400.45833333334</v>
+        <v>45399.5625</v>
       </c>
       <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" t="s">
         <v>36</v>
       </c>
-      <c r="G152" t="s">
-        <v>31</v>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152" t="s">
+        <v>39</v>
       </c>
       <c r="K152">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P152">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
         <v>1.85</v>
@@ -13993,28 +14002,34 @@
         <v>1.95</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>2</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
+        <v>0.95</v>
+      </c>
+      <c r="AB152">
         <v>0</v>
       </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
+      <c r="AC152">
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14070,10 +14085,10 @@
         <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
         <v>0</v>
@@ -14123,31 +14138,31 @@
         <v>9.5</v>
       </c>
       <c r="N154">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P154">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q154">
         <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
         <v>3</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14162,6 +14177,80 @@
         <v>0</v>
       </c>
       <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>6994888</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45403.63541666666</v>
+      </c>
+      <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>30</v>
+      </c>
+      <c r="K155">
+        <v>2.2</v>
+      </c>
+      <c r="L155">
+        <v>3.3</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>2.15</v>
+      </c>
+      <c r="O155">
+        <v>3.3</v>
+      </c>
+      <c r="P155">
+        <v>3.1</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.9</v>
+      </c>
+      <c r="S155">
+        <v>1.9</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.9</v>
+      </c>
+      <c r="V155">
+        <v>1.9</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
+        <v>-0.25</v>
+      </c>
+      <c r="R2">
+        <v>1.75</v>
+      </c>
+      <c r="S2">
+        <v>2.05</v>
+      </c>
+      <c r="T2">
+        <v>2.25</v>
+      </c>
+      <c r="U2">
+        <v>1.95</v>
+      </c>
+      <c r="V2">
+        <v>1.85</v>
+      </c>
+      <c r="W2">
+        <v>1.05</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>0.75</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>-0.5</v>
       </c>
-      <c r="R2">
-        <v>1.95</v>
-      </c>
-      <c r="S2">
-        <v>1.85</v>
-      </c>
-      <c r="T2">
-        <v>2.5</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>1.9</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>2.75</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1236,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>1.363</v>
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1681,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4262,7 +4262,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,7 +4526,7 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5063,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,7 +5594,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,7 +7463,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
         <v>30</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,7 +8620,7 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>35</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9958,7 +9958,7 @@
         <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" t="s">
         <v>29</v>
       </c>
-      <c r="G122" t="s">
-        <v>30</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12361,7 +12361,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12637,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K138">
         <v>6</v>
@@ -12892,7 +12892,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K140">
         <v>5.25</v>
@@ -12981,7 +12981,7 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>35</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13073,7 +13073,7 @@
         <v>36</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K142">
         <v>1.5</v>
@@ -13162,7 +13162,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K143">
         <v>1.444</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K144">
         <v>1.95</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K146">
         <v>1.615</v>
@@ -13527,7 +13527,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K147">
         <v>6.5</v>
@@ -13604,7 +13604,7 @@
         <v>45396.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13693,7 +13693,7 @@
         <v>45396.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13794,7 +13794,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K150">
         <v>4.75</v>
@@ -13972,7 +13972,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K152">
         <v>2.375</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6994887</v>
+        <v>8100619</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14046,64 +14046,79 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45402.41666666666</v>
+        <v>45400.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>39</v>
       </c>
       <c r="K153">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L153">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N153">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.875</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14111,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6998172</v>
+        <v>6994887</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14120,49 +14135,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45402.52083333334</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L154">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M154">
-        <v>9.5</v>
+        <v>2.45</v>
       </c>
       <c r="N154">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="O154">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14185,7 +14200,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6994888</v>
+        <v>6998172</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14194,49 +14209,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45403.63541666666</v>
+        <v>45402.52083333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L155">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="N155">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R155">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14251,6 +14266,80 @@
         <v>0</v>
       </c>
       <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>6994888</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45403.63541666666</v>
+      </c>
+      <c r="F156" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>29</v>
+      </c>
+      <c r="K156">
+        <v>2.2</v>
+      </c>
+      <c r="L156">
+        <v>3.3</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
+      <c r="N156">
+        <v>2.15</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>3.1</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>1.9</v>
+      </c>
+      <c r="V156">
+        <v>1.9</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -103,10 +103,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -133,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
         <v>3.75</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <v>3.75</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.75</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>1.95</v>
+      </c>
+      <c r="V3">
+        <v>1.85</v>
+      </c>
+      <c r="W3">
+        <v>1.05</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>0.75</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>1.95</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
-        <v>2.5</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>1.9</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>2.75</v>
-      </c>
-      <c r="Z3">
-        <v>-1</v>
-      </c>
-      <c r="AA3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.8</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.925</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.8</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>1.65</v>
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.65</v>
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>2.2</v>
@@ -1678,10 +1678,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.571</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>1.333</v>
@@ -1859,7 +1859,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>2.05</v>
@@ -1945,7 +1945,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2.625</v>
@@ -2034,7 +2034,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>1.727</v>
@@ -2135,7 +2135,7 @@
         <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>4.333</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2393,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>2.45</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>2.25</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2.625</v>
@@ -2746,7 +2746,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.95</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -2847,7 +2847,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2.4</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>2.25</v>
@@ -3102,7 +3102,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -3114,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>3.1</v>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>2.05</v>
@@ -3280,10 +3280,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.15</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2.8</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>1.571</v>
@@ -3725,7 +3725,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>3.75</v>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>1.285</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4084,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K41">
         <v>3.2</v>
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>1.25</v>
@@ -4259,10 +4259,10 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>2.15</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
         <v>1.25</v>
@@ -4526,10 +4526,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4538,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4615,7 +4615,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>2.625</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>6</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>5</v>
@@ -4974,7 +4974,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>1.55</v>
@@ -5060,10 +5060,10 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.55</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>1.75</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>1.65</v>
@@ -5428,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
         <v>5.5</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5517,7 +5517,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5594,10 +5594,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>4.333</v>
@@ -5695,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.55</v>
@@ -5953,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>1.4</v>
@@ -6131,7 +6131,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
         <v>3.6</v>
@@ -6395,7 +6395,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.833</v>
@@ -6484,11 +6484,11 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
       </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
       <c r="H68">
         <v>1</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68">
         <v>3.4</v>
@@ -6573,7 +6573,7 @@
         <v>45235.375</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6585,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>2.05</v>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>2.05</v>
@@ -6754,7 +6754,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>1.95</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>1.75</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.3</v>
@@ -7110,7 +7110,7 @@
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>1.55</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.6</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>4.75</v>
@@ -7374,7 +7374,7 @@
         <v>45256.375</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>3.3</v>
@@ -7463,10 +7463,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7564,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>3.75</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2.1</v>
@@ -7730,10 +7730,10 @@
         <v>45263.375</v>
       </c>
       <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
         <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.15</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>2.2</v>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>6.5</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>3.1</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8175,7 +8175,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8267,7 +8267,7 @@
         <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K89">
         <v>4.75</v>
@@ -8442,7 +8442,7 @@
         <v>45270.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>38</v>
@@ -8454,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>1.5</v>
@@ -8543,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2.875</v>
@@ -8620,10 +8620,10 @@
         <v>45270.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>2.4</v>
@@ -8976,10 +8976,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
         <v>1.7</v>
@@ -9157,7 +9157,7 @@
         <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.533</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>1.333</v>
@@ -9344,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>3.3</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9522,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>4.8</v>
@@ -9599,7 +9599,7 @@
         <v>45340.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9700,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.909</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>1.533</v>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9955,10 +9955,10 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10056,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>5.5</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>6</v>
@@ -10311,7 +10311,7 @@
         <v>45347.5625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
@@ -10400,7 +10400,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10492,7 +10492,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K113">
         <v>2.75</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" t="s">
         <v>36</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K115">
         <v>1.5</v>
@@ -10768,7 +10768,7 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>1.4</v>
@@ -10848,7 +10848,7 @@
         <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>3.1</v>
@@ -10934,7 +10934,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>33</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
         <v>2.625</v>
@@ -11201,7 +11201,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11290,11 +11290,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
         <v>30</v>
       </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
       <c r="H122">
         <v>1</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>2.15</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
         <v>2.55</v>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>4</v>
@@ -11646,7 +11646,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
         <v>34</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11827,7 +11827,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11925,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K129">
         <v>1.285</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12014,7 +12014,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K130">
         <v>1.666</v>
@@ -12094,7 +12094,7 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
         <v>1.85</v>
@@ -12183,7 +12183,7 @@
         <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K132">
         <v>2.8</v>
@@ -12269,7 +12269,7 @@
         <v>45380.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K133">
         <v>1.285</v>
@@ -12358,10 +12358,10 @@
         <v>45380.67708333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="J134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K135">
         <v>1.5</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12637,7 +12637,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K137">
         <v>6</v>
@@ -12726,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138">
         <v>6</v>
@@ -12892,7 +12892,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K140">
         <v>5.25</v>
@@ -12981,10 +12981,10 @@
         <v>45389.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K141">
         <v>1.833</v>
@@ -13070,10 +13070,10 @@
         <v>45391.57291666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K142">
         <v>1.5</v>
@@ -13162,7 +13162,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K143">
         <v>1.444</v>
@@ -13248,7 +13248,7 @@
         <v>45392.48958333334</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13260,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K144">
         <v>1.95</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K146">
         <v>1.615</v>
@@ -13527,7 +13527,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K147">
         <v>6.5</v>
@@ -13604,10 +13604,10 @@
         <v>45396.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13693,7 +13693,7 @@
         <v>45396.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13782,7 +13782,7 @@
         <v>45396.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>34</v>
@@ -13794,7 +13794,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K150">
         <v>4.75</v>
@@ -13963,7 +13963,7 @@
         <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -13972,7 +13972,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K152">
         <v>2.375</v>
@@ -14049,7 +14049,7 @@
         <v>45400.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -14061,7 +14061,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K153">
         <v>3.1</v>
@@ -14141,7 +14141,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K154">
         <v>2.625</v>
@@ -14248,10 +14248,10 @@
         <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14289,7 +14289,7 @@
         <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K156">
         <v>2.2</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6994887</v>
+        <v>6998173</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14135,49 +14135,49 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45402.41666666666</v>
+        <v>45403.52083333334</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K154">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L154">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M154">
-        <v>2.45</v>
+        <v>9.5</v>
       </c>
       <c r="N154">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O154">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S154">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6998172</v>
+        <v>6994888</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14209,49 +14209,49 @@
         <v>28</v>
       </c>
       <c r="E155" s="2">
-        <v>45402.52083333334</v>
+        <v>45403.63541666666</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K155">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="M155">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
+        <v>2.025</v>
+      </c>
+      <c r="S155">
+        <v>1.775</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
         <v>1.85</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>1.95</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
       </c>
       <c r="W155">
         <v>0</v>
@@ -14266,80 +14266,6 @@
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>6994888</v>
-      </c>
-      <c r="C156" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" t="s">
-        <v>28</v>
-      </c>
-      <c r="E156" s="2">
-        <v>45403.63541666666</v>
-      </c>
-      <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" t="s">
-        <v>30</v>
-      </c>
-      <c r="K156">
-        <v>2.2</v>
-      </c>
-      <c r="L156">
-        <v>3.3</v>
-      </c>
-      <c r="M156">
-        <v>3</v>
-      </c>
-      <c r="N156">
-        <v>2.15</v>
-      </c>
-      <c r="O156">
-        <v>3.3</v>
-      </c>
-      <c r="P156">
-        <v>3.1</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>1.9</v>
-      </c>
-      <c r="S156">
-        <v>1.9</v>
-      </c>
-      <c r="T156">
-        <v>2.25</v>
-      </c>
-      <c r="U156">
-        <v>1.9</v>
-      </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="X156">
-        <v>0</v>
-      </c>
-      <c r="Y156">
-        <v>0</v>
-      </c>
-      <c r="Z156">
-        <v>0</v>
-      </c>
-      <c r="AA156">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC155"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,58 +1236,58 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="L9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>1.925</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.25</v>
+      </c>
+      <c r="U9">
+        <v>1.95</v>
+      </c>
+      <c r="V9">
         <v>1.85</v>
       </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.75</v>
-      </c>
-      <c r="U9">
-        <v>1.8</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
       <c r="W9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1296,13 +1296,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,58 +1325,58 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1385,13 +1385,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2479,10 +2479,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3016,7 +3016,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3636,7 +3636,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -3992,7 +3992,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45196.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -4348,7 +4348,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -4529,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45206.63541666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -5149,7 +5149,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>38</v>
@@ -5505,7 +5505,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
@@ -5597,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6484,10 +6484,10 @@
         <v>45234.5625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7018,7 +7018,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7199,7 +7199,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7819,7 +7819,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>34</v>
@@ -8000,7 +8000,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45332.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -9243,7 +9243,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9424,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45344.5625</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10136,7 +10136,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10222,7 +10222,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>37</v>
@@ -10667,10 +10667,10 @@
         <v>45353.5625</v>
       </c>
       <c r="F115" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" t="s">
         <v>35</v>
-      </c>
-      <c r="G115" t="s">
-        <v>36</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -11026,7 +11026,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11735,7 +11735,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>33</v>
@@ -12002,7 +12002,7 @@
         <v>45368.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12269,7 +12269,7 @@
         <v>45380.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>32</v>
@@ -12358,7 +12358,7 @@
         <v>45380.67708333334</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13070,7 +13070,7 @@
         <v>45391.57291666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>29</v>
@@ -13248,7 +13248,7 @@
         <v>45392.48958333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13607,7 +13607,7 @@
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13782,7 +13782,7 @@
         <v>45396.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>34</v>
@@ -13963,7 +13963,7 @@
         <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14049,7 +14049,7 @@
         <v>45400.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6998173</v>
+        <v>6994887</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14135,64 +14135,79 @@
         <v>28</v>
       </c>
       <c r="E154" s="2">
-        <v>45403.52083333334</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>39</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L154">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M154">
-        <v>9.5</v>
+        <v>2.45</v>
       </c>
       <c r="N154">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P154">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB154">
+        <v>0.8</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14200,72 +14215,235 @@
         <v>153</v>
       </c>
       <c r="B155">
+        <v>6998172</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45402.52083333334</v>
+      </c>
+      <c r="F155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155">
+        <v>5</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>40</v>
+      </c>
+      <c r="K155">
+        <v>1.25</v>
+      </c>
+      <c r="L155">
+        <v>5.25</v>
+      </c>
+      <c r="M155">
+        <v>9.5</v>
+      </c>
+      <c r="N155">
+        <v>1.25</v>
+      </c>
+      <c r="O155">
+        <v>5.5</v>
+      </c>
+      <c r="P155">
+        <v>9</v>
+      </c>
+      <c r="Q155">
+        <v>-1.75</v>
+      </c>
+      <c r="R155">
+        <v>1.875</v>
+      </c>
+      <c r="S155">
+        <v>1.925</v>
+      </c>
+      <c r="T155">
+        <v>3.25</v>
+      </c>
+      <c r="U155">
+        <v>1.95</v>
+      </c>
+      <c r="V155">
+        <v>1.85</v>
+      </c>
+      <c r="W155">
+        <v>0.25</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.875</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
+        <v>0.95</v>
+      </c>
+      <c r="AC155">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>6998173</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45403.52083333334</v>
+      </c>
+      <c r="F156" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s">
+        <v>35</v>
+      </c>
+      <c r="K156">
+        <v>1.25</v>
+      </c>
+      <c r="L156">
+        <v>5.25</v>
+      </c>
+      <c r="M156">
+        <v>9.5</v>
+      </c>
+      <c r="N156">
+        <v>1.3</v>
+      </c>
+      <c r="O156">
+        <v>5</v>
+      </c>
+      <c r="P156">
+        <v>7.5</v>
+      </c>
+      <c r="Q156">
+        <v>-1.5</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
+        <v>1.925</v>
+      </c>
+      <c r="V156">
+        <v>1.875</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
         <v>6994888</v>
       </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="2">
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
         <v>45403.63541666666</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F157" t="s">
         <v>31</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G157" t="s">
         <v>30</v>
       </c>
-      <c r="K155">
+      <c r="K157">
         <v>2.2</v>
       </c>
-      <c r="L155">
+      <c r="L157">
         <v>3.3</v>
       </c>
-      <c r="M155">
+      <c r="M157">
         <v>3</v>
       </c>
-      <c r="N155">
+      <c r="N157">
         <v>1.95</v>
       </c>
-      <c r="O155">
+      <c r="O157">
         <v>3.5</v>
       </c>
-      <c r="P155">
+      <c r="P157">
         <v>3.4</v>
       </c>
-      <c r="Q155">
+      <c r="Q157">
         <v>-0.5</v>
       </c>
-      <c r="R155">
+      <c r="R157">
         <v>2.025</v>
       </c>
-      <c r="S155">
+      <c r="S157">
         <v>1.775</v>
       </c>
-      <c r="T155">
+      <c r="T157">
         <v>2.25</v>
       </c>
-      <c r="U155">
+      <c r="U157">
         <v>1.85</v>
       </c>
-      <c r="V155">
+      <c r="V157">
         <v>1.95</v>
       </c>
-      <c r="W155">
+      <c r="W157">
         <v>0</v>
       </c>
-      <c r="X155">
+      <c r="X157">
         <v>0</v>
       </c>
-      <c r="Y155">
+      <c r="Y157">
         <v>0</v>
       </c>
-      <c r="Z155">
+      <c r="Z157">
         <v>0</v>
       </c>
-      <c r="AA155">
+      <c r="AA157">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,25 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7021641</t>
+  </si>
+  <si>
+    <t>7060570</t>
+  </si>
+  <si>
+    <t>7021640</t>
+  </si>
+  <si>
+    <t>7021642</t>
+  </si>
+  <si>
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -118,10 +130,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -130,10 +142,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -498,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,85 +604,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <v>1.8</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2.05</v>
+      </c>
+      <c r="N2">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>3.3</v>
-      </c>
-      <c r="L2">
-        <v>3.4</v>
-      </c>
-      <c r="M2">
-        <v>1.909</v>
-      </c>
-      <c r="N2">
-        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
+        <v>-0.25</v>
+      </c>
+      <c r="Q2">
+        <v>1.75</v>
+      </c>
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>2.25</v>
+      </c>
+      <c r="T2">
+        <v>1.95</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
+        <v>1.05</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.95</v>
-      </c>
-      <c r="R2">
-        <v>1.85</v>
-      </c>
-      <c r="S2">
-        <v>2.5</v>
-      </c>
-      <c r="T2">
-        <v>1.9</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>2.75</v>
-      </c>
-      <c r="Y2">
-        <v>0.95</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -678,85 +690,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -767,16 +779,16 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -785,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -833,10 +845,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -853,16 +865,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -871,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -919,10 +931,10 @@
         <v>0.55</v>
       </c>
       <c r="Y5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0.9750000000000001</v>
@@ -939,16 +951,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -957,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1025,16 +1037,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1043,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1091,10 +1103,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1111,16 +1123,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1129,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1177,10 +1189,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>0.925</v>
@@ -1194,70 +1206,70 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1266,13 +1278,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1280,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1298,67 +1310,67 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
+        <v>1.925</v>
+      </c>
+      <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
+        <v>2.25</v>
+      </c>
+      <c r="T10">
+        <v>1.95</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="R10">
-        <v>1.95</v>
-      </c>
-      <c r="S10">
-        <v>2.75</v>
-      </c>
-      <c r="T10">
-        <v>1.8</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1369,16 +1381,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1387,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1435,10 +1447,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.8500000000000001</v>
@@ -1455,16 +1467,16 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1473,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1521,10 +1533,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0.4875</v>
@@ -1541,16 +1553,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1559,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1607,10 +1619,10 @@
         <v>1.75</v>
       </c>
       <c r="Y13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1627,16 +1639,16 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1645,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1693,10 +1705,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0.8500000000000001</v>
@@ -1713,16 +1725,16 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1731,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1779,10 +1791,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1799,16 +1811,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1817,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1865,10 +1877,10 @@
         <v>2.8</v>
       </c>
       <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z16">
-        <v>-1</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -1885,16 +1897,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1903,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1951,10 +1963,10 @@
         <v>1.3</v>
       </c>
       <c r="Y17">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0.9750000000000001</v>
@@ -1971,16 +1983,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1989,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2037,10 +2049,10 @@
         <v>3.333</v>
       </c>
       <c r="Y18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>-1</v>
@@ -2057,16 +2069,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2075,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2123,10 +2135,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y19">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0.925</v>
@@ -2143,16 +2155,16 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2161,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2229,16 +2241,16 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2247,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2295,10 +2307,10 @@
         <v>1.4</v>
       </c>
       <c r="Y21">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA21">
         <v>0.9750000000000001</v>
@@ -2315,16 +2327,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2333,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2381,10 +2393,10 @@
         <v>1.625</v>
       </c>
       <c r="Y22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2401,16 +2413,16 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2419,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2487,16 +2499,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2505,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2553,10 +2565,10 @@
         <v>1.9</v>
       </c>
       <c r="Y24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
         <v>0.875</v>
@@ -2573,16 +2585,16 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2591,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2639,10 +2651,10 @@
         <v>1.55</v>
       </c>
       <c r="Y25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
         <v>1.05</v>
@@ -2659,16 +2671,16 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2677,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2725,10 +2737,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2745,17 +2757,17 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
       <c r="G27">
         <v>1</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2811,10 +2823,10 @@
         <v>1.625</v>
       </c>
       <c r="Y27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
         <v>0.9750000000000001</v>
@@ -2831,16 +2843,16 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2849,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2917,16 +2929,16 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2935,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -2983,10 +2995,10 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3003,16 +3015,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3021,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3069,10 +3081,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y30">
+        <v>-1</v>
+      </c>
+      <c r="Z30">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z30">
-        <v>-1</v>
       </c>
       <c r="AA30">
         <v>0.825</v>
@@ -3089,16 +3101,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3107,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3155,10 +3167,10 @@
         <v>2.2</v>
       </c>
       <c r="Y31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>0.45</v>
@@ -3175,16 +3187,16 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3193,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3261,16 +3273,16 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3279,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3327,10 +3339,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -3347,16 +3359,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3365,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3413,10 +3425,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>0.825</v>
@@ -3433,16 +3445,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3451,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3519,16 +3531,16 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3537,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3585,10 +3597,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z36">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
         <v>0.425</v>
@@ -3605,16 +3617,16 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3623,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3671,10 +3683,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>0.875</v>
@@ -3691,16 +3703,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3709,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3757,10 +3769,10 @@
         <v>1.45</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA38">
         <v>-1</v>
@@ -3777,16 +3789,16 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3795,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3843,10 +3855,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3863,16 +3875,16 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3881,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3929,10 +3941,10 @@
         <v>2.25</v>
       </c>
       <c r="Y40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -3949,16 +3961,16 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3967,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4015,10 +4027,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>-0.5</v>
@@ -4035,16 +4047,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s">
         <v>36</v>
-      </c>
-      <c r="F42" t="s">
-        <v>32</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4053,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4101,10 +4113,10 @@
         <v>6</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA42">
         <v>0.875</v>
@@ -4121,16 +4133,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4139,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4187,10 +4199,10 @@
         <v>2.1</v>
       </c>
       <c r="Y43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4207,16 +4219,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
         <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>31</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4225,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4273,10 +4285,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>1</v>
@@ -4293,16 +4305,16 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4311,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4379,16 +4391,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4397,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4445,10 +4457,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0.825</v>
@@ -4465,16 +4477,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4483,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4531,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4551,17 +4563,17 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
         <v>37</v>
       </c>
-      <c r="F48" t="s">
-        <v>33</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4617,10 +4629,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z48">
-        <v>-1</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4637,16 +4649,16 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4655,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4723,16 +4735,16 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4789,10 +4801,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -4809,16 +4821,16 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4827,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4875,10 +4887,10 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0.9750000000000001</v>
@@ -4895,16 +4907,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4913,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4961,10 +4973,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>0.825</v>
@@ -4981,16 +4993,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -4999,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5047,10 +5059,10 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z53">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>0.8999999999999999</v>
@@ -5067,16 +5079,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5085,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5153,16 +5165,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5171,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5219,10 +5231,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>0.7749999999999999</v>
@@ -5239,16 +5251,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5257,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5305,10 +5317,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>0.8500000000000001</v>
@@ -5325,16 +5337,16 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5343,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5391,10 +5403,10 @@
         <v>0.833</v>
       </c>
       <c r="Y57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5411,16 +5423,16 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5477,10 +5489,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>0.8500000000000001</v>
@@ -5497,16 +5509,16 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5515,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5563,10 +5575,10 @@
         <v>1.875</v>
       </c>
       <c r="Y59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5583,16 +5595,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5601,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5669,16 +5681,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5687,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5735,10 +5747,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>1</v>
@@ -5755,16 +5767,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5773,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5841,16 +5853,16 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5927,16 +5939,16 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6013,16 +6025,16 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6031,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6099,16 +6111,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6117,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6165,10 +6177,10 @@
         <v>0.8</v>
       </c>
       <c r="Y66">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6185,16 +6197,16 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6203,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6251,10 +6263,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>-1</v>
@@ -6271,16 +6283,16 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6289,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6337,10 +6349,10 @@
         <v>0.95</v>
       </c>
       <c r="Y68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
         <v>0.4625</v>
@@ -6357,16 +6369,16 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6375,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6423,10 +6435,10 @@
         <v>2.5</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
         <v>-1</v>
@@ -6443,16 +6455,16 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6461,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6509,10 +6521,10 @@
         <v>2.4</v>
       </c>
       <c r="Y70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
@@ -6529,17 +6541,17 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
         <v>32</v>
       </c>
-      <c r="F71" t="s">
-        <v>29</v>
-      </c>
       <c r="G71">
         <v>1</v>
       </c>
@@ -6547,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6615,16 +6627,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6633,7 +6645,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6681,10 +6693,10 @@
         <v>3</v>
       </c>
       <c r="Y72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>0.925</v>
@@ -6701,16 +6713,16 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6719,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6767,10 +6779,10 @@
         <v>3.333</v>
       </c>
       <c r="Y73">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6787,16 +6799,16 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6805,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6853,10 +6865,10 @@
         <v>1.6</v>
       </c>
       <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -6873,17 +6885,17 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F75" t="s">
         <v>33</v>
       </c>
-      <c r="F75" t="s">
-        <v>28</v>
-      </c>
       <c r="G75">
         <v>1</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6939,10 +6951,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z75">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -6959,16 +6971,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7025,10 +7037,10 @@
         <v>1.4</v>
       </c>
       <c r="Y76">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
         <v>0.5</v>
@@ -7045,16 +7057,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7075,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7111,10 +7123,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7131,16 +7143,16 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7149,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7197,10 +7209,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
         <v>-0.5</v>
@@ -7217,16 +7229,16 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7235,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7303,16 +7315,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7321,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7369,10 +7381,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>1.025</v>
@@ -7389,16 +7401,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7407,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7455,10 +7467,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0.8500000000000001</v>
@@ -7475,16 +7487,16 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7493,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7541,10 +7553,10 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>-0.5</v>
@@ -7561,16 +7573,16 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7579,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7627,10 +7639,10 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
         <v>0.825</v>
@@ -7647,16 +7659,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7665,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7713,10 +7725,10 @@
         <v>0.5</v>
       </c>
       <c r="Y84">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA84">
         <v>0.9750000000000001</v>
@@ -7733,16 +7745,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7751,7 +7763,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7799,10 +7811,10 @@
         <v>1.55</v>
       </c>
       <c r="Y85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA85">
         <v>0.9750000000000001</v>
@@ -7819,16 +7831,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7837,7 +7849,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7905,16 +7917,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7923,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7971,10 +7983,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>1</v>
@@ -7991,16 +8003,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8009,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8077,16 +8089,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8095,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8143,10 +8155,10 @@
         <v>0.333</v>
       </c>
       <c r="Y89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>0.825</v>
@@ -8163,16 +8175,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8181,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8229,10 +8241,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
         <v>0.9750000000000001</v>
@@ -8249,16 +8261,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8267,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8315,10 +8327,10 @@
         <v>1.1</v>
       </c>
       <c r="Y91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
         <v>0.925</v>
@@ -8335,16 +8347,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8353,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8401,10 +8413,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
@@ -8421,16 +8433,16 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8507,16 +8519,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8525,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8573,10 +8585,10 @@
         <v>1.6</v>
       </c>
       <c r="Y94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8593,16 +8605,16 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8611,7 +8623,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8679,16 +8691,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8697,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8745,10 +8757,10 @@
         <v>2</v>
       </c>
       <c r="Y96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA96">
         <v>0.95</v>
@@ -8765,16 +8777,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8783,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8831,10 +8843,10 @@
         <v>2.8</v>
       </c>
       <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
       </c>
       <c r="AA97">
         <v>-1</v>
@@ -8851,16 +8863,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8869,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8917,10 +8929,10 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>0.8</v>
@@ -8937,16 +8949,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8955,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9003,10 +9015,10 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
         <v>0.8500000000000001</v>
@@ -9023,16 +9035,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9041,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9089,10 +9101,10 @@
         <v>0.8</v>
       </c>
       <c r="Y100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA100">
         <v>0.925</v>
@@ -9109,16 +9121,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9127,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9175,10 +9187,10 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
         <v>1.05</v>
@@ -9195,16 +9207,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9213,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9261,10 +9273,10 @@
         <v>0.571</v>
       </c>
       <c r="Y102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
         <v>0.8500000000000001</v>
@@ -9281,16 +9293,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9299,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9367,16 +9379,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9385,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9433,10 +9445,10 @@
         <v>3</v>
       </c>
       <c r="Y104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
         <v>0.8999999999999999</v>
@@ -9453,16 +9465,16 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9471,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9539,16 +9551,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9557,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9605,10 +9617,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>0.825</v>
@@ -9625,16 +9637,16 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9643,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9691,10 +9703,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
         <v>0.8500000000000001</v>
@@ -9711,16 +9723,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9729,7 +9741,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9777,10 +9789,10 @@
         <v>0.363</v>
       </c>
       <c r="Y108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
         <v>0.7749999999999999</v>
@@ -9797,16 +9809,16 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9815,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9883,16 +9895,16 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9901,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9949,10 +9961,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>0.4875</v>
@@ -9969,16 +9981,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9987,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10055,16 +10067,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10073,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10141,16 +10153,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10159,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10207,10 +10219,10 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10227,16 +10239,16 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10245,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10313,16 +10325,16 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10331,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10379,10 +10391,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>0</v>
@@ -10399,16 +10411,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10417,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10465,10 +10477,10 @@
         <v>3.75</v>
       </c>
       <c r="Y116">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
         <v>0.8</v>
@@ -10485,16 +10497,16 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10503,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10551,10 +10563,10 @@
         <v>1.55</v>
       </c>
       <c r="Y117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10571,16 +10583,16 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10589,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10657,16 +10669,16 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10675,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10743,16 +10755,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10761,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10809,10 +10821,10 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -10829,16 +10841,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10847,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10915,16 +10927,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10933,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -10981,10 +10993,10 @@
         <v>1.45</v>
       </c>
       <c r="Y122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA122">
         <v>0.8999999999999999</v>
@@ -11001,16 +11013,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11019,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11067,10 +11079,10 @@
         <v>1</v>
       </c>
       <c r="Y123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11087,16 +11099,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11105,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11153,10 +11165,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11173,16 +11185,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11239,10 +11251,10 @@
         <v>0.75</v>
       </c>
       <c r="Y125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
         <v>0.8500000000000001</v>
@@ -11259,16 +11271,16 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11277,7 +11289,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11345,16 +11357,16 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11363,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11411,10 +11423,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
@@ -11431,16 +11443,16 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11449,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11517,16 +11529,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11535,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11603,16 +11615,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11621,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11669,10 +11681,10 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
         <v>0.8500000000000001</v>
@@ -11689,16 +11701,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11707,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11755,10 +11767,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0.9750000000000001</v>
@@ -11775,16 +11787,16 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11793,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11841,10 +11853,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-0.5</v>
@@ -11861,17 +11873,17 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" t="s">
         <v>35</v>
       </c>
-      <c r="F133" t="s">
-        <v>31</v>
-      </c>
       <c r="G133">
         <v>1</v>
       </c>
@@ -11879,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11947,16 +11959,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11965,7 +11977,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12013,10 +12025,10 @@
         <v>1.625</v>
       </c>
       <c r="Y134">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
         <v>0.8</v>
@@ -12033,16 +12045,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12051,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12099,10 +12111,10 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z135">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA135">
         <v>1</v>
@@ -12119,17 +12131,17 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" t="s">
         <v>36</v>
       </c>
-      <c r="F136" t="s">
-        <v>32</v>
-      </c>
       <c r="G136">
         <v>2</v>
       </c>
@@ -12137,7 +12149,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12205,16 +12217,16 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12223,7 +12235,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12271,10 +12283,10 @@
         <v>0.3</v>
       </c>
       <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12291,16 +12303,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
         <v>37</v>
-      </c>
-      <c r="F138" t="s">
-        <v>33</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12309,7 +12321,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12357,10 +12369,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y138">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
         <v>1</v>
@@ -12377,16 +12389,16 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12395,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12463,16 +12475,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12481,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12529,10 +12541,10 @@
         <v>0.45</v>
       </c>
       <c r="Y140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
         <v>0.9750000000000001</v>
@@ -12549,16 +12561,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12567,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12615,10 +12627,10 @@
         <v>3.333</v>
       </c>
       <c r="Y141">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA141">
         <v>0.7749999999999999</v>
@@ -12635,16 +12647,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12653,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12701,10 +12713,10 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
         <v>1</v>
@@ -12721,16 +12733,16 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12739,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12807,16 +12819,16 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12825,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12873,10 +12885,10 @@
         <v>1.6</v>
       </c>
       <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
       </c>
       <c r="AA144">
         <v>-1</v>
@@ -12893,16 +12905,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12911,7 +12923,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12979,16 +12991,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -12997,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13045,10 +13057,10 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z146">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA146">
         <v>0.4875</v>
@@ -13065,16 +13077,16 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13131,10 +13143,10 @@
         <v>0.5</v>
       </c>
       <c r="Y147">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
         <v>0.425</v>
@@ -13151,16 +13163,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13169,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13237,16 +13249,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13255,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13323,16 +13335,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13341,7 +13353,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13389,10 +13401,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
         <v>0.8999999999999999</v>
@@ -13409,16 +13421,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13495,16 +13507,16 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13513,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13561,10 +13573,10 @@
         <v>2</v>
       </c>
       <c r="Y152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA152">
         <v>0</v>
@@ -13581,17 +13593,17 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" t="s">
         <v>34</v>
       </c>
-      <c r="F153" t="s">
-        <v>30</v>
-      </c>
       <c r="G153">
         <v>1</v>
       </c>
@@ -13599,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13647,10 +13659,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -13667,16 +13679,16 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13733,10 +13745,10 @@
         <v>2.1</v>
       </c>
       <c r="Y154">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA154">
         <v>0.8</v>
@@ -13753,16 +13765,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13771,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13819,16 +13831,534 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
         <v>0.95</v>
       </c>
       <c r="AB155">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>6994933</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45403.41666666666</v>
+      </c>
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>42</v>
+      </c>
+      <c r="J156">
+        <v>1.363</v>
+      </c>
+      <c r="K156">
+        <v>4.6</v>
+      </c>
+      <c r="L156">
+        <v>7</v>
+      </c>
+      <c r="M156">
+        <v>1.4</v>
+      </c>
+      <c r="N156">
+        <v>4.5</v>
+      </c>
+      <c r="O156">
+        <v>6</v>
+      </c>
+      <c r="P156">
+        <v>-1.25</v>
+      </c>
+      <c r="Q156">
+        <v>1.9</v>
+      </c>
+      <c r="R156">
+        <v>1.9</v>
+      </c>
+      <c r="S156">
+        <v>2.75</v>
+      </c>
+      <c r="T156">
+        <v>1.85</v>
+      </c>
+      <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.425</v>
+      </c>
+      <c r="AB156">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>6998173</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45403.52083333334</v>
+      </c>
+      <c r="E157" t="s">
+        <v>40</v>
+      </c>
+      <c r="F157" t="s">
+        <v>39</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157">
+        <v>1.25</v>
+      </c>
+      <c r="K157">
+        <v>5.25</v>
+      </c>
+      <c r="L157">
+        <v>9.5</v>
+      </c>
+      <c r="M157">
+        <v>1.3</v>
+      </c>
+      <c r="N157">
+        <v>5</v>
+      </c>
+      <c r="O157">
+        <v>7.5</v>
+      </c>
+      <c r="P157">
+        <v>-1.5</v>
+      </c>
+      <c r="Q157">
+        <v>1.85</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>3.25</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
+        <v>-1</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>6.5</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
+        <v>0.95</v>
+      </c>
+      <c r="AA157">
+        <v>1</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>6994888</v>
+      </c>
+      <c r="C158" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45403.63541666666</v>
+      </c>
+      <c r="E158" t="s">
+        <v>34</v>
+      </c>
+      <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>44</v>
+      </c>
+      <c r="J158">
+        <v>2.2</v>
+      </c>
+      <c r="K158">
+        <v>3.3</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>2.375</v>
+      </c>
+      <c r="N158">
+        <v>3.25</v>
+      </c>
+      <c r="O158">
+        <v>2.75</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>1.775</v>
+      </c>
+      <c r="R158">
+        <v>2.025</v>
+      </c>
+      <c r="S158">
+        <v>2.25</v>
+      </c>
+      <c r="T158">
+        <v>1.9</v>
+      </c>
+      <c r="U158">
+        <v>1.9</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>2.25</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45409.52083333334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" t="s">
+        <v>35</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>3.4</v>
+      </c>
+      <c r="L159">
+        <v>3.1</v>
+      </c>
+      <c r="M159">
+        <v>1.95</v>
+      </c>
+      <c r="N159">
+        <v>3.6</v>
+      </c>
+      <c r="O159">
+        <v>3.3</v>
+      </c>
+      <c r="P159">
+        <v>-0.5</v>
+      </c>
+      <c r="Q159">
+        <v>2.025</v>
+      </c>
+      <c r="R159">
+        <v>1.775</v>
+      </c>
+      <c r="S159">
+        <v>2.25</v>
+      </c>
+      <c r="T159">
+        <v>1.875</v>
+      </c>
+      <c r="U159">
+        <v>1.925</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>31</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45410.41666666666</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="J160">
+        <v>1.909</v>
+      </c>
+      <c r="K160">
+        <v>3.25</v>
+      </c>
+      <c r="L160">
+        <v>3.5</v>
+      </c>
+      <c r="M160">
+        <v>1.8</v>
+      </c>
+      <c r="N160">
+        <v>3.4</v>
+      </c>
+      <c r="O160">
+        <v>4</v>
+      </c>
+      <c r="P160">
+        <v>-0.5</v>
+      </c>
+      <c r="Q160">
+        <v>1.825</v>
+      </c>
+      <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
+        <v>2.75</v>
+      </c>
+      <c r="T160">
+        <v>1.825</v>
+      </c>
+      <c r="U160">
+        <v>1.975</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="E161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
+        <v>34</v>
+      </c>
+      <c r="J161">
+        <v>2.5</v>
+      </c>
+      <c r="K161">
+        <v>3.2</v>
+      </c>
+      <c r="L161">
+        <v>2.5</v>
+      </c>
+      <c r="M161">
+        <v>2.5</v>
+      </c>
+      <c r="N161">
+        <v>3.4</v>
+      </c>
+      <c r="O161">
+        <v>2.5</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>1.9</v>
+      </c>
+      <c r="R161">
+        <v>1.9</v>
+      </c>
+      <c r="S161">
+        <v>3</v>
+      </c>
+      <c r="T161">
+        <v>1.825</v>
+      </c>
+      <c r="U161">
+        <v>1.975</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45411.52083333334</v>
+      </c>
+      <c r="E162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="J162">
+        <v>2.25</v>
+      </c>
+      <c r="K162">
+        <v>3.25</v>
+      </c>
+      <c r="L162">
+        <v>2.75</v>
+      </c>
+      <c r="M162">
+        <v>1.909</v>
+      </c>
+      <c r="N162">
+        <v>3.4</v>
+      </c>
+      <c r="O162">
+        <v>3.6</v>
+      </c>
+      <c r="P162">
+        <v>-0.5</v>
+      </c>
+      <c r="Q162">
+        <v>1.9</v>
+      </c>
+      <c r="R162">
+        <v>1.9</v>
+      </c>
+      <c r="S162">
+        <v>2.5</v>
+      </c>
+      <c r="T162">
+        <v>1.85</v>
+      </c>
+      <c r="U162">
+        <v>1.95</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -112,10 +112,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -130,10 +130,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -142,10 +142,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -616,73 +616,73 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>42</v>
       </c>
       <c r="J2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -702,73 +702,73 @@
         <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
+        <v>-0.25</v>
+      </c>
+      <c r="Q3">
+        <v>1.75</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>2.25</v>
+      </c>
+      <c r="T3">
+        <v>1.95</v>
+      </c>
+      <c r="U3">
+        <v>1.85</v>
+      </c>
+      <c r="V3">
+        <v>1.05</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.95</v>
-      </c>
-      <c r="R3">
-        <v>1.85</v>
-      </c>
-      <c r="S3">
-        <v>2.5</v>
-      </c>
-      <c r="T3">
-        <v>1.9</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>-1</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>2.75</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -874,7 +874,7 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1218,58 +1218,58 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
+        <v>1.925</v>
+      </c>
+      <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
+        <v>2.25</v>
+      </c>
+      <c r="T9">
+        <v>1.95</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>2.75</v>
-      </c>
-      <c r="T9">
-        <v>1.8</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
       <c r="V9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1278,13 +1278,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1304,58 +1304,58 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1364,13 +1364,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1390,7 +1390,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1476,7 +1476,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1571,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1645,10 +1645,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1820,7 +1820,7 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1903,7 +1903,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1989,7 +1989,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -2001,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2087,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2164,7 +2164,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2247,7 +2247,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>40</v>
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2336,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2419,10 +2419,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2594,7 +2594,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2603,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2677,7 +2677,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2763,7 +2763,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -2775,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2938,7 +2938,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3021,7 +3021,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>37</v>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3119,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3193,10 +3193,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
         <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3282,7 +3282,7 @@
         <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3368,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3537,7 +3537,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3623,7 +3623,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -3635,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3712,7 +3712,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3881,7 +3881,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3970,7 +3970,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4065,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4139,10 +4139,10 @@
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4225,7 +4225,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4397,10 +4397,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4409,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4483,7 +4483,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -4495,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4581,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4744,7 +4744,7 @@
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4830,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4913,10 +4913,10 @@
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4999,7 +4999,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5269,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5343,7 +5343,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
         <v>37</v>
@@ -5355,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5429,10 +5429,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5601,7 +5601,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
@@ -5690,7 +5690,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5776,7 +5776,7 @@
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
         <v>41</v>
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5948,7 +5948,7 @@
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6203,7 +6203,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
         <v>36</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6289,11 +6289,11 @@
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
         <v>39</v>
       </c>
-      <c r="F68" t="s">
-        <v>38</v>
-      </c>
       <c r="G68">
         <v>1</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6375,7 +6375,7 @@
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6550,7 +6550,7 @@
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6645,7 +6645,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6722,7 +6722,7 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6731,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6805,7 +6805,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6894,7 +6894,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6980,7 +6980,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6989,7 +6989,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7075,7 +7075,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7149,7 +7149,7 @@
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -7161,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7235,10 +7235,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7407,7 +7407,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7493,11 +7493,11 @@
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
         <v>32</v>
       </c>
-      <c r="F82" t="s">
-        <v>33</v>
-      </c>
       <c r="G82">
         <v>2</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7579,7 +7579,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
         <v>37</v>
@@ -7591,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7677,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7754,7 +7754,7 @@
         <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7840,7 +7840,7 @@
         <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7923,7 +7923,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8012,7 +8012,7 @@
         <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8181,7 +8181,7 @@
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8279,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8353,10 +8353,10 @@
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8442,7 +8442,7 @@
         <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8537,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8697,10 +8697,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8795,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8872,7 +8872,7 @@
         <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8881,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8955,7 +8955,7 @@
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
         <v>36</v>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9053,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9130,7 +9130,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9139,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9225,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9299,7 +9299,7 @@
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
         <v>40</v>
@@ -9397,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9474,7 +9474,7 @@
         <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9643,10 +9643,10 @@
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9655,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9741,7 +9741,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9818,7 +9818,7 @@
         <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
         <v>40</v>
@@ -9913,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9987,7 +9987,7 @@
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
         <v>35</v>
@@ -10073,7 +10073,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
         <v>34</v>
@@ -10162,7 +10162,7 @@
         <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10331,10 +10331,10 @@
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" t="s">
         <v>38</v>
-      </c>
-      <c r="F115" t="s">
-        <v>39</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10429,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10506,7 +10506,7 @@
         <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10589,7 +10589,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
         <v>36</v>
@@ -10678,7 +10678,7 @@
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10847,7 +10847,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F121" t="s">
         <v>37</v>
@@ -10933,11 +10933,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
         <v>33</v>
       </c>
-      <c r="F122" t="s">
-        <v>32</v>
-      </c>
       <c r="G122">
         <v>1</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11108,7 +11108,7 @@
         <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11203,7 +11203,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11277,7 +11277,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -11363,7 +11363,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
         <v>36</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11452,7 +11452,7 @@
         <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11547,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11621,7 +11621,7 @@
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
         <v>34</v>
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11710,7 +11710,7 @@
         <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11719,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11796,7 +11796,7 @@
         <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11879,7 +11879,7 @@
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
         <v>35</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11965,10 +11965,10 @@
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11977,7 +11977,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12063,7 +12063,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12226,7 +12226,7 @@
         <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12321,7 +12321,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12481,7 +12481,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
         <v>40</v>
@@ -12493,7 +12493,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12567,10 +12567,10 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12653,10 +12653,10 @@
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12742,7 +12742,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12751,7 +12751,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12825,7 +12825,7 @@
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F144" t="s">
         <v>41</v>
@@ -12837,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -13009,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13095,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13169,10 +13169,10 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13255,7 +13255,7 @@
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
         <v>34</v>
@@ -13341,7 +13341,7 @@
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F150" t="s">
         <v>37</v>
@@ -13353,7 +13353,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13516,7 +13516,7 @@
         <v>37</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13525,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13599,7 +13599,7 @@
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
         <v>34</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13688,7 +13688,7 @@
         <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13697,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13857,7 +13857,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
         <v>41</v>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13946,7 +13946,7 @@
         <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13955,7 +13955,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14032,7 +14032,7 @@
         <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14115,7 +14115,7 @@
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
         <v>35</v>
@@ -14130,31 +14130,31 @@
         <v>3.1</v>
       </c>
       <c r="M159">
+        <v>2.1</v>
+      </c>
+      <c r="N159">
+        <v>3.5</v>
+      </c>
+      <c r="O159">
+        <v>3</v>
+      </c>
+      <c r="P159">
+        <v>-0.25</v>
+      </c>
+      <c r="Q159">
+        <v>1.85</v>
+      </c>
+      <c r="R159">
         <v>1.95</v>
-      </c>
-      <c r="N159">
-        <v>3.6</v>
-      </c>
-      <c r="O159">
-        <v>3.3</v>
-      </c>
-      <c r="P159">
-        <v>-0.5</v>
-      </c>
-      <c r="Q159">
-        <v>2.025</v>
-      </c>
-      <c r="R159">
-        <v>1.775</v>
       </c>
       <c r="S159">
         <v>2.25</v>
       </c>
       <c r="T159">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14207,19 +14207,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
         <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14260,13 +14260,13 @@
         <v>2.5</v>
       </c>
       <c r="M161">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N161">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O161">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -14278,13 +14278,13 @@
         <v>1.9</v>
       </c>
       <c r="S161">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T161">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -14310,7 +14310,7 @@
         <v>45411.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
         <v>36</v>
@@ -14337,10 +14337,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
         <v>2.5</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +100,9 @@
     <t>7021641</t>
   </si>
   <si>
+    <t>7021989</t>
+  </si>
+  <si>
     <t>7060570</t>
   </si>
   <si>
@@ -112,10 +115,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -130,10 +133,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -142,10 +145,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -510,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB162"/>
+  <dimension ref="A1:AB163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,85 +607,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2">
+        <v>1.8</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2.05</v>
+      </c>
+      <c r="N2">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>3.3</v>
-      </c>
-      <c r="L2">
-        <v>3.4</v>
-      </c>
-      <c r="M2">
-        <v>1.909</v>
-      </c>
-      <c r="N2">
-        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
+        <v>-0.25</v>
+      </c>
+      <c r="Q2">
+        <v>1.75</v>
+      </c>
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>2.25</v>
+      </c>
+      <c r="T2">
+        <v>1.95</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
+        <v>1.05</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.95</v>
-      </c>
-      <c r="R2">
-        <v>1.85</v>
-      </c>
-      <c r="S2">
-        <v>2.5</v>
-      </c>
-      <c r="T2">
-        <v>1.9</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>2.75</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -690,85 +693,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -779,16 +782,16 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -865,13 +868,13 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -883,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -951,16 +954,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -969,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1037,16 +1040,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1123,16 +1126,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1206,70 +1209,70 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1278,13 +1281,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1292,70 +1295,70 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
+        <v>1.925</v>
+      </c>
+      <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
+        <v>2.25</v>
+      </c>
+      <c r="T10">
+        <v>1.95</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="R10">
-        <v>1.95</v>
-      </c>
-      <c r="S10">
-        <v>2.75</v>
-      </c>
-      <c r="T10">
-        <v>1.8</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1364,13 +1367,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1381,16 +1384,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1467,16 +1470,16 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1553,16 +1556,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1571,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1639,7 +1642,7 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
@@ -1725,16 +1728,16 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1811,16 +1814,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
         <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1829,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1897,7 +1900,7 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
@@ -1906,7 +1909,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1915,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1983,16 +1986,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2001,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2069,16 +2072,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2087,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2155,13 +2158,13 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -2173,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2241,16 +2244,16 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2259,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2327,16 +2330,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2345,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2413,7 +2416,7 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
@@ -2422,7 +2425,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2431,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2499,16 +2502,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2517,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2585,13 +2588,13 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -2603,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2671,7 +2674,7 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
@@ -2680,7 +2683,7 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2757,16 +2760,16 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2775,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2843,16 +2846,16 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2861,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2929,13 +2932,13 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
@@ -3015,16 +3018,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3033,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3101,16 +3104,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3119,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3187,13 +3190,13 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -3205,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3273,13 +3276,13 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -3359,16 +3362,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3445,16 +3448,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3463,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3531,16 +3534,16 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3617,7 +3620,7 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
@@ -3626,7 +3629,7 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3703,16 +3706,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3721,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3789,16 +3792,16 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3875,7 +3878,7 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
@@ -3884,7 +3887,7 @@
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3893,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3961,13 +3964,13 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
@@ -4047,16 +4050,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4065,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4133,16 +4136,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4151,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4219,7 +4222,7 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
@@ -4228,7 +4231,7 @@
         <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4305,16 +4308,16 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4323,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4391,7 +4394,7 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
@@ -4400,7 +4403,7 @@
         <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4477,16 +4480,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4495,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4563,16 +4566,16 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4581,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4649,17 +4652,17 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
         <v>35</v>
       </c>
-      <c r="F49" t="s">
-        <v>34</v>
-      </c>
       <c r="G49">
         <v>1</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4735,13 +4738,13 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -4821,13 +4824,13 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
         <v>33</v>
@@ -4907,7 +4910,7 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
@@ -4916,7 +4919,7 @@
         <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4993,16 +4996,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5079,16 +5082,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5097,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5165,16 +5168,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5251,16 +5254,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
         <v>41</v>
-      </c>
-      <c r="F56" t="s">
-        <v>40</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5269,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5337,17 +5340,17 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" t="s">
-        <v>37</v>
-      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -5355,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5423,7 +5426,7 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
@@ -5509,17 +5512,17 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" t="s">
         <v>36</v>
       </c>
-      <c r="F59" t="s">
-        <v>35</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5595,16 +5598,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5613,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5681,16 +5684,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
         <v>40</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5767,13 +5770,13 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -5785,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5853,7 +5856,7 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
@@ -5862,7 +5865,7 @@
         <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5939,16 +5942,16 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5957,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6025,17 +6028,17 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
         <v>37</v>
       </c>
-      <c r="F65" t="s">
-        <v>36</v>
-      </c>
       <c r="G65">
         <v>0</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6111,16 +6114,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6129,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6197,16 +6200,16 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6283,13 +6286,13 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
         <v>39</v>
@@ -6301,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6369,7 +6372,7 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
@@ -6378,7 +6381,7 @@
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6387,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6455,16 +6458,16 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6473,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6541,13 +6544,13 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
         <v>33</v>
@@ -6559,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6627,16 +6630,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6645,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6713,16 +6716,16 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6731,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6799,7 +6802,7 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
@@ -6808,7 +6811,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6817,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6885,16 +6888,16 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6971,16 +6974,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6989,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7057,16 +7060,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7075,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7143,7 +7146,7 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
@@ -7152,7 +7155,7 @@
         <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7161,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7229,13 +7232,13 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
         <v>39</v>
@@ -7247,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7315,16 +7318,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7401,16 +7404,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7487,7 +7490,7 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
@@ -7496,7 +7499,7 @@
         <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7573,7 +7576,7 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
@@ -7582,7 +7585,7 @@
         <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7659,16 +7662,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7677,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7745,16 +7748,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7763,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7831,13 +7834,13 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -7849,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7917,16 +7920,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -8003,13 +8006,13 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
         <v>33</v>
@@ -8021,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8089,16 +8092,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8107,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8175,7 +8178,7 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
@@ -8184,7 +8187,7 @@
         <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8261,16 +8264,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8279,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8347,16 +8350,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8433,13 +8436,13 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
         <v>39</v>
@@ -8451,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8519,16 +8522,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8537,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8605,16 +8608,16 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8623,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8691,13 +8694,13 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
         <v>33</v>
@@ -8709,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8777,16 +8780,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8795,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8863,16 +8866,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8949,7 +8952,7 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
@@ -8958,7 +8961,7 @@
         <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -9035,16 +9038,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9053,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9121,16 +9124,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9207,16 +9210,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9225,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9293,7 +9296,7 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
@@ -9302,7 +9305,7 @@
         <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9311,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9379,16 +9382,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9397,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9465,16 +9468,16 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9551,16 +9554,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9637,7 +9640,7 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
@@ -9723,16 +9726,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9741,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9809,13 +9812,13 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
         <v>39</v>
@@ -9827,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9895,16 +9898,16 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9981,16 +9984,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9999,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10067,7 +10070,7 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
@@ -10076,7 +10079,7 @@
         <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10085,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10153,16 +10156,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10239,16 +10242,16 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10257,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10325,7 +10328,7 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
@@ -10334,7 +10337,7 @@
         <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10411,16 +10414,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10429,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10497,13 +10500,13 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
         <v>33</v>
@@ -10515,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10583,7 +10586,7 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
@@ -10592,7 +10595,7 @@
         <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10601,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10669,13 +10672,13 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
         <v>39</v>
@@ -10687,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10755,16 +10758,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10841,16 +10844,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10859,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10927,13 +10930,13 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
         <v>33</v>
@@ -10945,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11013,16 +11016,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11031,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11099,16 +11102,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11185,16 +11188,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11203,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11271,7 +11274,7 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
@@ -11280,7 +11283,7 @@
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11289,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11357,16 +11360,16 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11443,16 +11446,16 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11461,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11529,16 +11532,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11615,7 +11618,7 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
@@ -11624,7 +11627,7 @@
         <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11701,16 +11704,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
         <v>34</v>
-      </c>
-      <c r="F131" t="s">
-        <v>32</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11787,13 +11790,13 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
         <v>33</v>
@@ -11873,7 +11876,7 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
@@ -11882,7 +11885,7 @@
         <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11959,16 +11962,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11977,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12045,16 +12048,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12131,16 +12134,16 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12149,7 +12152,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12217,13 +12220,13 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
         <v>39</v>
@@ -12235,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12303,16 +12306,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12321,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12389,17 +12392,17 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" t="s">
         <v>35</v>
       </c>
-      <c r="F139" t="s">
-        <v>34</v>
-      </c>
       <c r="G139">
         <v>1</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12475,16 +12478,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12493,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12561,7 +12564,7 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
@@ -12570,7 +12573,7 @@
         <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12579,7 +12582,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12647,7 +12650,7 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
@@ -12656,7 +12659,7 @@
         <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12733,13 +12736,13 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
         <v>33</v>
@@ -12819,16 +12822,16 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12837,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12905,16 +12908,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12923,7 +12926,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12991,16 +12994,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13077,17 +13080,17 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" t="s">
         <v>41</v>
       </c>
-      <c r="F147" t="s">
-        <v>40</v>
-      </c>
       <c r="G147">
         <v>1</v>
       </c>
@@ -13095,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13163,7 +13166,7 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
@@ -13181,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13249,16 +13252,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13267,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13335,16 +13338,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
+        <v>40</v>
+      </c>
+      <c r="F150" t="s">
         <v>38</v>
-      </c>
-      <c r="F150" t="s">
-        <v>37</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13353,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13421,17 +13424,17 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
+        <v>37</v>
+      </c>
+      <c r="F151" t="s">
         <v>36</v>
       </c>
-      <c r="F151" t="s">
-        <v>35</v>
-      </c>
       <c r="G151">
         <v>1</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13507,13 +13510,13 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
         <v>39</v>
@@ -13525,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13593,16 +13596,16 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13679,16 +13682,16 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13697,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13765,16 +13768,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
         <v>37</v>
-      </c>
-      <c r="F155" t="s">
-        <v>36</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13851,7 +13854,7 @@
         <v>6994933</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45403.41666666666</v>
@@ -13860,7 +13863,7 @@
         <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13937,16 +13940,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
+        <v>41</v>
+      </c>
+      <c r="F157" t="s">
         <v>40</v>
-      </c>
-      <c r="F157" t="s">
-        <v>38</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13955,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14023,13 +14026,13 @@
         <v>6994888</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45403.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
         <v>33</v>
@@ -14041,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14109,7 +14112,7 @@
         <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45409.52083333334</v>
@@ -14118,7 +14121,7 @@
         <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14130,7 +14133,7 @@
         <v>3.1</v>
       </c>
       <c r="M159">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N159">
         <v>3.5</v>
@@ -14142,19 +14145,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
         <v>2.25</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14174,52 +14177,52 @@
         <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
-        <v>45410.41666666666</v>
+        <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
         <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J160">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="K160">
         <v>3.25</v>
       </c>
       <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>4.333</v>
+      </c>
+      <c r="N160">
         <v>3.5</v>
       </c>
-      <c r="M160">
-        <v>1.8</v>
-      </c>
-      <c r="N160">
-        <v>3.4</v>
-      </c>
       <c r="O160">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="P160">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14239,37 +14242,37 @@
         <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
-        <v>45410.52083333334</v>
+        <v>45410.41666666666</v>
       </c>
       <c r="E161" t="s">
         <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J161">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K161">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L161">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M161">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N161">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O161">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q161">
         <v>1.9</v>
@@ -14281,10 +14284,10 @@
         <v>2.75</v>
       </c>
       <c r="T161">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U161">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -14304,60 +14307,125 @@
         <v>30</v>
       </c>
       <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="E162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162">
+        <v>2.5</v>
+      </c>
+      <c r="K162">
+        <v>3.2</v>
+      </c>
+      <c r="L162">
+        <v>2.5</v>
+      </c>
+      <c r="M162">
+        <v>2.6</v>
+      </c>
+      <c r="N162">
+        <v>3.2</v>
+      </c>
+      <c r="O162">
+        <v>2.6</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>1.9</v>
+      </c>
+      <c r="R162">
+        <v>1.9</v>
+      </c>
+      <c r="S162">
+        <v>2.75</v>
+      </c>
+      <c r="T162">
+        <v>1.975</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
         <v>31</v>
       </c>
-      <c r="D162" s="2">
+      <c r="C163" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="2">
         <v>45411.52083333334</v>
       </c>
-      <c r="E162" t="s">
-        <v>32</v>
-      </c>
-      <c r="F162" t="s">
-        <v>36</v>
-      </c>
-      <c r="J162">
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" t="s">
+        <v>37</v>
+      </c>
+      <c r="J163">
         <v>2.25</v>
       </c>
-      <c r="K162">
+      <c r="K163">
         <v>3.25</v>
       </c>
-      <c r="L162">
+      <c r="L163">
         <v>2.75</v>
       </c>
-      <c r="M162">
+      <c r="M163">
         <v>1.909</v>
       </c>
-      <c r="N162">
+      <c r="N163">
         <v>3.4</v>
       </c>
-      <c r="O162">
+      <c r="O163">
         <v>3.6</v>
       </c>
-      <c r="P162">
+      <c r="P163">
         <v>-0.5</v>
       </c>
-      <c r="Q162">
+      <c r="Q163">
+        <v>1.925</v>
+      </c>
+      <c r="R163">
         <v>1.875</v>
       </c>
-      <c r="R162">
+      <c r="S163">
+        <v>2.5</v>
+      </c>
+      <c r="T163">
+        <v>1.875</v>
+      </c>
+      <c r="U163">
         <v>1.925</v>
       </c>
-      <c r="S162">
-        <v>2.5</v>
-      </c>
-      <c r="T162">
-        <v>1.85</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
+      <c r="V163">
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -115,10 +115,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -145,10 +145,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -619,73 +619,73 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -705,73 +705,73 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>44</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N3">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
+        <v>-0.25</v>
+      </c>
+      <c r="Q3">
+        <v>1.75</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>2.25</v>
+      </c>
+      <c r="T3">
+        <v>1.95</v>
+      </c>
+      <c r="U3">
+        <v>1.85</v>
+      </c>
+      <c r="V3">
+        <v>1.05</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.95</v>
-      </c>
-      <c r="R3">
-        <v>1.85</v>
-      </c>
-      <c r="S3">
-        <v>2.5</v>
-      </c>
-      <c r="T3">
-        <v>1.9</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>-1</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>2.75</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -877,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1209,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1221,58 +1221,58 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
+        <v>1.925</v>
+      </c>
+      <c r="R9">
+        <v>1.875</v>
+      </c>
+      <c r="S9">
+        <v>2.25</v>
+      </c>
+      <c r="T9">
+        <v>1.95</v>
+      </c>
+      <c r="U9">
         <v>1.85</v>
       </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
-      <c r="S9">
-        <v>2.75</v>
-      </c>
-      <c r="T9">
-        <v>1.8</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
       <c r="V9">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1281,13 +1281,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z9">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1295,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1307,58 +1307,58 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P10">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q10">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1367,13 +1367,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1393,7 +1393,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1479,7 +1479,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1648,10 +1648,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1906,7 +1906,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1992,7 +1992,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
@@ -2004,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2167,7 +2167,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2339,7 +2339,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2422,10 +2422,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2597,7 +2597,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2680,7 +2680,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2766,7 +2766,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2941,7 +2941,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3024,7 +3024,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3122,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3196,10 +3196,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
         <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3371,7 +3371,7 @@
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3540,7 +3540,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3626,7 +3626,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -3638,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3715,7 +3715,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3884,7 +3884,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
         <v>35</v>
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3973,7 +3973,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4068,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4142,10 +4142,10 @@
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4228,7 +4228,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4400,10 +4400,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4486,7 +4486,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -4498,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4584,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4747,7 +4747,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4833,7 +4833,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4916,10 +4916,10 @@
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -5002,7 +5002,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5272,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5346,7 +5346,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5432,10 +5432,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5530,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5604,7 +5604,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
         <v>35</v>
@@ -5693,7 +5693,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5779,7 +5779,7 @@
         <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5862,7 +5862,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5951,7 +5951,7 @@
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6206,7 +6206,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6292,11 +6292,11 @@
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
         <v>40</v>
       </c>
-      <c r="F68" t="s">
-        <v>39</v>
-      </c>
       <c r="G68">
         <v>1</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6378,7 +6378,7 @@
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -6390,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6553,7 +6553,7 @@
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6725,7 +6725,7 @@
         <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6808,7 +6808,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
         <v>41</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6897,7 +6897,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6983,7 +6983,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7152,7 +7152,7 @@
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -7164,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7238,10 +7238,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7410,7 +7410,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
         <v>36</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7496,11 +7496,11 @@
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
         <v>33</v>
       </c>
-      <c r="F82" t="s">
-        <v>34</v>
-      </c>
       <c r="G82">
         <v>2</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7582,7 +7582,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7680,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7757,7 +7757,7 @@
         <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7843,7 +7843,7 @@
         <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7926,7 +7926,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8015,7 +8015,7 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8184,7 +8184,7 @@
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -8196,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8282,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8356,10 +8356,10 @@
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8445,7 +8445,7 @@
         <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8700,10 +8700,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8798,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8875,7 +8875,7 @@
         <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8958,7 +8958,7 @@
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9056,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9133,7 +9133,7 @@
         <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9228,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9302,7 +9302,7 @@
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
         <v>41</v>
@@ -9400,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9477,7 +9477,7 @@
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9572,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9646,10 +9646,10 @@
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9744,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9821,7 +9821,7 @@
         <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
         <v>41</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9990,7 +9990,7 @@
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
         <v>36</v>
@@ -10076,7 +10076,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
         <v>35</v>
@@ -10165,7 +10165,7 @@
         <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10334,10 +10334,10 @@
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" t="s">
         <v>39</v>
-      </c>
-      <c r="F115" t="s">
-        <v>40</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10432,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10509,7 +10509,7 @@
         <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10592,7 +10592,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -10681,7 +10681,7 @@
         <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10850,7 +10850,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
         <v>38</v>
@@ -10936,11 +10936,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" t="s">
         <v>34</v>
       </c>
-      <c r="F122" t="s">
-        <v>33</v>
-      </c>
       <c r="G122">
         <v>1</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11111,7 +11111,7 @@
         <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11206,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11280,7 +11280,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
         <v>38</v>
@@ -11366,7 +11366,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11455,7 +11455,7 @@
         <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11624,7 +11624,7 @@
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
         <v>35</v>
@@ -11636,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11713,7 +11713,7 @@
         <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11799,7 +11799,7 @@
         <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11882,7 +11882,7 @@
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
         <v>36</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11968,10 +11968,10 @@
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12066,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12229,7 +12229,7 @@
         <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12238,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12324,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12484,7 +12484,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
         <v>41</v>
@@ -12496,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12570,10 +12570,10 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12582,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12656,10 +12656,10 @@
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12745,7 +12745,7 @@
         <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12754,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12828,7 +12828,7 @@
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
         <v>42</v>
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13098,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13172,10 +13172,10 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13258,7 +13258,7 @@
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
         <v>35</v>
@@ -13344,7 +13344,7 @@
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
         <v>38</v>
@@ -13356,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13519,7 +13519,7 @@
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13528,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13602,7 +13602,7 @@
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
         <v>35</v>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13691,7 +13691,7 @@
         <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13860,7 +13860,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
         <v>42</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13949,7 +13949,7 @@
         <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13958,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14035,7 +14035,7 @@
         <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14118,7 +14118,7 @@
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
         <v>36</v>
@@ -14145,19 +14145,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
         <v>2.25</v>
       </c>
       <c r="T159">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14183,10 +14183,10 @@
         <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" t="s">
         <v>40</v>
-      </c>
-      <c r="F160" t="s">
-        <v>39</v>
       </c>
       <c r="J160">
         <v>3.25</v>
@@ -14198,31 +14198,31 @@
         <v>2</v>
       </c>
       <c r="M160">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N160">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O160">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="P160">
         <v>0.75</v>
       </c>
       <c r="Q160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14263,22 +14263,22 @@
         <v>3.5</v>
       </c>
       <c r="M161">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N161">
         <v>3.4</v>
       </c>
       <c r="O161">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P161">
         <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R161">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S161">
         <v>2.75</v>
@@ -14349,10 +14349,10 @@
         <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>45411.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
         <v>37</v>
@@ -14393,7 +14393,7 @@
         <v>2.75</v>
       </c>
       <c r="M163">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N163">
         <v>3.4</v>
@@ -14405,19 +14405,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
         <v>2.5</v>
       </c>
       <c r="T163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
         <v>0</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -115,10 +115,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -133,10 +133,10 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Domzale</t>
+    <t>NK Maribor</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Domzale</t>
   </si>
   <si>
     <t>NK Celje</t>
@@ -145,10 +145,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -619,73 +619,73 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>43</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K2">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N2">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
+        <v>-0.25</v>
+      </c>
+      <c r="Q2">
+        <v>1.75</v>
+      </c>
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>2.25</v>
+      </c>
+      <c r="T2">
+        <v>1.95</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
+        <v>1.05</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.95</v>
-      </c>
-      <c r="R2">
-        <v>1.85</v>
-      </c>
-      <c r="S2">
-        <v>2.5</v>
-      </c>
-      <c r="T2">
-        <v>1.9</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>2.75</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -705,73 +705,73 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
         <v>44</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -877,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1209,7 +1209,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814328</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1221,58 +1221,58 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q9">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W9">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1281,13 +1281,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z9">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AA9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1295,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6814330</v>
+        <v>6814328</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1307,58 +1307,58 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q10">
+        <v>1.925</v>
+      </c>
+      <c r="R10">
+        <v>1.875</v>
+      </c>
+      <c r="S10">
+        <v>2.25</v>
+      </c>
+      <c r="T10">
+        <v>1.95</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="R10">
-        <v>1.95</v>
-      </c>
-      <c r="S10">
-        <v>2.75</v>
-      </c>
-      <c r="T10">
-        <v>1.8</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1367,13 +1367,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z10">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1393,7 +1393,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1479,7 +1479,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1648,10 +1648,10 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1906,7 +1906,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1992,7 +1992,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
@@ -2004,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2167,7 +2167,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2250,7 +2250,7 @@
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2339,7 +2339,7 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2422,10 +2422,10 @@
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2597,7 +2597,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2680,7 +2680,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2766,7 +2766,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2941,7 +2941,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3024,7 +3024,7 @@
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3122,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3196,10 +3196,10 @@
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
         <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3371,7 +3371,7 @@
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3540,7 +3540,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
         <v>37</v>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3626,7 +3626,7 @@
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -3638,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3715,7 +3715,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3884,7 +3884,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>35</v>
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3973,7 +3973,7 @@
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4068,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4142,10 +4142,10 @@
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4228,7 +4228,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
@@ -4240,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4400,10 +4400,10 @@
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4486,7 +4486,7 @@
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -4498,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4584,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4747,7 +4747,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4833,7 +4833,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4916,10 +4916,10 @@
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -5002,7 +5002,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5272,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5346,7 +5346,7 @@
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
         <v>38</v>
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5432,10 +5432,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5530,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5604,7 +5604,7 @@
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
         <v>35</v>
@@ -5693,7 +5693,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5779,7 +5779,7 @@
         <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5862,7 +5862,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
         <v>42</v>
@@ -5874,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5951,7 +5951,7 @@
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6206,7 +6206,7 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
         <v>37</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6292,11 +6292,11 @@
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s">
         <v>39</v>
       </c>
-      <c r="F68" t="s">
-        <v>40</v>
-      </c>
       <c r="G68">
         <v>1</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6378,7 +6378,7 @@
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -6390,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6553,7 +6553,7 @@
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6725,7 +6725,7 @@
         <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6808,7 +6808,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
         <v>41</v>
@@ -6820,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6897,7 +6897,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6983,7 +6983,7 @@
         <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7152,7 +7152,7 @@
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
         <v>41</v>
@@ -7164,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7238,10 +7238,10 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7410,7 +7410,7 @@
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
         <v>36</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7496,11 +7496,11 @@
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
         <v>34</v>
       </c>
-      <c r="F82" t="s">
-        <v>33</v>
-      </c>
       <c r="G82">
         <v>2</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7582,7 +7582,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7680,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7757,7 +7757,7 @@
         <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7843,7 +7843,7 @@
         <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7926,7 +7926,7 @@
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
         <v>42</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8015,7 +8015,7 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8184,7 +8184,7 @@
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
         <v>42</v>
@@ -8196,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8282,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8356,10 +8356,10 @@
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8445,7 +8445,7 @@
         <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8540,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8700,10 +8700,10 @@
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8798,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8875,7 +8875,7 @@
         <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8884,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8958,7 +8958,7 @@
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9056,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9133,7 +9133,7 @@
         <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9142,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9228,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9302,7 +9302,7 @@
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
         <v>41</v>
@@ -9400,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9477,7 +9477,7 @@
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9572,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9646,10 +9646,10 @@
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9744,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9821,7 +9821,7 @@
         <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
         <v>41</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9990,7 +9990,7 @@
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
         <v>36</v>
@@ -10076,7 +10076,7 @@
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
         <v>35</v>
@@ -10165,7 +10165,7 @@
         <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10334,10 +10334,10 @@
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" t="s">
         <v>40</v>
-      </c>
-      <c r="F115" t="s">
-        <v>39</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10432,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10509,7 +10509,7 @@
         <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10592,7 +10592,7 @@
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -10681,7 +10681,7 @@
         <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10850,7 +10850,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
         <v>38</v>
@@ -10936,11 +10936,11 @@
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" t="s">
         <v>33</v>
       </c>
-      <c r="F122" t="s">
-        <v>34</v>
-      </c>
       <c r="G122">
         <v>1</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11111,7 +11111,7 @@
         <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11206,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11280,7 +11280,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
         <v>38</v>
@@ -11366,7 +11366,7 @@
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
         <v>37</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11455,7 +11455,7 @@
         <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11624,7 +11624,7 @@
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
         <v>35</v>
@@ -11636,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11713,7 +11713,7 @@
         <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11799,7 +11799,7 @@
         <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11882,7 +11882,7 @@
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
         <v>36</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11968,10 +11968,10 @@
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12066,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12229,7 +12229,7 @@
         <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12238,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12324,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12484,7 +12484,7 @@
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
         <v>41</v>
@@ -12496,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12570,10 +12570,10 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12582,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12656,10 +12656,10 @@
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12745,7 +12745,7 @@
         <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12754,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12828,7 +12828,7 @@
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
         <v>42</v>
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13098,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13172,10 +13172,10 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13258,7 +13258,7 @@
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
         <v>35</v>
@@ -13344,7 +13344,7 @@
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
         <v>38</v>
@@ -13356,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13519,7 +13519,7 @@
         <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13528,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13602,7 +13602,7 @@
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
         <v>35</v>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13691,7 +13691,7 @@
         <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13786,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13860,7 +13860,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
         <v>42</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13949,7 +13949,7 @@
         <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13958,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14035,7 +14035,7 @@
         <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14118,7 +14118,7 @@
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
         <v>36</v>
@@ -14145,19 +14145,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q159">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
         <v>2.25</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
         <v>0</v>
@@ -14183,10 +14183,10 @@
         <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s">
         <v>39</v>
-      </c>
-      <c r="F160" t="s">
-        <v>40</v>
       </c>
       <c r="J160">
         <v>3.25</v>
@@ -14219,10 +14219,10 @@
         <v>2.75</v>
       </c>
       <c r="T160">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>1.909</v>
       </c>
       <c r="N161">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O161">
         <v>3.8</v>
@@ -14275,19 +14275,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U161">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V161">
         <v>0</v>
@@ -14349,10 +14349,10 @@
         <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>45411.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
         <v>37</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -97,15 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7021641</t>
-  </si>
-  <si>
-    <t>7021989</t>
-  </si>
-  <si>
-    <t>7060570</t>
-  </si>
-  <si>
     <t>7021640</t>
   </si>
   <si>
@@ -115,10 +106,10 @@
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -145,10 +136,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -513,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB163"/>
+  <dimension ref="A1:AB160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,85 +598,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -693,85 +684,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>1.8</v>
+      </c>
+      <c r="K3">
+        <v>3.5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2.05</v>
+      </c>
+      <c r="N3">
         <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>3.3</v>
-      </c>
-      <c r="L3">
-        <v>3.4</v>
-      </c>
-      <c r="M3">
-        <v>1.909</v>
-      </c>
-      <c r="N3">
-        <v>3.4</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
+        <v>-0.25</v>
+      </c>
+      <c r="Q3">
+        <v>1.75</v>
+      </c>
+      <c r="R3">
+        <v>2.05</v>
+      </c>
+      <c r="S3">
+        <v>2.25</v>
+      </c>
+      <c r="T3">
+        <v>1.95</v>
+      </c>
+      <c r="U3">
+        <v>1.85</v>
+      </c>
+      <c r="V3">
+        <v>1.05</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>-0.5</v>
       </c>
-      <c r="Q3">
-        <v>1.95</v>
-      </c>
-      <c r="R3">
-        <v>1.85</v>
-      </c>
-      <c r="S3">
-        <v>2.5</v>
-      </c>
-      <c r="T3">
-        <v>1.9</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
-      <c r="V3">
-        <v>-1</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <v>2.75</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA3">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -782,17 +773,17 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -800,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -868,16 +859,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -954,16 +945,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -972,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1040,16 +1031,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1126,16 +1117,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1144,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1212,16 +1203,16 @@
         <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1230,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>1.363</v>
@@ -1298,16 +1289,16 @@
         <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1316,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2.35</v>
@@ -1384,16 +1375,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1402,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1470,16 +1461,16 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1488,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1556,16 +1547,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1574,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1642,16 +1633,16 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1660,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1728,25 +1719,25 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1814,16 +1805,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1832,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1900,16 +1891,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1918,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1986,16 +1977,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2004,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2072,16 +2063,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2090,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2158,25 +2149,25 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2244,25 +2235,25 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2330,16 +2321,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2348,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2416,16 +2407,16 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2434,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2502,16 +2493,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2520,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2588,16 +2579,16 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2674,16 +2665,16 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2692,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2760,25 +2751,25 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
         <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>44</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2846,25 +2837,25 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2932,25 +2923,25 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>41</v>
-      </c>
-      <c r="F29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>43</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3018,16 +3009,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3036,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3104,16 +3095,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3122,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3190,16 +3181,16 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3208,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3276,16 +3267,16 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3362,16 +3353,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3380,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3448,16 +3439,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3466,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3534,16 +3525,16 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3552,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3620,16 +3611,16 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3638,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3706,16 +3697,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3724,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3792,25 +3783,25 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
         <v>41</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>43</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3878,16 +3869,16 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3896,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3964,16 +3955,16 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3982,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4050,16 +4041,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4068,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4136,25 +4127,25 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
         <v>40</v>
-      </c>
-      <c r="F43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>44</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4222,16 +4213,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4240,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4308,16 +4299,16 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4326,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4394,16 +4385,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4412,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4480,16 +4471,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4498,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4566,16 +4557,16 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4584,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4652,16 +4643,16 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4670,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4738,16 +4729,16 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4824,25 +4815,25 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>41</v>
-      </c>
-      <c r="F51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>43</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4910,16 +4901,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4928,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4996,16 +4987,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5014,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5082,16 +5073,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5100,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5168,16 +5159,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5186,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5254,16 +5245,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5272,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5340,25 +5331,25 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
         <v>40</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>44</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5426,16 +5417,16 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5512,16 +5503,16 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5530,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5598,16 +5589,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5616,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5684,16 +5675,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5702,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5770,16 +5761,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5788,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5856,17 +5847,17 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
         <v>39</v>
       </c>
-      <c r="F63" t="s">
-        <v>42</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
@@ -5874,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5942,16 +5933,16 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5960,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6028,16 +6019,16 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6046,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6114,16 +6105,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6132,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6200,17 +6191,17 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
         <v>34</v>
       </c>
-      <c r="F67" t="s">
-        <v>37</v>
-      </c>
       <c r="G67">
         <v>1</v>
       </c>
@@ -6218,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6286,25 +6277,25 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
         <v>40</v>
-      </c>
-      <c r="F68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>44</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6372,17 +6363,17 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
         <v>33</v>
       </c>
-      <c r="F69" t="s">
-        <v>36</v>
-      </c>
       <c r="G69">
         <v>0</v>
       </c>
@@ -6390,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6458,16 +6449,16 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6476,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6544,16 +6535,16 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6562,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6630,16 +6621,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6648,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6716,25 +6707,25 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
         <v>40</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>44</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6802,16 +6793,16 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6820,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6888,16 +6879,16 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6974,25 +6965,25 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
         <v>40</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>44</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7060,16 +7051,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7078,7 +7069,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7146,16 +7137,16 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7164,7 +7155,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7232,16 +7223,16 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7250,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7318,16 +7309,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7336,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7404,16 +7395,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7422,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7490,16 +7481,16 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7508,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7576,16 +7567,16 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7594,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7662,16 +7653,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7680,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7748,16 +7739,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
         <v>37</v>
-      </c>
-      <c r="F85" t="s">
-        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7766,7 +7757,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7834,16 +7825,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7852,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7920,16 +7911,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7938,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8006,16 +7997,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8024,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8092,16 +8083,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8110,7 +8101,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8178,16 +8169,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8196,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8264,16 +8255,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8282,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8350,16 +8341,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8368,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8436,17 +8427,17 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
         <v>36</v>
       </c>
-      <c r="F93" t="s">
-        <v>39</v>
-      </c>
       <c r="G93">
         <v>2</v>
       </c>
@@ -8454,7 +8445,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8522,16 +8513,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8540,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8608,25 +8599,25 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
         <v>42</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>2</v>
-      </c>
-      <c r="I95" t="s">
-        <v>45</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8694,16 +8685,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8780,16 +8771,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8798,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8866,16 +8857,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8884,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8952,16 +8943,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8970,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9038,16 +9029,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9056,7 +9047,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9124,16 +9115,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9142,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9210,16 +9201,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9228,7 +9219,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9296,16 +9287,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9314,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9382,16 +9373,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9400,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9468,16 +9459,16 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9486,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9554,16 +9545,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9572,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9640,16 +9631,16 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9658,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9726,16 +9717,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9744,7 +9735,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9812,25 +9803,25 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
         <v>42</v>
-      </c>
-      <c r="F109" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>45</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9898,25 +9889,25 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
         <v>41</v>
-      </c>
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>43</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9984,16 +9975,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10002,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10070,16 +10061,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10088,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10156,16 +10147,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10174,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10242,17 +10233,17 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>38</v>
       </c>
-      <c r="F114" t="s">
-        <v>41</v>
-      </c>
       <c r="G114">
         <v>1</v>
       </c>
@@ -10260,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10328,16 +10319,16 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10346,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10414,16 +10405,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10432,7 +10423,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10500,16 +10491,16 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10518,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10586,16 +10577,16 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10604,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10672,16 +10663,16 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10690,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10758,16 +10749,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10776,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10844,16 +10835,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10862,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10930,16 +10921,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10948,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11016,16 +11007,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11034,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11102,16 +11093,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11120,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11188,16 +11179,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11206,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11274,16 +11265,16 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11292,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11360,16 +11351,16 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11378,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11446,25 +11437,25 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
         <v>42</v>
-      </c>
-      <c r="F128" t="s">
-        <v>34</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>45</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11532,25 +11523,25 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" t="s">
         <v>41</v>
-      </c>
-      <c r="F129" t="s">
-        <v>36</v>
-      </c>
-      <c r="G129">
-        <v>2</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129" t="s">
-        <v>43</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11618,16 +11609,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11636,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11704,16 +11695,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11790,16 +11781,16 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11808,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11876,16 +11867,16 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11894,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11962,16 +11953,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11971,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12048,16 +12039,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12066,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12134,16 +12125,16 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12152,7 +12143,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12220,16 +12211,16 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12238,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12306,16 +12297,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12324,7 +12315,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12392,16 +12383,16 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12410,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12478,16 +12469,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12496,7 +12487,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12564,16 +12555,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12650,16 +12641,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12668,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12736,25 +12727,25 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143" t="s">
         <v>41</v>
-      </c>
-      <c r="F143" t="s">
-        <v>33</v>
-      </c>
-      <c r="G143">
-        <v>2</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143" t="s">
-        <v>43</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12822,25 +12813,25 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144" t="s">
         <v>40</v>
-      </c>
-      <c r="F144" t="s">
-        <v>42</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144" t="s">
-        <v>44</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12908,16 +12899,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12926,7 +12917,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12994,16 +12985,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13012,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13080,16 +13071,16 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13098,7 +13089,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13166,16 +13157,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13184,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13252,16 +13243,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13338,16 +13329,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13356,7 +13347,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13424,16 +13415,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13442,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13510,16 +13501,16 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13528,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13596,16 +13587,16 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13614,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13682,16 +13673,16 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13768,16 +13759,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13786,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13854,16 +13845,16 @@
         <v>6994933</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" t="s">
         <v>39</v>
-      </c>
-      <c r="F156" t="s">
-        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13872,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13940,16 +13931,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13958,7 +13949,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14026,16 +14017,16 @@
         <v>6994888</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45403.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14044,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14112,46 +14103,46 @@
         <v>27</v>
       </c>
       <c r="C159" t="s">
+        <v>29</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="2">
-        <v>45409.52083333334</v>
-      </c>
-      <c r="E159" t="s">
-        <v>33</v>
-      </c>
-      <c r="F159" t="s">
-        <v>36</v>
-      </c>
       <c r="J159">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K159">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L159">
+        <v>2.5</v>
+      </c>
+      <c r="M159">
+        <v>2.4</v>
+      </c>
+      <c r="N159">
         <v>3.1</v>
       </c>
-      <c r="M159">
-        <v>2.15</v>
-      </c>
-      <c r="N159">
-        <v>3.5</v>
-      </c>
       <c r="O159">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q159">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S159">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T159">
         <v>1.925</v>
@@ -14177,53 +14168,53 @@
         <v>28</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
-        <v>45409.63541666666</v>
+        <v>45411.52083333334</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J160">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="K160">
         <v>3.25</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="M160">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N160">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T160">
+        <v>1.875</v>
+      </c>
+      <c r="U160">
         <v>1.925</v>
       </c>
-      <c r="U160">
-        <v>1.875</v>
-      </c>
       <c r="V160">
         <v>0</v>
       </c>
@@ -14231,201 +14222,6 @@
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>29</v>
-      </c>
-      <c r="C161" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="2">
-        <v>45410.41666666666</v>
-      </c>
-      <c r="E161" t="s">
-        <v>41</v>
-      </c>
-      <c r="F161" t="s">
-        <v>38</v>
-      </c>
-      <c r="J161">
-        <v>1.909</v>
-      </c>
-      <c r="K161">
-        <v>3.25</v>
-      </c>
-      <c r="L161">
-        <v>3.5</v>
-      </c>
-      <c r="M161">
-        <v>1.909</v>
-      </c>
-      <c r="N161">
-        <v>3.3</v>
-      </c>
-      <c r="O161">
-        <v>3.8</v>
-      </c>
-      <c r="P161">
-        <v>-0.5</v>
-      </c>
-      <c r="Q161">
-        <v>1.95</v>
-      </c>
-      <c r="R161">
-        <v>1.85</v>
-      </c>
-      <c r="S161">
-        <v>2.5</v>
-      </c>
-      <c r="T161">
-        <v>1.8</v>
-      </c>
-      <c r="U161">
-        <v>2</v>
-      </c>
-      <c r="V161">
-        <v>0</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>30</v>
-      </c>
-      <c r="C162" t="s">
-        <v>32</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45410.52083333334</v>
-      </c>
-      <c r="E162" t="s">
-        <v>42</v>
-      </c>
-      <c r="F162" t="s">
-        <v>35</v>
-      </c>
-      <c r="J162">
-        <v>2.5</v>
-      </c>
-      <c r="K162">
-        <v>3.2</v>
-      </c>
-      <c r="L162">
-        <v>2.5</v>
-      </c>
-      <c r="M162">
-        <v>2.6</v>
-      </c>
-      <c r="N162">
-        <v>3.2</v>
-      </c>
-      <c r="O162">
-        <v>2.6</v>
-      </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-      <c r="Q162">
-        <v>1.9</v>
-      </c>
-      <c r="R162">
-        <v>1.9</v>
-      </c>
-      <c r="S162">
-        <v>2.75</v>
-      </c>
-      <c r="T162">
-        <v>1.975</v>
-      </c>
-      <c r="U162">
-        <v>1.825</v>
-      </c>
-      <c r="V162">
-        <v>0</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="X162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>31</v>
-      </c>
-      <c r="C163" t="s">
-        <v>32</v>
-      </c>
-      <c r="D163" s="2">
-        <v>45411.52083333334</v>
-      </c>
-      <c r="E163" t="s">
-        <v>34</v>
-      </c>
-      <c r="F163" t="s">
-        <v>37</v>
-      </c>
-      <c r="J163">
-        <v>2.25</v>
-      </c>
-      <c r="K163">
-        <v>3.25</v>
-      </c>
-      <c r="L163">
-        <v>2.75</v>
-      </c>
-      <c r="M163">
-        <v>1.95</v>
-      </c>
-      <c r="N163">
-        <v>3.4</v>
-      </c>
-      <c r="O163">
-        <v>3.6</v>
-      </c>
-      <c r="P163">
-        <v>-0.5</v>
-      </c>
-      <c r="Q163">
-        <v>2</v>
-      </c>
-      <c r="R163">
-        <v>1.8</v>
-      </c>
-      <c r="S163">
-        <v>2.5</v>
-      </c>
-      <c r="T163">
-        <v>1.9</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>0</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="X163">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -97,22 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7021640</t>
-  </si>
-  <si>
     <t>7021642</t>
   </si>
   <si>
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>FC Koper</t>
   </si>
   <si>
     <t>NK Bravo</t>
   </si>
   <si>
-    <t>FC Koper</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>NK Radomlje</t>
@@ -136,10 +133,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -504,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB160"/>
+  <dimension ref="A1:AB161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,82 +595,82 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6814324</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45129.63541666666</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
-        <v>45129.52083333334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K2">
         <v>3.3</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="M2">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="P2">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
         <v>2.5</v>
       </c>
       <c r="T2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -687,25 +684,25 @@
         <v>6816473</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -770,82 +767,82 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6814324</v>
+        <v>6814327</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
-        <v>45129.63541666666</v>
+        <v>45129.52083333334</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>3.3</v>
       </c>
       <c r="L4">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
         <v>2.5</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -859,16 +856,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -945,16 +942,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -963,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1031,17 +1028,17 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1117,16 +1114,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1203,16 +1200,16 @@
         <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <v>1.363</v>
@@ -1289,16 +1286,16 @@
         <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1307,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>2.35</v>
@@ -1375,16 +1372,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1393,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1461,16 +1458,16 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1479,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1547,16 +1544,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1630,67 +1627,67 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6814337</v>
+        <v>6816470</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>45151.52083333334</v>
+        <v>45151.63541666666</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="K14">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="L14">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O14">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T14">
+        <v>1.95</v>
+      </c>
+      <c r="U14">
         <v>1.85</v>
       </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
       <c r="V14">
-        <v>0.571</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1699,16 +1696,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1716,67 +1713,67 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6816470</v>
+        <v>6814337</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>45151.63541666666</v>
+        <v>45151.52083333334</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>39</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
       <c r="J15">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="K15">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="M15">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="N15">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O15">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="P15">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q15">
+        <v>1.975</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>2.5</v>
+      </c>
+      <c r="T15">
         <v>1.85</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>1.95</v>
       </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>1.95</v>
-      </c>
-      <c r="U15">
-        <v>1.85</v>
-      </c>
       <c r="V15">
-        <v>0.3999999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1785,16 +1782,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1805,16 +1802,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1891,16 +1888,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1977,16 +1974,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2063,16 +2060,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
         <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2146,58 +2143,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6816469</v>
+        <v>6814343</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
-        <v>45158.52083333334</v>
+        <v>45158.63541666666</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L20">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N20">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O20">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T20">
         <v>1.975</v>
@@ -2209,16 +2206,16 @@
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
         <v>0.9750000000000001</v>
@@ -2232,58 +2229,58 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6814343</v>
+        <v>6816469</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
-        <v>45158.63541666666</v>
+        <v>45158.52083333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="K21">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M21">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O21">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="P21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T21">
         <v>1.975</v>
@@ -2295,16 +2292,16 @@
         <v>-1</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X21">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z21">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>0.9750000000000001</v>
@@ -2321,16 +2318,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2407,17 +2404,17 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
       <c r="G23">
         <v>1</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2490,64 +2487,64 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6814344</v>
+        <v>7096893</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
-        <v>45165.52083333334</v>
+        <v>45165.63541666666</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24">
+        <v>2.625</v>
+      </c>
+      <c r="K24">
+        <v>3.1</v>
+      </c>
+      <c r="L24">
+        <v>2.55</v>
+      </c>
+      <c r="M24">
+        <v>2.7</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>2.55</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.95</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>2.25</v>
       </c>
-      <c r="K24">
-        <v>3.4</v>
-      </c>
-      <c r="L24">
-        <v>2.7</v>
-      </c>
-      <c r="M24">
-        <v>2.1</v>
-      </c>
-      <c r="N24">
-        <v>3.5</v>
-      </c>
-      <c r="O24">
-        <v>2.9</v>
-      </c>
-      <c r="P24">
-        <v>-0.25</v>
-      </c>
-      <c r="Q24">
-        <v>1.925</v>
-      </c>
-      <c r="R24">
-        <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>2.5</v>
-      </c>
       <c r="T24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V24">
         <v>-1</v>
@@ -2556,16 +2553,16 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB24">
         <v>-1</v>
@@ -2576,64 +2573,64 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7096893</v>
+        <v>6814344</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>45165.63541666666</v>
+        <v>45165.52083333334</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L25">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T25">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U25">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
         <v>-1</v>
@@ -2642,16 +2639,16 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA25">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
         <v>-1</v>
@@ -2665,16 +2662,16 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2683,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2751,16 +2748,16 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2834,85 +2831,85 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6816467</v>
+        <v>6814349</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
-        <v>45172.41666666666</v>
+        <v>45172.63541666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J28">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="K28">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="M28">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q28">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
         <v>2.75</v>
       </c>
       <c r="T28">
+        <v>1.825</v>
+      </c>
+      <c r="U28">
         <v>1.975</v>
       </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2923,16 +2920,16 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3006,85 +3003,85 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6814349</v>
+        <v>6816467</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>45172.63541666666</v>
+        <v>45172.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O30">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="P30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
         <v>2.75</v>
       </c>
       <c r="T30">
+        <v>1.975</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.825</v>
-      </c>
-      <c r="AB30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3095,16 +3092,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3181,17 +3178,17 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -3199,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3267,17 +3264,17 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
       <c r="G33">
         <v>2</v>
       </c>
@@ -3285,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3353,16 +3350,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3371,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3439,16 +3436,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3525,16 +3522,16 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3543,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3608,58 +3605,58 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6814356</v>
+        <v>6814358</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>45192.33333333334</v>
+        <v>45192.52083333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J37">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="K37">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="M37">
-        <v>3.8</v>
+        <v>1.45</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O37">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="P37">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q37">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T37">
         <v>1.875</v>
@@ -3668,7 +3665,7 @@
         <v>1.925</v>
       </c>
       <c r="V37">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3677,16 +3674,16 @@
         <v>-1</v>
       </c>
       <c r="Y37">
+        <v>-0.5</v>
+      </c>
+      <c r="Z37">
+        <v>0.3875</v>
+      </c>
+      <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
         <v>0.925</v>
-      </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>0.875</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3697,16 +3694,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3780,58 +3777,58 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6814358</v>
+        <v>6814356</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
-        <v>45192.52083333334</v>
+        <v>45192.33333333334</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J39">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L39">
-        <v>8.5</v>
+        <v>1.833</v>
       </c>
       <c r="M39">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="N39">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="O39">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="P39">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T39">
         <v>1.875</v>
@@ -3840,7 +3837,7 @@
         <v>1.925</v>
       </c>
       <c r="V39">
-        <v>0.45</v>
+        <v>2.8</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3849,16 +3846,16 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z39">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -3869,16 +3866,16 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3955,25 +3952,25 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
         <v>39</v>
-      </c>
-      <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>41</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4041,16 +4038,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4127,16 +4124,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4213,16 +4210,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4231,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4299,16 +4296,16 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4317,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4385,16 +4382,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4403,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4471,16 +4468,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4554,49 +4551,49 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6816463</v>
+        <v>6814366</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
-        <v>45200.41666666666</v>
+        <v>45200.63541666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
         <v>35</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L48">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="M48">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N48">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O48">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q48">
         <v>1.9</v>
@@ -4608,31 +4605,31 @@
         <v>2.75</v>
       </c>
       <c r="T48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4640,85 +4637,85 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6814367</v>
+        <v>6816463</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
-        <v>45200.52083333334</v>
+        <v>45200.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J49">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L49">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N49">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O49">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="P49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q49">
+        <v>1.9</v>
+      </c>
+      <c r="R49">
+        <v>1.9</v>
+      </c>
+      <c r="S49">
+        <v>2.75</v>
+      </c>
+      <c r="T49">
+        <v>1.925</v>
+      </c>
+      <c r="U49">
         <v>1.875</v>
       </c>
-      <c r="R49">
-        <v>1.925</v>
-      </c>
-      <c r="S49">
-        <v>2.5</v>
-      </c>
-      <c r="T49">
-        <v>1.95</v>
-      </c>
-      <c r="U49">
-        <v>1.85</v>
-      </c>
       <c r="V49">
         <v>-1</v>
       </c>
       <c r="W49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y49">
+        <v>-1</v>
+      </c>
+      <c r="Z49">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.875</v>
-      </c>
-      <c r="Z49">
-        <v>-1</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4726,76 +4723,76 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6814366</v>
+        <v>6814367</v>
       </c>
       <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45200.52083333334</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="2">
-        <v>45200.63541666666</v>
-      </c>
-      <c r="E50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
-      </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="s">
         <v>41</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K50">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L50">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O50">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="P50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q50">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V50">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z50">
         <v>-1</v>
@@ -4804,7 +4801,7 @@
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4815,16 +4812,16 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4833,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4901,16 +4898,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4919,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4984,67 +4981,67 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6816462</v>
+        <v>6814369</v>
       </c>
       <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45207.63541666666</v>
+      </c>
+      <c r="E53" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="2">
-        <v>45207.41666666666</v>
-      </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
       <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>39</v>
       </c>
-      <c r="G53">
-        <v>3</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>41</v>
-      </c>
       <c r="J53">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L53">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N53">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O53">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q53">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T53">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5053,13 +5050,13 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5073,16 +5070,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5156,67 +5153,67 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6814369</v>
+        <v>6816462</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
-        <v>45207.63541666666</v>
+        <v>45207.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J55">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L55">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M55">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N55">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5225,13 +5222,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5245,16 +5242,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5331,16 +5328,16 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5414,85 +5411,85 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6814373</v>
+        <v>6814375</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
-        <v>45221.41666666666</v>
+        <v>45221.52083333334</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J58">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="K58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L58">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O58">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="P58">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
+        <v>1.975</v>
+      </c>
+      <c r="R58">
         <v>1.825</v>
       </c>
-      <c r="R58">
+      <c r="S58">
+        <v>2.75</v>
+      </c>
+      <c r="T58">
         <v>1.975</v>
       </c>
-      <c r="S58">
-        <v>2.5</v>
-      </c>
-      <c r="T58">
-        <v>1.85</v>
-      </c>
       <c r="U58">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>0.825</v>
       </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5500,85 +5497,85 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6814375</v>
+        <v>6814374</v>
       </c>
       <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45221.63541666666</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="2">
-        <v>45221.52083333334</v>
-      </c>
-      <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" t="s">
-        <v>33</v>
-      </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K59">
         <v>3.4</v>
       </c>
       <c r="L59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>3.4</v>
       </c>
       <c r="O59">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X59">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5586,82 +5583,82 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6814374</v>
+        <v>6814373</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
-        <v>45221.63541666666</v>
+        <v>45221.41666666666</v>
       </c>
       <c r="E60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J60">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="K60">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L60">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N60">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O60">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P60">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q60">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S60">
         <v>2.5</v>
       </c>
       <c r="T60">
+        <v>1.85</v>
+      </c>
+      <c r="U60">
         <v>1.95</v>
       </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
       <c r="V60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W60">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
         <v>-1</v>
@@ -5675,16 +5672,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5693,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5761,16 +5758,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5847,25 +5844,25 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>39</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>41</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5930,85 +5927,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6814377</v>
+        <v>6814376</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
-        <v>45228.45833333334</v>
+        <v>45228.5625</v>
       </c>
       <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
         <v>33</v>
       </c>
-      <c r="F64" t="s">
-        <v>30</v>
-      </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J64">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="K64">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="L64">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="M64">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N64">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
         <v>-1</v>
       </c>
       <c r="W64">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6016,85 +6013,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6814376</v>
+        <v>6814377</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
-        <v>45228.5625</v>
+        <v>45228.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J65">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="K65">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L65">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="M65">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N65">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O65">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="P65">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
         <v>-1</v>
       </c>
       <c r="W65">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6105,16 +6102,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6188,85 +6185,85 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6814383</v>
+        <v>6814381</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
-        <v>45234.45833333334</v>
+        <v>45234.5625</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J67">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="K67">
         <v>3.5</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>1.952</v>
       </c>
       <c r="M67">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="N67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T67">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB67">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6274,85 +6271,85 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6814381</v>
+        <v>6814383</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
-        <v>45234.5625</v>
+        <v>45234.45833333334</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="K68">
         <v>3.5</v>
       </c>
       <c r="L68">
-        <v>1.952</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
+        <v>2.05</v>
+      </c>
+      <c r="N68">
+        <v>3.25</v>
+      </c>
+      <c r="O68">
         <v>3.4</v>
       </c>
-      <c r="N68">
-        <v>3.5</v>
-      </c>
-      <c r="O68">
-        <v>1.95</v>
-      </c>
       <c r="P68">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T68">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6360,25 +6357,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6814382</v>
+        <v>7409831</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
-        <v>45235.375</v>
+        <v>45235.45833333334</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>40</v>
@@ -6387,37 +6384,37 @@
         <v>2.05</v>
       </c>
       <c r="K69">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M69">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N69">
+        <v>3.5</v>
+      </c>
+      <c r="O69">
         <v>3.4</v>
-      </c>
-      <c r="O69">
-        <v>3.5</v>
       </c>
       <c r="P69">
         <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S69">
         <v>2.5</v>
       </c>
       <c r="T69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V69">
         <v>-1</v>
@@ -6426,19 +6423,19 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6446,25 +6443,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7409831</v>
+        <v>6814382</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
-        <v>45235.45833333334</v>
+        <v>45235.375</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
         <v>40</v>
@@ -6473,37 +6470,37 @@
         <v>2.05</v>
       </c>
       <c r="K70">
+        <v>3.3</v>
+      </c>
+      <c r="L70">
+        <v>3.25</v>
+      </c>
+      <c r="M70">
+        <v>1.95</v>
+      </c>
+      <c r="N70">
+        <v>3.4</v>
+      </c>
+      <c r="O70">
         <v>3.5</v>
-      </c>
-      <c r="L70">
-        <v>3.1</v>
-      </c>
-      <c r="M70">
-        <v>1.909</v>
-      </c>
-      <c r="N70">
-        <v>3.5</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
       </c>
       <c r="P70">
         <v>-0.5</v>
       </c>
       <c r="Q70">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
         <v>2.5</v>
       </c>
       <c r="T70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
         <v>-1</v>
@@ -6512,19 +6509,19 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -6535,16 +6532,16 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6618,58 +6615,58 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6816458</v>
+        <v>6814386</v>
       </c>
       <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45241.5625</v>
+      </c>
+      <c r="E72" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="2">
-        <v>45241.45833333334</v>
-      </c>
-      <c r="E72" t="s">
-        <v>33</v>
-      </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
         <v>40</v>
       </c>
       <c r="J72">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N72">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T72">
         <v>1.925</v>
@@ -6684,19 +6681,19 @@
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -6704,58 +6701,58 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6814386</v>
+        <v>6816458</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
-        <v>45241.5625</v>
+        <v>45241.45833333334</v>
       </c>
       <c r="E73" t="s">
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
         <v>40</v>
       </c>
       <c r="J73">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="K73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
+        <v>3.5</v>
+      </c>
+      <c r="M73">
+        <v>1.8</v>
+      </c>
+      <c r="N73">
+        <v>3.4</v>
+      </c>
+      <c r="O73">
         <v>4</v>
       </c>
-      <c r="M73">
-        <v>1.666</v>
-      </c>
-      <c r="N73">
-        <v>3.75</v>
-      </c>
-      <c r="O73">
-        <v>4.333</v>
-      </c>
       <c r="P73">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q73">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T73">
         <v>1.925</v>
@@ -6770,19 +6767,19 @@
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA73">
         <v>0.925</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6793,16 +6790,16 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6879,16 +6876,16 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6897,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6965,16 +6962,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7051,16 +7048,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7137,16 +7134,16 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7223,16 +7220,16 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7241,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7309,16 +7306,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7395,16 +7392,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7413,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7478,67 +7475,67 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6814391</v>
+        <v>6814388</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
-        <v>45263.375</v>
+        <v>45263.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J82">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K82">
+        <v>3.4</v>
+      </c>
+      <c r="L82">
+        <v>2.875</v>
+      </c>
+      <c r="M82">
+        <v>2.55</v>
+      </c>
+      <c r="N82">
         <v>3.2</v>
       </c>
-      <c r="L82">
-        <v>3.2</v>
-      </c>
-      <c r="M82">
-        <v>2.3</v>
-      </c>
-      <c r="N82">
-        <v>3.1</v>
-      </c>
       <c r="O82">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P82">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7547,16 +7544,16 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7564,67 +7561,67 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6814388</v>
+        <v>6814391</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
-        <v>45263.45833333334</v>
+        <v>45263.375</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83">
+        <v>2.15</v>
+      </c>
+      <c r="K83">
+        <v>3.2</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.3</v>
+      </c>
+      <c r="N83">
+        <v>3.1</v>
+      </c>
+      <c r="O83">
         <v>3</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
-        <v>41</v>
-      </c>
-      <c r="J83">
-        <v>2.2</v>
-      </c>
-      <c r="K83">
-        <v>3.4</v>
-      </c>
-      <c r="L83">
-        <v>2.875</v>
-      </c>
-      <c r="M83">
-        <v>2.55</v>
-      </c>
-      <c r="N83">
-        <v>3.2</v>
-      </c>
-      <c r="O83">
-        <v>2.55</v>
-      </c>
       <c r="P83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7633,16 +7630,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7653,16 +7650,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7739,16 +7736,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7825,16 +7822,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7843,7 +7840,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7911,16 +7908,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7929,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7997,16 +7994,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8015,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8083,16 +8080,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8169,16 +8166,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8187,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8255,16 +8252,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8341,16 +8338,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8359,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8427,16 +8424,16 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8442,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8513,16 +8510,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8599,16 +8596,16 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8617,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8685,16 +8682,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8771,16 +8768,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="s">
         <v>32</v>
-      </c>
-      <c r="F97" t="s">
-        <v>33</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8857,16 +8854,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8875,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8943,16 +8940,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8961,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9029,16 +9026,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9112,82 +9109,82 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7680775</v>
+        <v>7680774</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
-        <v>45339.375</v>
+        <v>45339.45833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J101">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K101">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
+        <v>1.615</v>
+      </c>
+      <c r="M101">
+        <v>5.25</v>
+      </c>
+      <c r="N101">
+        <v>3.75</v>
+      </c>
+      <c r="O101">
+        <v>1.571</v>
+      </c>
+      <c r="P101">
+        <v>0.75</v>
+      </c>
+      <c r="Q101">
+        <v>2.025</v>
+      </c>
+      <c r="R101">
+        <v>1.775</v>
+      </c>
+      <c r="S101">
+        <v>2.5</v>
+      </c>
+      <c r="T101">
+        <v>1.85</v>
+      </c>
+      <c r="U101">
         <v>1.95</v>
       </c>
-      <c r="M101">
-        <v>3.3</v>
-      </c>
-      <c r="N101">
-        <v>3.2</v>
-      </c>
-      <c r="O101">
-        <v>2.1</v>
-      </c>
-      <c r="P101">
-        <v>0.25</v>
-      </c>
-      <c r="Q101">
-        <v>1.975</v>
-      </c>
-      <c r="R101">
-        <v>1.825</v>
-      </c>
-      <c r="S101">
-        <v>2.75</v>
-      </c>
-      <c r="T101">
-        <v>2.05</v>
-      </c>
-      <c r="U101">
-        <v>1.75</v>
-      </c>
       <c r="V101">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
         <v>-1</v>
@@ -9198,82 +9195,82 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7680774</v>
+        <v>7680775</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
-        <v>45339.45833333334</v>
+        <v>45339.375</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J102">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K102">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="M102">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N102">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O102">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P102">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T102">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB102">
         <v>-1</v>
@@ -9287,16 +9284,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9305,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9373,16 +9370,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" t="s">
         <v>33</v>
-      </c>
-      <c r="F104" t="s">
-        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9459,16 +9456,16 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9542,67 +9539,67 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6816452</v>
+        <v>6814409</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
-        <v>45344.45833333334</v>
+        <v>45344.5625</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
         <v>39</v>
       </c>
-      <c r="G106">
-        <v>4</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
-        <v>41</v>
-      </c>
       <c r="J106">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="K106">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="L106">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="M106">
-        <v>1.222</v>
+        <v>1.571</v>
       </c>
       <c r="N106">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="O106">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P106">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q106">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>0.222</v>
+        <v>0.571</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9611,13 +9608,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9628,67 +9625,67 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6814409</v>
+        <v>6816452</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
-        <v>45344.5625</v>
+        <v>45344.45833333334</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J107">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="K107">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="L107">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="M107">
-        <v>1.571</v>
+        <v>1.222</v>
       </c>
       <c r="N107">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P107">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q107">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>0.571</v>
+        <v>0.222</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -9697,13 +9694,13 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB107">
         <v>-1</v>
@@ -9717,16 +9714,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" t="s">
         <v>34</v>
-      </c>
-      <c r="F108" t="s">
-        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9803,16 +9800,16 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9821,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9889,17 +9886,17 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" t="s">
         <v>37</v>
       </c>
-      <c r="F110" t="s">
-        <v>38</v>
-      </c>
       <c r="G110">
         <v>2</v>
       </c>
@@ -9907,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9975,16 +9972,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10061,16 +10058,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10147,16 +10144,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10165,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10230,85 +10227,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6814416</v>
+        <v>6814417</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
-        <v>45353.45833333334</v>
+        <v>45353.5625</v>
       </c>
       <c r="E114" t="s">
         <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J114">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="K114">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N114">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O114">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q114">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T114">
+        <v>1.975</v>
+      </c>
+      <c r="U114">
         <v>1.825</v>
       </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
       <c r="V114">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W114">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10316,85 +10313,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6814417</v>
+        <v>6814416</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
-        <v>45353.5625</v>
+        <v>45353.45833333334</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
         <v>37</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
         <v>41</v>
       </c>
       <c r="J115">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M115">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N115">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O115">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="P115">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
+        <v>1.825</v>
+      </c>
+      <c r="U115">
         <v>1.975</v>
       </c>
-      <c r="U115">
-        <v>1.825</v>
-      </c>
       <c r="V115">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,64 +10399,64 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6816450</v>
+        <v>6814418</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
-        <v>45354.45833333334</v>
+        <v>45354.5625</v>
       </c>
       <c r="E116" t="s">
         <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
         <v>40</v>
       </c>
       <c r="J116">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="K116">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="L116">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M116">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="N116">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P116">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R116">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T116">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
         <v>-1</v>
@@ -10468,19 +10465,19 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10488,64 +10485,64 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6814418</v>
+        <v>6816450</v>
       </c>
       <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="E117" t="s">
         <v>29</v>
       </c>
-      <c r="D117" s="2">
-        <v>45354.5625</v>
-      </c>
-      <c r="E117" t="s">
-        <v>33</v>
-      </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="s">
         <v>40</v>
       </c>
       <c r="J117">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="K117">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L117">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="M117">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="N117">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O117">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q117">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T117">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V117">
         <v>-1</v>
@@ -10554,19 +10551,19 @@
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB117">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10574,49 +10571,49 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6814421</v>
+        <v>6814423</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
-        <v>45360.45833333334</v>
+        <v>45360.5625</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J118">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K118">
+        <v>3.3</v>
+      </c>
+      <c r="L118">
         <v>3.5</v>
       </c>
-      <c r="L118">
-        <v>5</v>
-      </c>
       <c r="M118">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="N118">
+        <v>3.4</v>
+      </c>
+      <c r="O118">
         <v>3.8</v>
       </c>
-      <c r="O118">
-        <v>6.5</v>
-      </c>
       <c r="P118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q118">
         <v>1.85</v>
@@ -10628,16 +10625,16 @@
         <v>2.5</v>
       </c>
       <c r="T118">
+        <v>1.85</v>
+      </c>
+      <c r="U118">
         <v>1.95</v>
       </c>
-      <c r="U118">
-        <v>1.85</v>
-      </c>
       <c r="V118">
         <v>-1</v>
       </c>
       <c r="W118">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -10652,7 +10649,7 @@
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10660,49 +10657,49 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6814423</v>
+        <v>6814421</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
-        <v>45360.5625</v>
+        <v>45360.45833333334</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="K119">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="N119">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O119">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q119">
         <v>1.85</v>
@@ -10714,16 +10711,16 @@
         <v>2.5</v>
       </c>
       <c r="T119">
+        <v>1.95</v>
+      </c>
+      <c r="U119">
         <v>1.85</v>
       </c>
-      <c r="U119">
-        <v>1.95</v>
-      </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -10738,7 +10735,7 @@
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10746,76 +10743,76 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6816449</v>
+        <v>6814420</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
-        <v>45361.375</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="s">
         <v>41</v>
       </c>
       <c r="J120">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="K120">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L120">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M120">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N120">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O120">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="P120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
+        <v>1.95</v>
+      </c>
+      <c r="R120">
         <v>1.85</v>
       </c>
-      <c r="R120">
+      <c r="S120">
+        <v>2.75</v>
+      </c>
+      <c r="T120">
+        <v>1.85</v>
+      </c>
+      <c r="U120">
         <v>1.95</v>
       </c>
-      <c r="S120">
-        <v>2.25</v>
-      </c>
-      <c r="T120">
-        <v>1.825</v>
-      </c>
-      <c r="U120">
-        <v>1.975</v>
-      </c>
       <c r="V120">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z120">
         <v>-1</v>
@@ -10824,7 +10821,7 @@
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10832,76 +10829,76 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6814420</v>
+        <v>6816449</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.375</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J121">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="K121">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L121">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M121">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N121">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="P121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
+        <v>1.85</v>
+      </c>
+      <c r="R121">
         <v>1.95</v>
       </c>
-      <c r="R121">
-        <v>1.85</v>
-      </c>
       <c r="S121">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T121">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z121">
         <v>-1</v>
@@ -10910,7 +10907,7 @@
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10921,16 +10918,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" t="s">
         <v>30</v>
-      </c>
-      <c r="F122" t="s">
-        <v>31</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11007,16 +11004,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11093,16 +11090,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11108,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11179,16 +11176,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11262,85 +11259,85 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6814428</v>
+        <v>6814751</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
-        <v>45367.45833333334</v>
+        <v>45367.67708333334</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J126">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="K126">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L126">
-        <v>1.909</v>
+        <v>3.9</v>
       </c>
       <c r="M126">
+        <v>1.8</v>
+      </c>
+      <c r="N126">
         <v>3.6</v>
       </c>
-      <c r="N126">
-        <v>3.3</v>
-      </c>
       <c r="O126">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q126">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T126">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W126">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11348,85 +11345,85 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6814751</v>
+        <v>6814428</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
-        <v>45367.67708333334</v>
+        <v>45367.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
         <v>34</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="s">
         <v>41</v>
       </c>
       <c r="J127">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="K127">
+        <v>3.4</v>
+      </c>
+      <c r="L127">
+        <v>1.909</v>
+      </c>
+      <c r="M127">
         <v>3.6</v>
       </c>
-      <c r="L127">
-        <v>3.9</v>
-      </c>
-      <c r="M127">
+      <c r="N127">
+        <v>3.3</v>
+      </c>
+      <c r="O127">
+        <v>1.909</v>
+      </c>
+      <c r="P127">
+        <v>0.5</v>
+      </c>
+      <c r="Q127">
         <v>1.8</v>
       </c>
-      <c r="N127">
-        <v>3.6</v>
-      </c>
-      <c r="O127">
-        <v>3.75</v>
-      </c>
-      <c r="P127">
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>2.25</v>
+      </c>
+      <c r="T127">
+        <v>1.8</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>-1</v>
+      </c>
+      <c r="W127">
+        <v>2.3</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>0.8</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>-0.5</v>
       </c>
-      <c r="Q127">
-        <v>1.925</v>
-      </c>
-      <c r="R127">
-        <v>1.875</v>
-      </c>
-      <c r="S127">
-        <v>2.75</v>
-      </c>
-      <c r="T127">
-        <v>1.975</v>
-      </c>
-      <c r="U127">
-        <v>1.825</v>
-      </c>
-      <c r="V127">
-        <v>0.8</v>
-      </c>
-      <c r="W127">
-        <v>-1</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>0.925</v>
-      </c>
-      <c r="Z127">
-        <v>-1</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -11437,16 +11434,16 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11523,16 +11520,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11609,16 +11606,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11627,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11695,16 +11692,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11713,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11781,25 +11778,25 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
         <v>39</v>
-      </c>
-      <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" t="s">
-        <v>41</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11867,16 +11864,16 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11885,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11953,16 +11950,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -12036,22 +12033,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7977921</v>
+        <v>7977923</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
-        <v>45381.45833333334</v>
+        <v>45381.5625</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12060,58 +12057,58 @@
         <v>41</v>
       </c>
       <c r="J135">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="L135">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M135">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="N135">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O135">
+        <v>10</v>
+      </c>
+      <c r="P135">
+        <v>-1.75</v>
+      </c>
+      <c r="Q135">
+        <v>1.8</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>3</v>
+      </c>
+      <c r="T135">
+        <v>1.85</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>-1</v>
+      </c>
+      <c r="W135">
         <v>5.5</v>
       </c>
-      <c r="P135">
-        <v>-1</v>
-      </c>
-      <c r="Q135">
-        <v>1.95</v>
-      </c>
-      <c r="R135">
-        <v>1.85</v>
-      </c>
-      <c r="S135">
-        <v>2.75</v>
-      </c>
-      <c r="T135">
-        <v>2</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>0.55</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12122,82 +12119,82 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7977923</v>
+        <v>7977921</v>
       </c>
       <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="E136" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="2">
-        <v>45381.5625</v>
-      </c>
-      <c r="E136" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" t="s">
-        <v>34</v>
-      </c>
       <c r="G136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H136">
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J136">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K136">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M136">
-        <v>1.222</v>
+        <v>1.55</v>
       </c>
       <c r="N136">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O136">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="P136">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q136">
+        <v>1.95</v>
+      </c>
+      <c r="R136">
+        <v>1.85</v>
+      </c>
+      <c r="S136">
+        <v>2.75</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
         <v>1.8</v>
       </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>3</v>
-      </c>
-      <c r="T136">
-        <v>1.85</v>
-      </c>
-      <c r="U136">
-        <v>1.95</v>
-      </c>
       <c r="V136">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W136">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12211,16 +12208,16 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12297,16 +12294,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12380,85 +12377,85 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6814435</v>
+        <v>6837117</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
-        <v>45388.52083333334</v>
+        <v>45388.63541666666</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J139">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="K139">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L139">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="M139">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N139">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O139">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12466,85 +12463,85 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6837117</v>
+        <v>6814435</v>
       </c>
       <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="E140" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140" t="s">
         <v>29</v>
       </c>
-      <c r="D140" s="2">
-        <v>45388.63541666666</v>
-      </c>
-      <c r="E140" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" t="s">
-        <v>38</v>
-      </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J140">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="K140">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L140">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="M140">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="N140">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
-        <v>1.45</v>
+        <v>2.55</v>
       </c>
       <c r="P140">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
         <v>-1</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>-0.5</v>
+      </c>
+      <c r="AB140">
         <v>0.45</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>1</v>
-      </c>
-      <c r="AA140">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12555,16 +12552,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12641,16 +12638,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12659,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12724,85 +12721,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6919052</v>
+        <v>6828664</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
-        <v>45392.40625</v>
+        <v>45392.48958333334</v>
       </c>
       <c r="E143" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" t="s">
         <v>38</v>
       </c>
-      <c r="F143" t="s">
-        <v>31</v>
-      </c>
       <c r="G143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J143">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="K143">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="N143">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O143">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="P143">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S143">
         <v>2.75</v>
       </c>
       <c r="T143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA143">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12810,49 +12807,49 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6828664</v>
+        <v>6860865</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
-        <v>45392.48958333334</v>
+        <v>45392.57291666666</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J144">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M144">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="N144">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O144">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q144">
         <v>1.9</v>
@@ -12864,19 +12861,19 @@
         <v>2.75</v>
       </c>
       <c r="T144">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
         <v>-1</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X144">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
@@ -12885,10 +12882,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12896,70 +12893,70 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6860865</v>
+        <v>6919052</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
-        <v>45392.57291666666</v>
+        <v>45392.40625</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>2</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J145">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="K145">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M145">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="N145">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O145">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="P145">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S145">
         <v>2.75</v>
       </c>
       <c r="T145">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W145">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -12968,13 +12965,13 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA145">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -12985,16 +12982,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13003,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13071,16 +13068,16 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13157,16 +13154,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13175,7 +13172,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13243,16 +13240,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13261,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13329,16 +13326,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13415,16 +13412,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13433,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13501,16 +13498,16 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" t="s">
         <v>35</v>
-      </c>
-      <c r="F152" t="s">
-        <v>36</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13587,16 +13584,16 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13605,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13670,82 +13667,82 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6994887</v>
+        <v>6998172</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
-        <v>45402.41666666666</v>
+        <v>45402.52083333334</v>
       </c>
       <c r="E154" t="s">
+        <v>34</v>
+      </c>
+      <c r="F154" t="s">
         <v>33</v>
       </c>
-      <c r="F154" t="s">
-        <v>30</v>
-      </c>
       <c r="G154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J154">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="K154">
+        <v>5.25</v>
+      </c>
+      <c r="L154">
+        <v>9.5</v>
+      </c>
+      <c r="M154">
+        <v>1.25</v>
+      </c>
+      <c r="N154">
+        <v>5.5</v>
+      </c>
+      <c r="O154">
+        <v>9</v>
+      </c>
+      <c r="P154">
+        <v>-1.75</v>
+      </c>
+      <c r="Q154">
+        <v>1.875</v>
+      </c>
+      <c r="R154">
+        <v>1.925</v>
+      </c>
+      <c r="S154">
         <v>3.25</v>
       </c>
-      <c r="L154">
-        <v>2.45</v>
-      </c>
-      <c r="M154">
-        <v>2.1</v>
-      </c>
-      <c r="N154">
-        <v>3.25</v>
-      </c>
-      <c r="O154">
-        <v>3.1</v>
-      </c>
-      <c r="P154">
-        <v>-0.25</v>
-      </c>
-      <c r="Q154">
-        <v>1.825</v>
-      </c>
-      <c r="R154">
-        <v>1.975</v>
-      </c>
-      <c r="S154">
-        <v>2.25</v>
-      </c>
       <c r="T154">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V154">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
         <v>-1</v>
@@ -13756,82 +13753,82 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6998172</v>
+        <v>6994887</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
-        <v>45402.52083333334</v>
+        <v>45402.41666666666</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J155">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="K155">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="L155">
-        <v>9.5</v>
+        <v>2.45</v>
       </c>
       <c r="M155">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="N155">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="O155">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="P155">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q155">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T155">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y155">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA155">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB155">
         <v>-1</v>
@@ -13842,22 +13839,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6994933</v>
+        <v>6994888</v>
       </c>
       <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45403.63541666666</v>
+      </c>
+      <c r="E156" t="s">
         <v>29</v>
       </c>
-      <c r="D156" s="2">
-        <v>45403.41666666666</v>
-      </c>
-      <c r="E156" t="s">
-        <v>36</v>
-      </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -13866,61 +13863,61 @@
         <v>41</v>
       </c>
       <c r="J156">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="K156">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="N156">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O156">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="P156">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q156">
+        <v>1.775</v>
+      </c>
+      <c r="R156">
+        <v>2.025</v>
+      </c>
+      <c r="S156">
+        <v>2.25</v>
+      </c>
+      <c r="T156">
         <v>1.9</v>
       </c>
-      <c r="R156">
+      <c r="U156">
         <v>1.9</v>
       </c>
-      <c r="S156">
-        <v>2.75</v>
-      </c>
-      <c r="T156">
-        <v>1.85</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
       <c r="V156">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
-      <c r="AA156">
-        <v>0.425</v>
-      </c>
-      <c r="AB156">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13931,16 +13928,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -14014,214 +14011,321 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6994888</v>
+        <v>6994933</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
-        <v>45403.63541666666</v>
+        <v>45403.41666666666</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J158">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="K158">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M158">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="N158">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O158">
+        <v>6</v>
+      </c>
+      <c r="P158">
+        <v>-1.25</v>
+      </c>
+      <c r="Q158">
+        <v>1.9</v>
+      </c>
+      <c r="R158">
+        <v>1.9</v>
+      </c>
+      <c r="S158">
         <v>2.75</v>
       </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-      <c r="Q158">
-        <v>1.775</v>
-      </c>
-      <c r="R158">
-        <v>2.025</v>
-      </c>
-      <c r="S158">
-        <v>2.25</v>
-      </c>
       <c r="T158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W158">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>27</v>
+      <c r="B159">
+        <v>7021641</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
-        <v>45410.52083333334</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F159" t="s">
         <v>32</v>
       </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159" t="s">
+        <v>41</v>
+      </c>
       <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>3.4</v>
+      </c>
+      <c r="L159">
+        <v>3.1</v>
+      </c>
+      <c r="M159">
+        <v>2.25</v>
+      </c>
+      <c r="N159">
+        <v>3.5</v>
+      </c>
+      <c r="O159">
+        <v>2.8</v>
+      </c>
+      <c r="P159">
+        <v>-0.25</v>
+      </c>
+      <c r="Q159">
+        <v>2</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
+        <v>2.25</v>
+      </c>
+      <c r="T159">
+        <v>1.9</v>
+      </c>
+      <c r="U159">
+        <v>1.9</v>
+      </c>
+      <c r="V159">
+        <v>-1</v>
+      </c>
+      <c r="W159">
         <v>2.5</v>
       </c>
-      <c r="K159">
-        <v>3.2</v>
-      </c>
-      <c r="L159">
-        <v>2.5</v>
-      </c>
-      <c r="M159">
-        <v>2.4</v>
-      </c>
-      <c r="N159">
-        <v>3.1</v>
-      </c>
-      <c r="O159">
-        <v>2.875</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-      <c r="Q159">
-        <v>1.75</v>
-      </c>
-      <c r="R159">
-        <v>2.05</v>
-      </c>
-      <c r="S159">
-        <v>2.5</v>
-      </c>
-      <c r="T159">
-        <v>1.925</v>
-      </c>
-      <c r="U159">
-        <v>1.875</v>
-      </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
       <c r="X159">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y159">
+        <v>-0.5</v>
+      </c>
+      <c r="Z159">
+        <v>0.4</v>
+      </c>
+      <c r="AA159">
+        <v>-0.5</v>
+      </c>
+      <c r="AB159">
+        <v>0.45</v>
       </c>
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>28</v>
+      <c r="B160">
+        <v>7021989</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
-        <v>45411.52083333334</v>
+        <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>41</v>
       </c>
       <c r="J160">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="K160">
         <v>3.25</v>
       </c>
       <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>3.8</v>
+      </c>
+      <c r="O160">
+        <v>1.571</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1.85</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
         <v>2.75</v>
       </c>
-      <c r="M160">
+      <c r="T160">
+        <v>1.925</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
+        <v>-1</v>
+      </c>
+      <c r="W160">
+        <v>2.8</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45411.52083333334</v>
+      </c>
+      <c r="E161" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" t="s">
+        <v>33</v>
+      </c>
+      <c r="J161">
+        <v>2.25</v>
+      </c>
+      <c r="K161">
+        <v>3.25</v>
+      </c>
+      <c r="L161">
+        <v>2.75</v>
+      </c>
+      <c r="M161">
         <v>1.95</v>
       </c>
-      <c r="N160">
+      <c r="N161">
         <v>3.4</v>
       </c>
-      <c r="O160">
+      <c r="O161">
         <v>3.6</v>
       </c>
-      <c r="P160">
+      <c r="P161">
         <v>-0.5</v>
       </c>
-      <c r="Q160">
+      <c r="Q161">
         <v>1.975</v>
       </c>
-      <c r="R160">
+      <c r="R161">
         <v>1.825</v>
       </c>
-      <c r="S160">
+      <c r="S161">
         <v>2.5</v>
       </c>
-      <c r="T160">
+      <c r="T161">
         <v>1.875</v>
       </c>
-      <c r="U160">
+      <c r="U161">
         <v>1.925</v>
       </c>
-      <c r="V160">
-        <v>0</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -124,13 +124,13 @@
     <t>Olimpija Ljubljana</t>
   </si>
   <si>
-    <t>NK Celje</t>
+    <t>NK Maribor</t>
   </si>
   <si>
     <t>NK Domzale</t>
   </si>
   <si>
-    <t>NK Maribor</t>
+    <t>NK Celje</t>
   </si>
   <si>
     <t>NK Rogaska</t>
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1028,22 +1028,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6816472</v>
+        <v>6814331</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2">
-        <v>45136.63541666666</v>
+        <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1052,43 +1052,43 @@
         <v>41</v>
       </c>
       <c r="J7">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="K7">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="M7">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="N7">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="P7">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q7">
+        <v>1.85</v>
+      </c>
+      <c r="R7">
         <v>1.95</v>
       </c>
-      <c r="R7">
-        <v>1.85</v>
-      </c>
       <c r="S7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>0.333</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1097,16 +1097,16 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1114,22 +1114,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6814331</v>
+        <v>6816472</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>45136.52083333334</v>
+        <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1138,43 +1138,43 @@
         <v>41</v>
       </c>
       <c r="J8">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L8">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O8">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q8">
+        <v>1.95</v>
+      </c>
+      <c r="R8">
         <v>1.85</v>
       </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>0.6499999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1183,16 +1183,16 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1200,22 +1200,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6814329</v>
+        <v>6814330</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="2">
-        <v>45137.63541666666</v>
+        <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1224,61 +1224,61 @@
         <v>41</v>
       </c>
       <c r="J9">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L9">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P9">
+        <v>-1.25</v>
+      </c>
+      <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>2.75</v>
+      </c>
+      <c r="T9">
+        <v>1.8</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
         <v>-0.5</v>
       </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>1.8</v>
-      </c>
-      <c r="S9">
-        <v>2.5</v>
-      </c>
-      <c r="T9">
-        <v>1.85</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>0.909</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1372,22 +1372,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6814330</v>
+        <v>6814329</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2">
-        <v>45137.52083333334</v>
+        <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1396,43 +1396,43 @@
         <v>41</v>
       </c>
       <c r="J11">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="M11">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="N11">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2.5</v>
+      </c>
+      <c r="T11">
         <v>1.85</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>1.95</v>
       </c>
-      <c r="S11">
-        <v>2.75</v>
-      </c>
-      <c r="T11">
-        <v>1.8</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1441,16 +1441,16 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1458,58 +1458,58 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6814339</v>
+        <v>6814336</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>45150.63541666666</v>
+        <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="N12">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="O12">
+        <v>4.75</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>2.05</v>
+      </c>
+      <c r="R12">
+        <v>1.75</v>
+      </c>
+      <c r="S12">
         <v>2.75</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1.775</v>
-      </c>
-      <c r="R12">
-        <v>2.025</v>
-      </c>
-      <c r="S12">
-        <v>2.5</v>
       </c>
       <c r="T12">
         <v>1.975</v>
@@ -1518,25 +1518,25 @@
         <v>1.825</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1544,58 +1544,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6814336</v>
+        <v>6814339</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2">
-        <v>45150.52083333334</v>
+        <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="K13">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O13">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
         <v>1.975</v>
@@ -1604,25 +1604,25 @@
         <v>1.825</v>
       </c>
       <c r="V13">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1639,7 +1639,7 @@
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -1725,7 +1725,7 @@
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -1974,65 +1974,65 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6814340</v>
+        <v>6814341</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2">
-        <v>45157.63541666666</v>
+        <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>40</v>
       </c>
       <c r="J18">
+        <v>1.727</v>
+      </c>
+      <c r="K18">
+        <v>3.6</v>
+      </c>
+      <c r="L18">
+        <v>4.75</v>
+      </c>
+      <c r="M18">
+        <v>1.8</v>
+      </c>
+      <c r="N18">
+        <v>3.5</v>
+      </c>
+      <c r="O18">
         <v>4.333</v>
       </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>1.7</v>
-      </c>
-      <c r="M18">
-        <v>5.25</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>1.6</v>
-      </c>
       <c r="P18">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q18">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R18">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T18">
+        <v>1.875</v>
+      </c>
+      <c r="U18">
         <v>1.925</v>
       </c>
-      <c r="U18">
-        <v>1.875</v>
-      </c>
       <c r="V18">
         <v>-1</v>
       </c>
@@ -2040,19 +2040,19 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>0.6000000000000001</v>
+        <v>3.333</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>0.925</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2060,65 +2060,65 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6814341</v>
+        <v>6814340</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2">
-        <v>45157.52083333334</v>
+        <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
       </c>
       <c r="J19">
-        <v>1.727</v>
+        <v>4.333</v>
       </c>
       <c r="K19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="N19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="P19">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T19">
+        <v>1.925</v>
+      </c>
+      <c r="U19">
         <v>1.875</v>
       </c>
-      <c r="U19">
-        <v>1.925</v>
-      </c>
       <c r="V19">
         <v>-1</v>
       </c>
@@ -2126,19 +2126,19 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>3.333</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2146,58 +2146,58 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6814343</v>
+        <v>6816469</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>45158.63541666666</v>
+        <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>36</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="K20">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M20">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="O20">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="P20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T20">
         <v>1.975</v>
@@ -2209,16 +2209,16 @@
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X20">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z20">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>0.9750000000000001</v>
@@ -2232,58 +2232,58 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6816469</v>
+        <v>6814343</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2">
-        <v>45158.52083333334</v>
+        <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J21">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L21">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="N21">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O21">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q21">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T21">
         <v>1.975</v>
@@ -2295,16 +2295,16 @@
         <v>-1</v>
       </c>
       <c r="W21">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA21">
         <v>0.9750000000000001</v>
@@ -2413,7 +2413,7 @@
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
         <v>37</v>
@@ -2502,7 +2502,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2929,10 +2929,10 @@
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
         <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3092,85 +3092,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6814352</v>
+        <v>6816466</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2">
-        <v>45185.63541666666</v>
+        <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K31">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N31">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P31">
+        <v>-0.25</v>
+      </c>
+      <c r="Q31">
+        <v>1.8</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>2.75</v>
+      </c>
+      <c r="T31">
+        <v>1.9</v>
+      </c>
+      <c r="U31">
+        <v>1.9</v>
+      </c>
+      <c r="V31">
+        <v>-1</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>2.2</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>0.45</v>
+      </c>
+      <c r="AB31">
         <v>-0.5</v>
-      </c>
-      <c r="Q31">
-        <v>1.85</v>
-      </c>
-      <c r="R31">
-        <v>1.95</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>1.95</v>
-      </c>
-      <c r="U31">
-        <v>1.85</v>
-      </c>
-      <c r="V31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3178,85 +3178,85 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6816466</v>
+        <v>6814355</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2">
-        <v>45185.41666666666</v>
+        <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.05</v>
       </c>
       <c r="K32">
+        <v>3.3</v>
+      </c>
+      <c r="L32">
         <v>3.4</v>
       </c>
-      <c r="L32">
+      <c r="M32">
+        <v>2.15</v>
+      </c>
+      <c r="N32">
         <v>3.3</v>
       </c>
-      <c r="M32">
-        <v>1.95</v>
-      </c>
-      <c r="N32">
-        <v>3.5</v>
-      </c>
       <c r="O32">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
         <v>-0.25</v>
       </c>
       <c r="Q32">
+        <v>1.95</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2.5</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.8</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>2.75</v>
-      </c>
-      <c r="T32">
-        <v>1.9</v>
-      </c>
-      <c r="U32">
-        <v>1.9</v>
-      </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X32">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3264,85 +3264,85 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6814355</v>
+        <v>6814352</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="2">
-        <v>45185.52083333334</v>
+        <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K33">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="N33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q33">
+        <v>1.85</v>
+      </c>
+      <c r="R33">
         <v>1.95</v>
       </c>
-      <c r="R33">
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>1.95</v>
+      </c>
+      <c r="U33">
         <v>1.85</v>
       </c>
-      <c r="S33">
-        <v>2.5</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
       <c r="V33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z33">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -3448,7 +3448,7 @@
         <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
@@ -3875,7 +3875,7 @@
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
@@ -3952,85 +3952,85 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6814363</v>
+        <v>6816464</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="2">
-        <v>45196.63541666666</v>
+        <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J41">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="K41">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="M41">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P41">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T41">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4047,7 +4047,7 @@
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -4124,85 +4124,85 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6816464</v>
+        <v>6814363</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="2">
-        <v>45196.41666666666</v>
+        <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="K43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>2.05</v>
+      </c>
+      <c r="N43">
+        <v>3.4</v>
+      </c>
+      <c r="O43">
+        <v>3.1</v>
+      </c>
+      <c r="P43">
+        <v>-0.25</v>
+      </c>
+      <c r="Q43">
+        <v>1.875</v>
+      </c>
+      <c r="R43">
+        <v>1.925</v>
+      </c>
+      <c r="S43">
+        <v>2.75</v>
+      </c>
+      <c r="T43">
+        <v>1.825</v>
+      </c>
+      <c r="U43">
+        <v>1.975</v>
+      </c>
+      <c r="V43">
+        <v>-1</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
         <v>2.1</v>
       </c>
-      <c r="M43">
-        <v>2.8</v>
-      </c>
-      <c r="N43">
-        <v>2.9</v>
-      </c>
-      <c r="O43">
-        <v>2.5</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="R43">
-        <v>1.8</v>
-      </c>
-      <c r="S43">
-        <v>2.25</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>1.8</v>
-      </c>
-      <c r="V43">
-        <v>1.8</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
       <c r="Y43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4219,7 +4219,7 @@
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
         <v>33</v>
@@ -4480,7 +4480,7 @@
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4812,22 +4812,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6814370</v>
+        <v>6814371</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2">
-        <v>45206.63541666666</v>
+        <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -4842,37 +4842,37 @@
         <v>3.8</v>
       </c>
       <c r="L51">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M51">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="N51">
         <v>3.8</v>
       </c>
       <c r="O51">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q51">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T51">
+        <v>1.975</v>
+      </c>
+      <c r="U51">
         <v>1.825</v>
       </c>
-      <c r="U51">
-        <v>1.975</v>
-      </c>
       <c r="V51">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4881,13 +4881,13 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -4898,22 +4898,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6814371</v>
+        <v>6814370</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="2">
-        <v>45206.52083333334</v>
+        <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -4928,37 +4928,37 @@
         <v>3.8</v>
       </c>
       <c r="L52">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M52">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="N52">
         <v>3.8</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P52">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q52">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T52">
+        <v>1.825</v>
+      </c>
+      <c r="U52">
         <v>1.975</v>
       </c>
-      <c r="U52">
-        <v>1.825</v>
-      </c>
       <c r="V52">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -4967,13 +4967,13 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-1</v>
@@ -4984,67 +4984,67 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6814369</v>
+        <v>6816462</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="2">
-        <v>45207.63541666666</v>
+        <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>41</v>
       </c>
       <c r="J53">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M53">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N53">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O53">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q53">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T53">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5053,13 +5053,13 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5156,67 +5156,67 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6816462</v>
+        <v>6814369</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="2">
-        <v>45207.41666666666</v>
+        <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
         <v>41</v>
       </c>
       <c r="J55">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K55">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L55">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M55">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N55">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O55">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P55">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q55">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R55">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5225,13 +5225,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5242,65 +5242,65 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6814372</v>
+        <v>6816461</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="2">
-        <v>45220.63541666666</v>
+        <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I56" t="s">
         <v>40</v>
       </c>
       <c r="J56">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
         <v>1.615</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N56">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="P56">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>1.8</v>
+      </c>
+      <c r="S56">
+        <v>2.5</v>
+      </c>
+      <c r="T56">
+        <v>1.85</v>
+      </c>
+      <c r="U56">
         <v>1.95</v>
       </c>
-      <c r="R56">
-        <v>1.85</v>
-      </c>
-      <c r="S56">
-        <v>2.75</v>
-      </c>
-      <c r="T56">
-        <v>1.825</v>
-      </c>
-      <c r="U56">
-        <v>1.975</v>
-      </c>
       <c r="V56">
         <v>-1</v>
       </c>
@@ -5308,19 +5308,19 @@
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>0.833</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>0.8</v>
+      </c>
+      <c r="AA56">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5328,64 +5328,64 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6816461</v>
+        <v>6814372</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2">
-        <v>45220.41666666666</v>
+        <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57" t="s">
         <v>40</v>
       </c>
       <c r="J57">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L57">
         <v>1.615</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O57">
-        <v>1.6</v>
+        <v>1.833</v>
       </c>
       <c r="P57">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
         <v>-1</v>
@@ -5394,19 +5394,19 @@
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>0.6000000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -5426,7 +5426,7 @@
         <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5681,7 +5681,7 @@
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
@@ -5853,7 +5853,7 @@
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -6286,7 +6286,7 @@
         <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
         <v>35</v>
@@ -6799,10 +6799,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
         <v>38</v>
-      </c>
-      <c r="F74" t="s">
-        <v>36</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6962,22 +6962,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7460063</v>
+        <v>7460149</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="2">
-        <v>45255.5625</v>
+        <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -6986,40 +6986,40 @@
         <v>40</v>
       </c>
       <c r="J76">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="K76">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L76">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="M76">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N76">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O76">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="P76">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
         <v>-1</v>
@@ -7028,19 +7028,19 @@
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>0.6659999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7048,22 +7048,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7460149</v>
+        <v>7460063</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="2">
-        <v>45255.375</v>
+        <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7072,40 +7072,40 @@
         <v>40</v>
       </c>
       <c r="J77">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="K77">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L77">
+        <v>1.65</v>
+      </c>
+      <c r="M77">
+        <v>4.5</v>
+      </c>
+      <c r="N77">
+        <v>3.75</v>
+      </c>
+      <c r="O77">
+        <v>1.666</v>
+      </c>
+      <c r="P77">
+        <v>0.75</v>
+      </c>
+      <c r="Q77">
+        <v>1.875</v>
+      </c>
+      <c r="R77">
+        <v>1.925</v>
+      </c>
+      <c r="S77">
         <v>2.5</v>
       </c>
-      <c r="M77">
-        <v>2.7</v>
-      </c>
-      <c r="N77">
-        <v>3.4</v>
-      </c>
-      <c r="O77">
-        <v>2.4</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>2.025</v>
-      </c>
-      <c r="R77">
-        <v>1.775</v>
-      </c>
-      <c r="S77">
-        <v>2.75</v>
-      </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
         <v>-1</v>
@@ -7114,19 +7114,19 @@
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA77">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7134,85 +7134,85 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7460151</v>
+        <v>7460150</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="2">
-        <v>45256.5625</v>
+        <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J78">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K78">
+        <v>3.3</v>
+      </c>
+      <c r="L78">
+        <v>2.1</v>
+      </c>
+      <c r="M78">
+        <v>4.2</v>
+      </c>
+      <c r="N78">
         <v>3.4</v>
       </c>
-      <c r="L78">
-        <v>1.909</v>
-      </c>
-      <c r="M78">
-        <v>3.6</v>
-      </c>
-      <c r="N78">
-        <v>3.3</v>
-      </c>
       <c r="O78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P78">
         <v>0.5</v>
       </c>
       <c r="Q78">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T78">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y78">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7232,7 +7232,7 @@
         <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7306,85 +7306,85 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7460150</v>
+        <v>7460151</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="2">
-        <v>45256.375</v>
+        <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80">
+        <v>3.75</v>
+      </c>
+      <c r="K80">
+        <v>3.4</v>
+      </c>
+      <c r="L80">
+        <v>1.909</v>
+      </c>
+      <c r="M80">
+        <v>3.6</v>
+      </c>
+      <c r="N80">
         <v>3.3</v>
       </c>
-      <c r="K80">
-        <v>3.3</v>
-      </c>
-      <c r="L80">
-        <v>2.1</v>
-      </c>
-      <c r="M80">
-        <v>4.2</v>
-      </c>
-      <c r="N80">
-        <v>3.4</v>
-      </c>
       <c r="O80">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P80">
         <v>0.5</v>
       </c>
       <c r="Q80">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7478,67 +7478,67 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6814388</v>
+        <v>6814391</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="2">
-        <v>45263.45833333334</v>
+        <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>41</v>
       </c>
       <c r="J82">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K82">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L82">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O82">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="W82">
         <v>-1</v>
@@ -7547,16 +7547,16 @@
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7564,67 +7564,67 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6814391</v>
+        <v>6814388</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
       </c>
       <c r="D83" s="2">
-        <v>45263.375</v>
+        <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
         <v>41</v>
       </c>
       <c r="J83">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K83">
+        <v>3.4</v>
+      </c>
+      <c r="L83">
+        <v>2.875</v>
+      </c>
+      <c r="M83">
+        <v>2.55</v>
+      </c>
+      <c r="N83">
         <v>3.2</v>
       </c>
-      <c r="L83">
-        <v>3.2</v>
-      </c>
-      <c r="M83">
-        <v>2.3</v>
-      </c>
-      <c r="N83">
-        <v>3.1</v>
-      </c>
       <c r="O83">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W83">
         <v>-1</v>
@@ -7633,16 +7633,16 @@
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7662,7 +7662,7 @@
         <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -8092,7 +8092,7 @@
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8436,7 +8436,7 @@
         <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8596,49 +8596,49 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7667666</v>
+        <v>7589677</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="2">
-        <v>45332.5625</v>
+        <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="K95">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="M95">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N95">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="O95">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="P95">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -8647,22 +8647,22 @@
         <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
         <v>-1</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X95">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8671,10 +8671,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8768,49 +8768,49 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7589677</v>
+        <v>7667666</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
       </c>
       <c r="D97" s="2">
-        <v>45332.375</v>
+        <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J97">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="K97">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L97">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="M97">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="N97">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="O97">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q97">
         <v>1.9</v>
@@ -8819,22 +8819,22 @@
         <v>1.9</v>
       </c>
       <c r="S97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T97">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
         <v>-1</v>
       </c>
       <c r="W97">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -8843,10 +8843,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8854,67 +8854,67 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7667665</v>
+        <v>7667664</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="2">
-        <v>45333.5625</v>
+        <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
         <v>41</v>
       </c>
       <c r="J98">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="K98">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L98">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>1.333</v>
+        <v>1.4</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O98">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="P98">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>0.333</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8923,13 +8923,13 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -8940,67 +8940,67 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7667664</v>
+        <v>7667665</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
       </c>
       <c r="D99" s="2">
-        <v>45333.45833333334</v>
+        <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>41</v>
       </c>
       <c r="J99">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="K99">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L99">
+        <v>8</v>
+      </c>
+      <c r="M99">
+        <v>1.333</v>
+      </c>
+      <c r="N99">
         <v>5</v>
       </c>
-      <c r="M99">
-        <v>1.4</v>
-      </c>
-      <c r="N99">
-        <v>4.5</v>
-      </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="P99">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>0.3999999999999999</v>
+        <v>0.333</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9009,13 +9009,13 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
@@ -9296,7 +9296,7 @@
         <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
         <v>39</v>
@@ -9637,7 +9637,7 @@
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
         <v>31</v>
@@ -9812,7 +9812,7 @@
         <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9886,58 +9886,58 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6814413</v>
+        <v>6814415</v>
       </c>
       <c r="C110" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="2">
-        <v>45347.5625</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J110">
-        <v>1.952</v>
+        <v>6</v>
       </c>
       <c r="K110">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="M110">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="P110">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q110">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T110">
         <v>1.975</v>
@@ -9946,25 +9946,25 @@
         <v>1.825</v>
       </c>
       <c r="V110">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="W110">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
+        <v>0.8</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
+        <v>0.4875</v>
+      </c>
+      <c r="AB110">
         <v>-0.5</v>
-      </c>
-      <c r="Z110">
-        <v>0.4125</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9972,58 +9972,58 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6814415</v>
+        <v>6814413</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
       </c>
       <c r="D111" s="2">
-        <v>45347.45833333334</v>
+        <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J111">
-        <v>6</v>
+        <v>1.952</v>
       </c>
       <c r="K111">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="L111">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="N111">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O111">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T111">
         <v>1.975</v>
@@ -10032,25 +10032,25 @@
         <v>1.825</v>
       </c>
       <c r="V111">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10230,85 +10230,85 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6814417</v>
+        <v>6814416</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="2">
-        <v>45353.5625</v>
+        <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>38</v>
       </c>
-      <c r="F114" t="s">
-        <v>37</v>
-      </c>
       <c r="G114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J114">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="K114">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="M114">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N114">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O114">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="P114">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T114">
+        <v>1.825</v>
+      </c>
+      <c r="U114">
         <v>1.975</v>
       </c>
-      <c r="U114">
-        <v>1.825</v>
-      </c>
       <c r="V114">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10316,85 +10316,85 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6814416</v>
+        <v>6814417</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
       </c>
       <c r="D115" s="2">
-        <v>45353.45833333334</v>
+        <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J115">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="K115">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L115">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N115">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O115">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T115">
+        <v>1.975</v>
+      </c>
+      <c r="U115">
         <v>1.825</v>
       </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
       <c r="V115">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W115">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10402,64 +10402,64 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6814418</v>
+        <v>6816450</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
       </c>
       <c r="D116" s="2">
-        <v>45354.5625</v>
+        <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="s">
         <v>40</v>
       </c>
       <c r="J116">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="K116">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="L116">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="M116">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O116">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q116">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T116">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V116">
         <v>-1</v>
@@ -10468,19 +10468,19 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10488,64 +10488,64 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6816450</v>
+        <v>6814418</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
       </c>
       <c r="D117" s="2">
-        <v>45354.45833333334</v>
+        <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="s">
         <v>40</v>
       </c>
       <c r="J117">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="K117">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="L117">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M117">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="N117">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O117">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="P117">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T117">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
         <v>-1</v>
@@ -10554,19 +10554,19 @@
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10669,10 +10669,10 @@
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
         <v>36</v>
-      </c>
-      <c r="F119" t="s">
-        <v>38</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10746,76 +10746,76 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6814420</v>
+        <v>6816449</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
       </c>
       <c r="D120" s="2">
-        <v>45361.45833333334</v>
+        <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J120">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L120">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M120">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="P120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
+        <v>1.85</v>
+      </c>
+      <c r="R120">
         <v>1.95</v>
       </c>
-      <c r="R120">
-        <v>1.85</v>
-      </c>
       <c r="S120">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T120">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W120">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z120">
         <v>-1</v>
@@ -10824,7 +10824,7 @@
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10832,76 +10832,76 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6816449</v>
+        <v>6814420</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
       </c>
       <c r="D121" s="2">
-        <v>45361.375</v>
+        <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J121">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="K121">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M121">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N121">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O121">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="P121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
+        <v>1.95</v>
+      </c>
+      <c r="R121">
         <v>1.85</v>
       </c>
-      <c r="R121">
+      <c r="S121">
+        <v>2.75</v>
+      </c>
+      <c r="T121">
+        <v>1.85</v>
+      </c>
+      <c r="U121">
         <v>1.95</v>
       </c>
-      <c r="S121">
-        <v>2.25</v>
-      </c>
-      <c r="T121">
-        <v>1.825</v>
-      </c>
-      <c r="U121">
-        <v>1.975</v>
-      </c>
       <c r="V121">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z121">
         <v>-1</v>
@@ -10910,7 +10910,7 @@
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11004,49 +11004,49 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6814426</v>
+        <v>6816448</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="2">
-        <v>45364.61458333334</v>
+        <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J123">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="K123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L123">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
         <v>3.1</v>
       </c>
       <c r="O123">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="P123">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q123">
         <v>2.025</v>
@@ -11058,31 +11058,31 @@
         <v>2.5</v>
       </c>
       <c r="T123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y123">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -11090,49 +11090,49 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6816448</v>
+        <v>6814426</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
       </c>
       <c r="D124" s="2">
-        <v>45364.53125</v>
+        <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J124">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="K124">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="M124">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N124">
         <v>3.1</v>
       </c>
       <c r="O124">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q124">
         <v>2.025</v>
@@ -11144,31 +11144,31 @@
         <v>2.5</v>
       </c>
       <c r="T124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11188,7 +11188,7 @@
         <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11434,85 +11434,85 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6814430</v>
+        <v>6816447</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="2">
-        <v>45368.5625</v>
+        <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J128">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="M128">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q128">
+        <v>1.9</v>
+      </c>
+      <c r="R128">
+        <v>1.9</v>
+      </c>
+      <c r="S128">
+        <v>2.25</v>
+      </c>
+      <c r="T128">
+        <v>1.825</v>
+      </c>
+      <c r="U128">
         <v>1.975</v>
       </c>
-      <c r="R128">
-        <v>1.825</v>
-      </c>
-      <c r="S128">
-        <v>2.5</v>
-      </c>
-      <c r="T128">
-        <v>1.85</v>
-      </c>
-      <c r="U128">
-        <v>1.95</v>
-      </c>
       <c r="V128">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
+        <v>-0.5</v>
+      </c>
+      <c r="Z128">
+        <v>0.45</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11529,7 +11529,7 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
         <v>33</v>
@@ -11606,85 +11606,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6816447</v>
+        <v>6814430</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
       </c>
       <c r="D130" s="2">
-        <v>45368.375</v>
+        <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J130">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="K130">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W130">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11778,85 +11778,85 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7977924</v>
+        <v>6816446</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
       </c>
       <c r="D132" s="2">
-        <v>45380.67708333334</v>
+        <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="K132">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
         <v>3.3</v>
       </c>
       <c r="O132">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="P132">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q132">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S132">
         <v>2.25</v>
       </c>
       <c r="T132">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11873,7 +11873,7 @@
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
         <v>33</v>
@@ -11950,85 +11950,85 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6816446</v>
+        <v>7977924</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
       </c>
       <c r="D134" s="2">
-        <v>45380.45833333334</v>
+        <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N134">
         <v>3.3</v>
       </c>
       <c r="O134">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="P134">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
         <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>1.025</v>
+      </c>
+      <c r="AA134">
         <v>0.8</v>
       </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>-0.5</v>
-      </c>
       <c r="AB134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12131,7 +12131,7 @@
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -12220,7 +12220,7 @@
         <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12294,22 +12294,22 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6837117</v>
+        <v>8035687</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
       </c>
       <c r="D138" s="2">
-        <v>45388.63541666666</v>
+        <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12318,25 +12318,25 @@
         <v>40</v>
       </c>
       <c r="J138">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="K138">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="L138">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M138">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="N138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O138">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="P138">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Q138">
         <v>1.8</v>
@@ -12345,13 +12345,13 @@
         <v>2</v>
       </c>
       <c r="S138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
         <v>-1</v>
@@ -12360,16 +12360,16 @@
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>0.45</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
@@ -12466,22 +12466,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>8035687</v>
+        <v>6837117</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140" s="2">
-        <v>45388.41666666666</v>
+        <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12490,25 +12490,25 @@
         <v>40</v>
       </c>
       <c r="J140">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="K140">
+        <v>4.2</v>
+      </c>
+      <c r="L140">
+        <v>1.5</v>
+      </c>
+      <c r="M140">
+        <v>5.75</v>
+      </c>
+      <c r="N140">
         <v>4.333</v>
       </c>
-      <c r="L140">
+      <c r="O140">
         <v>1.45</v>
       </c>
-      <c r="M140">
-        <v>4.75</v>
-      </c>
-      <c r="N140">
-        <v>4</v>
-      </c>
-      <c r="O140">
-        <v>1.6</v>
-      </c>
       <c r="P140">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Q140">
         <v>1.8</v>
@@ -12517,13 +12517,13 @@
         <v>2</v>
       </c>
       <c r="S140">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
         <v>-1</v>
@@ -12532,16 +12532,16 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>0.6000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12647,7 +12647,7 @@
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
         <v>30</v>
@@ -12724,85 +12724,85 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6828664</v>
+        <v>6919052</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
       </c>
       <c r="D143" s="2">
-        <v>45392.48958333334</v>
+        <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J143">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M143">
-        <v>2.55</v>
+        <v>1.222</v>
       </c>
       <c r="N143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="O143">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
         <v>2.75</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12810,85 +12810,85 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6919052</v>
+        <v>6828664</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
       </c>
       <c r="D144" s="2">
-        <v>45392.40625</v>
+        <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J144">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="K144">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>1.222</v>
+        <v>2.55</v>
       </c>
       <c r="N144">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="O144">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="P144">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
         <v>2.75</v>
       </c>
       <c r="T144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA144">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13080,7 +13080,7 @@
         <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13166,7 +13166,7 @@
         <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13510,7 +13510,7 @@
         <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13851,7 +13851,7 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
         <v>39</v>
@@ -13937,7 +13937,7 @@
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
         <v>37</v>
@@ -14100,19 +14100,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7021989</v>
+        <v>7021641</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
       </c>
       <c r="D159" s="2">
-        <v>45409.63541666666</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14124,61 +14124,61 @@
         <v>42</v>
       </c>
       <c r="J159">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="K159">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O159">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P159">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S159">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V159">
         <v>-1</v>
       </c>
       <c r="W159">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14186,19 +14186,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7021641</v>
+        <v>7021989</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
       </c>
       <c r="D160" s="2">
-        <v>45409.52083333334</v>
+        <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14210,61 +14210,61 @@
         <v>42</v>
       </c>
       <c r="J160">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K160">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L160">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M160">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="N160">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
+        <v>1.571</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>1.85</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>2.75</v>
+      </c>
+      <c r="T160">
+        <v>1.925</v>
+      </c>
+      <c r="U160">
+        <v>1.875</v>
+      </c>
+      <c r="V160">
+        <v>-1</v>
+      </c>
+      <c r="W160">
         <v>2.8</v>
       </c>
-      <c r="P160">
-        <v>-0.25</v>
-      </c>
-      <c r="Q160">
-        <v>2</v>
-      </c>
-      <c r="R160">
-        <v>1.8</v>
-      </c>
-      <c r="S160">
-        <v>2.25</v>
-      </c>
-      <c r="T160">
-        <v>1.9</v>
-      </c>
-      <c r="U160">
-        <v>1.9</v>
-      </c>
-      <c r="V160">
-        <v>-1</v>
-      </c>
-      <c r="W160">
-        <v>2.5</v>
-      </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14281,7 +14281,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
         <v>35</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +100,16 @@
     <t>7060571</t>
   </si>
   <si>
+    <t>7060573</t>
+  </si>
+  <si>
+    <t>7083171</t>
+  </si>
+  <si>
     <t>7060572</t>
+  </si>
+  <si>
+    <t>7070464</t>
   </si>
   <si>
     <t>Slovenia Prva Liga</t>
@@ -504,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +610,16 @@
         <v>6814327</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -619,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -687,16 +696,16 @@
         <v>6816473</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1.8</v>
@@ -773,16 +782,16 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -791,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -859,16 +868,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -877,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -945,16 +954,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -963,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1031,16 +1040,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1117,16 +1126,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1135,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1203,16 +1212,16 @@
         <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1221,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>1.363</v>
@@ -1289,16 +1298,16 @@
         <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>2.35</v>
@@ -1375,16 +1384,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1393,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1461,16 +1470,16 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1479,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1547,16 +1556,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1565,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1633,16 +1642,16 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1719,16 +1728,16 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1737,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1805,16 +1814,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1891,16 +1900,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1909,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1977,16 +1986,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1995,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2063,16 +2072,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2081,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2149,17 +2158,17 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
       <c r="G20">
         <v>2</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2235,16 +2244,16 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2253,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2321,16 +2330,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2339,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2407,16 +2416,16 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2425,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2493,16 +2502,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2579,16 +2588,16 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2597,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2665,16 +2674,16 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2683,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2751,16 +2760,16 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2769,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2837,16 +2846,16 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2923,16 +2932,16 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3009,16 +3018,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3027,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3095,16 +3104,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3181,16 +3190,16 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3267,16 +3276,16 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3285,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3353,16 +3362,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3371,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3439,16 +3448,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3525,17 +3534,17 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
       <c r="G36">
         <v>2</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3611,16 +3620,16 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3629,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3697,16 +3706,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3715,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3783,16 +3792,16 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3869,16 +3878,16 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3887,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3955,16 +3964,16 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3973,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4041,16 +4050,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4127,16 +4136,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4213,16 +4222,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
         <v>36</v>
-      </c>
-      <c r="F44" t="s">
-        <v>33</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4231,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4299,17 +4308,17 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
         <v>35</v>
       </c>
-      <c r="F45" t="s">
-        <v>32</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4385,16 +4394,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4403,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4471,16 +4480,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4489,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4557,16 +4566,16 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4643,16 +4652,16 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4661,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4729,16 +4738,16 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4815,16 +4824,16 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4833,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4901,16 +4910,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4919,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4987,16 +4996,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5005,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5073,16 +5082,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5159,16 +5168,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5177,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5245,16 +5254,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5331,16 +5340,16 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5349,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5417,16 +5426,16 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5435,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5503,16 +5512,16 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5521,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5589,16 +5598,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5607,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5675,16 +5684,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5693,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5761,16 +5770,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5847,16 +5856,16 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5865,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5933,17 +5942,17 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
         <v>33</v>
       </c>
-      <c r="F64" t="s">
-        <v>30</v>
-      </c>
       <c r="G64">
         <v>1</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6019,16 +6028,16 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6105,16 +6114,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6123,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6191,16 +6200,16 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6277,16 +6286,16 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6295,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6363,16 +6372,16 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6381,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6449,17 +6458,17 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
-        <v>35</v>
-      </c>
       <c r="G70">
         <v>0</v>
       </c>
@@ -6467,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6535,17 +6544,17 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
         <v>34</v>
       </c>
-      <c r="F71" t="s">
-        <v>31</v>
-      </c>
       <c r="G71">
         <v>1</v>
       </c>
@@ -6553,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6621,16 +6630,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6639,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6707,16 +6716,16 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6725,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6793,16 +6802,16 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6811,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6879,16 +6888,16 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6897,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6965,16 +6974,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6983,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7051,16 +7060,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7069,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7137,16 +7146,16 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7155,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7223,16 +7232,16 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7241,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7309,16 +7318,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7395,16 +7404,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7413,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7481,16 +7490,16 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7499,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7567,16 +7576,16 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7585,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7653,16 +7662,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7739,16 +7748,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7757,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7825,16 +7834,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7843,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7911,16 +7920,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7929,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7997,16 +8006,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8015,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8083,16 +8092,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8101,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8169,16 +8178,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8187,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8255,16 +8264,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8341,16 +8350,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8359,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8427,16 +8436,16 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8513,16 +8522,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8531,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8599,16 +8608,16 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8617,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8685,16 +8694,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8771,16 +8780,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8789,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8857,16 +8866,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8875,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8943,16 +8952,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8961,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9029,16 +9038,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9047,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9115,16 +9124,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9133,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9201,16 +9210,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9287,16 +9296,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9305,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9373,16 +9382,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9391,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9459,16 +9468,16 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9545,16 +9554,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9563,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9631,16 +9640,16 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9649,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9717,16 +9726,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9803,17 +9812,17 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s">
         <v>39</v>
       </c>
-      <c r="F109" t="s">
-        <v>36</v>
-      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -9821,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9889,16 +9898,16 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9907,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9975,16 +9984,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10061,16 +10070,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10147,16 +10156,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10165,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10233,16 +10242,16 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10251,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10319,16 +10328,16 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10337,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10405,16 +10414,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10423,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10491,16 +10500,16 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10509,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10577,16 +10586,16 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10595,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10663,16 +10672,16 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10681,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10749,16 +10758,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10767,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10835,16 +10844,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10853,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10921,16 +10930,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10939,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11007,16 +11016,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11025,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11093,16 +11102,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11179,16 +11188,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11265,16 +11274,16 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11283,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11351,17 +11360,17 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
         <v>37</v>
       </c>
-      <c r="F127" t="s">
-        <v>34</v>
-      </c>
       <c r="G127">
         <v>2</v>
       </c>
@@ -11369,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11437,16 +11446,16 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11523,16 +11532,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11609,16 +11618,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11627,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11695,16 +11704,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11713,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11781,16 +11790,16 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11799,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11867,17 +11876,17 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" t="s">
         <v>36</v>
       </c>
-      <c r="F133" t="s">
-        <v>33</v>
-      </c>
       <c r="G133">
         <v>1</v>
       </c>
@@ -11885,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11953,16 +11962,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11971,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12039,16 +12048,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
         <v>35</v>
-      </c>
-      <c r="F135" t="s">
-        <v>32</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12057,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12125,16 +12134,16 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12152,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12211,16 +12220,16 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12229,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12297,16 +12306,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12315,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12383,16 +12392,16 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12401,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12469,16 +12478,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12555,16 +12564,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12573,7 +12582,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12641,16 +12650,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12659,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12727,16 +12736,16 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12745,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12813,16 +12822,16 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12831,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12899,16 +12908,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12917,7 +12926,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12985,16 +12994,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13003,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13071,16 +13080,16 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13157,16 +13166,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13175,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13243,16 +13252,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13261,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13329,16 +13338,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13347,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13415,16 +13424,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13433,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13501,16 +13510,16 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13519,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13587,16 +13596,16 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13605,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13673,17 +13682,17 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" t="s">
         <v>33</v>
       </c>
-      <c r="F154" t="s">
-        <v>30</v>
-      </c>
       <c r="G154">
         <v>1</v>
       </c>
@@ -13691,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13759,16 +13768,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13777,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13845,16 +13854,16 @@
         <v>6994933</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13863,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13931,16 +13940,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13949,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14017,16 +14026,16 @@
         <v>6994888</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45403.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14035,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14103,16 +14112,16 @@
         <v>7021641</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14121,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14189,16 +14198,16 @@
         <v>7021989</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14207,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>3.25</v>
@@ -14275,17 +14284,17 @@
         <v>7060570</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
         <v>38</v>
       </c>
-      <c r="F161" t="s">
-        <v>35</v>
-      </c>
       <c r="G161">
         <v>1</v>
       </c>
@@ -14293,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>1.909</v>
@@ -14361,16 +14370,16 @@
         <v>7021640</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14379,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J162">
         <v>2.5</v>
@@ -14447,16 +14456,16 @@
         <v>7021642</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45411.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14465,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>2.25</v>
@@ -14533,16 +14542,16 @@
         <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E164" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" t="s">
         <v>34</v>
-      </c>
-      <c r="F164" t="s">
-        <v>31</v>
       </c>
       <c r="J164">
         <v>2.8</v>
@@ -14554,22 +14563,22 @@
         <v>2.2</v>
       </c>
       <c r="M164">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O164">
+        <v>2.05</v>
+      </c>
+      <c r="P164">
+        <v>0.25</v>
+      </c>
+      <c r="Q164">
+        <v>1.95</v>
+      </c>
+      <c r="R164">
         <v>1.85</v>
-      </c>
-      <c r="P164">
-        <v>0.5</v>
-      </c>
-      <c r="Q164">
-        <v>1.9</v>
-      </c>
-      <c r="R164">
-        <v>1.9</v>
       </c>
       <c r="S164">
         <v>2.5</v>
@@ -14598,52 +14607,52 @@
         <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
-        <v>45417.41666666666</v>
+        <v>45416.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J165">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K165">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N165">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P165">
         <v>-0.25</v>
       </c>
       <c r="Q165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
         <v>2.5</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U165">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
         <v>0</v>
@@ -14652,6 +14661,201 @@
         <v>0</v>
       </c>
       <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45416.63541666666</v>
+      </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" t="s">
+        <v>41</v>
+      </c>
+      <c r="J166">
+        <v>2.3</v>
+      </c>
+      <c r="K166">
+        <v>3.4</v>
+      </c>
+      <c r="L166">
+        <v>2.75</v>
+      </c>
+      <c r="M166">
+        <v>1.65</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>4.2</v>
+      </c>
+      <c r="P166">
+        <v>-0.75</v>
+      </c>
+      <c r="Q166">
+        <v>1.825</v>
+      </c>
+      <c r="R166">
+        <v>1.975</v>
+      </c>
+      <c r="S166">
+        <v>2.75</v>
+      </c>
+      <c r="T166">
+        <v>1.875</v>
+      </c>
+      <c r="U166">
+        <v>1.925</v>
+      </c>
+      <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="E167" t="s">
+        <v>36</v>
+      </c>
+      <c r="F167" t="s">
+        <v>42</v>
+      </c>
+      <c r="J167">
+        <v>2.15</v>
+      </c>
+      <c r="K167">
+        <v>3.3</v>
+      </c>
+      <c r="L167">
+        <v>3.1</v>
+      </c>
+      <c r="M167">
+        <v>2.15</v>
+      </c>
+      <c r="N167">
+        <v>3.3</v>
+      </c>
+      <c r="O167">
+        <v>3.1</v>
+      </c>
+      <c r="P167">
+        <v>-0.25</v>
+      </c>
+      <c r="Q167">
+        <v>1.9</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>2.5</v>
+      </c>
+      <c r="T167">
+        <v>1.975</v>
+      </c>
+      <c r="U167">
+        <v>1.825</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>33</v>
+      </c>
+      <c r="J168">
+        <v>1.333</v>
+      </c>
+      <c r="K168">
+        <v>5</v>
+      </c>
+      <c r="L168">
+        <v>7</v>
+      </c>
+      <c r="M168">
+        <v>1.333</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168">
+        <v>7</v>
+      </c>
+      <c r="P168">
+        <v>-1.5</v>
+      </c>
+      <c r="Q168">
+        <v>1.975</v>
+      </c>
+      <c r="R168">
+        <v>1.825</v>
+      </c>
+      <c r="S168">
+        <v>3</v>
+      </c>
+      <c r="T168">
+        <v>1.975</v>
+      </c>
+      <c r="U168">
+        <v>1.825</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14563,22 +14563,22 @@
         <v>2.2</v>
       </c>
       <c r="M164">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N164">
         <v>3.6</v>
       </c>
       <c r="O164">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P164">
         <v>0.25</v>
       </c>
       <c r="Q164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
         <v>2.5</v>
@@ -14628,31 +14628,31 @@
         <v>3</v>
       </c>
       <c r="M165">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N165">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O165">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
         <v>-0.25</v>
       </c>
       <c r="Q165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
         <v>2.5</v>
       </c>
       <c r="T165">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V165">
         <v>0</v>
@@ -14693,31 +14693,31 @@
         <v>2.75</v>
       </c>
       <c r="M166">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="N166">
+        <v>3.8</v>
+      </c>
+      <c r="O166">
         <v>4</v>
-      </c>
-      <c r="O166">
-        <v>4.2</v>
       </c>
       <c r="P166">
         <v>-0.75</v>
       </c>
       <c r="Q166">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
         <v>2.75</v>
       </c>
       <c r="T166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
         <v>0</v>
@@ -14758,22 +14758,22 @@
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N167">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P167">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
         <v>2.5</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -97,28 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7060571</t>
+    <t>7088565</t>
   </si>
   <si>
-    <t>7060573</t>
-  </si>
-  <si>
-    <t>7083171</t>
-  </si>
-  <si>
-    <t>7060572</t>
-  </si>
-  <si>
-    <t>7070464</t>
+    <t>7088566</t>
   </si>
   <si>
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -145,10 +136,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -513,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,85 +598,85 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
+      <c r="J2">
+        <v>1.8</v>
+      </c>
+      <c r="K2">
+        <v>3.5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2.05</v>
+      </c>
+      <c r="N2">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>3.3</v>
-      </c>
-      <c r="L2">
-        <v>3.4</v>
-      </c>
-      <c r="M2">
-        <v>1.909</v>
-      </c>
-      <c r="N2">
-        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
+        <v>-0.25</v>
+      </c>
+      <c r="Q2">
+        <v>1.75</v>
+      </c>
+      <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>2.25</v>
+      </c>
+      <c r="T2">
+        <v>1.95</v>
+      </c>
+      <c r="U2">
+        <v>1.85</v>
+      </c>
+      <c r="V2">
+        <v>1.05</v>
+      </c>
+      <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>0.75</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
         <v>-0.5</v>
       </c>
-      <c r="Q2">
-        <v>1.95</v>
-      </c>
-      <c r="R2">
-        <v>1.85</v>
-      </c>
-      <c r="S2">
-        <v>2.5</v>
-      </c>
-      <c r="T2">
-        <v>1.9</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
-      <c r="V2">
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <v>2.75</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -693,85 +684,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O3">
         <v>3.75</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -782,17 +773,17 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="G4">
         <v>2</v>
       </c>
@@ -800,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -868,16 +859,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -954,16 +945,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -972,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1040,16 +1031,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1126,16 +1117,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1144,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1212,16 +1203,16 @@
         <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1230,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>1.363</v>
@@ -1298,16 +1289,16 @@
         <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1316,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2.35</v>
@@ -1384,16 +1375,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1402,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1470,25 +1461,25 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>40</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1556,16 +1547,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1574,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1642,16 +1633,16 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1660,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1728,16 +1719,16 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1746,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1814,16 +1805,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1832,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1900,16 +1891,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1918,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1986,17 +1977,17 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2004,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2072,16 +2063,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2090,7 +2081,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2158,25 +2149,25 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2244,25 +2235,25 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>41</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>43</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2330,16 +2321,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2348,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2416,16 +2407,16 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2434,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2502,16 +2493,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
         <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2520,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2588,16 +2579,16 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2674,17 +2665,17 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
       <c r="G26">
         <v>2</v>
       </c>
@@ -2692,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2760,16 +2751,16 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2778,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2846,25 +2837,25 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2932,16 +2923,16 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2950,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3018,16 +3009,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3036,7 +3027,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3104,16 +3095,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3122,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3190,16 +3181,16 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3208,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3276,16 +3267,16 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3294,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3362,16 +3353,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3380,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3448,16 +3439,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3466,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3534,25 +3525,25 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
         <v>40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>44</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3620,16 +3611,16 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3638,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3706,16 +3697,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3724,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3792,16 +3783,16 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3810,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3878,16 +3869,16 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3896,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3964,16 +3955,16 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3982,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4050,16 +4041,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4068,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4136,16 +4127,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4222,16 +4213,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4240,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4308,16 +4299,16 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4326,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4394,16 +4385,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4412,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4480,25 +4471,25 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
         <v>41</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>43</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4566,16 +4557,16 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4584,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4652,16 +4643,16 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4670,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4738,16 +4729,16 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4824,16 +4815,16 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4842,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4910,16 +4901,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4928,7 +4919,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4996,16 +4987,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5014,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5082,16 +5073,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5100,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5168,16 +5159,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5186,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5254,16 +5245,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5272,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5340,16 +5331,16 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5358,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5426,16 +5417,16 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5512,16 +5503,16 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5530,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5598,16 +5589,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5616,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5684,16 +5675,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5702,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5770,16 +5761,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5788,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5856,17 +5847,17 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
         <v>39</v>
       </c>
-      <c r="F63" t="s">
-        <v>42</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
@@ -5874,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5942,16 +5933,16 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5960,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6028,16 +6019,16 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6046,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6114,16 +6105,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6132,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6200,16 +6191,16 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6218,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6286,16 +6277,16 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6304,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6372,16 +6363,16 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6390,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6458,25 +6449,25 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
         <v>41</v>
-      </c>
-      <c r="F70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>43</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6544,16 +6535,16 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6562,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6630,16 +6621,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6648,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6716,16 +6707,16 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6734,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6802,25 +6793,25 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>41</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>43</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6888,16 +6879,16 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6974,16 +6965,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6992,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7060,16 +7051,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7078,7 +7069,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7146,25 +7137,25 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
         <v>41</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-      <c r="I78" t="s">
-        <v>43</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7232,16 +7223,16 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7250,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7318,16 +7309,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7336,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7404,16 +7395,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7422,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7490,16 +7481,16 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7508,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7576,16 +7567,16 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7594,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7662,16 +7653,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7680,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7748,16 +7739,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
         <v>37</v>
-      </c>
-      <c r="F85" t="s">
-        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7766,7 +7757,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7834,16 +7825,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7852,7 +7843,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7920,16 +7911,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7938,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8006,16 +7997,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8024,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8092,16 +8083,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8110,7 +8101,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8178,16 +8169,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8196,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8264,16 +8255,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
         <v>35</v>
-      </c>
-      <c r="F91" t="s">
-        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8282,7 +8273,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8350,25 +8341,25 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
         <v>40</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" t="s">
-        <v>44</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8436,17 +8427,17 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
         <v>36</v>
       </c>
-      <c r="F93" t="s">
-        <v>39</v>
-      </c>
       <c r="G93">
         <v>2</v>
       </c>
@@ -8454,7 +8445,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8522,16 +8513,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8540,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8608,25 +8599,25 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
         <v>42</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>2</v>
-      </c>
-      <c r="I95" t="s">
-        <v>45</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8694,16 +8685,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8780,16 +8771,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8798,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8866,16 +8857,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8884,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8952,16 +8943,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8970,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9038,16 +9029,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9056,7 +9047,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9124,16 +9115,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9142,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9210,16 +9201,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9228,7 +9219,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9296,16 +9287,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9314,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9382,16 +9373,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9400,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9468,25 +9459,25 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
         <v>40</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>44</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9554,16 +9545,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9572,7 +9563,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9640,16 +9631,16 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9658,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9726,16 +9717,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9744,7 +9735,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9812,25 +9803,25 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
         <v>42</v>
-      </c>
-      <c r="F109" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>45</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9898,25 +9889,25 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
         <v>40</v>
-      </c>
-      <c r="F110" t="s">
-        <v>41</v>
-      </c>
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>44</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9984,17 +9975,17 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" t="s">
         <v>33</v>
       </c>
-      <c r="F111" t="s">
-        <v>36</v>
-      </c>
       <c r="G111">
         <v>0</v>
       </c>
@@ -10002,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10070,16 +10061,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10088,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10156,16 +10147,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10174,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10242,17 +10233,17 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
         <v>38</v>
       </c>
-      <c r="F114" t="s">
-        <v>41</v>
-      </c>
       <c r="G114">
         <v>1</v>
       </c>
@@ -10260,7 +10251,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10328,16 +10319,16 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10346,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10414,16 +10405,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10432,7 +10423,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10500,16 +10491,16 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10518,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10586,17 +10577,17 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" t="s">
         <v>34</v>
       </c>
-      <c r="F118" t="s">
-        <v>37</v>
-      </c>
       <c r="G118">
         <v>0</v>
       </c>
@@ -10604,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10672,16 +10663,16 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10690,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10758,16 +10749,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10776,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10844,16 +10835,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10862,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10930,16 +10921,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10948,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11016,16 +11007,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11034,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11102,25 +11093,25 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
         <v>40</v>
-      </c>
-      <c r="G124">
-        <v>2</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>44</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11188,16 +11179,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11206,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11274,16 +11265,16 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11292,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11360,25 +11351,25 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
         <v>40</v>
-      </c>
-      <c r="F127" t="s">
-        <v>37</v>
-      </c>
-      <c r="G127">
-        <v>2</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127" t="s">
-        <v>44</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11446,25 +11437,25 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
         <v>42</v>
-      </c>
-      <c r="F128" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128" t="s">
-        <v>45</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11532,16 +11523,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11550,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11618,16 +11609,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11636,7 +11627,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11704,16 +11695,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11790,16 +11781,16 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11808,7 +11799,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11876,16 +11867,16 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11894,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11962,16 +11953,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11971,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12048,16 +12039,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12066,7 +12057,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12134,16 +12125,16 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12152,7 +12143,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12220,16 +12211,16 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12238,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12306,16 +12297,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12324,7 +12315,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12392,16 +12383,16 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12410,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12478,16 +12469,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12496,7 +12487,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12564,16 +12555,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12650,16 +12641,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12668,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12736,16 +12727,16 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12754,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12822,16 +12813,16 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12840,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12908,16 +12899,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12926,7 +12917,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12994,16 +12985,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13012,7 +13003,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13080,25 +13071,25 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
         <v>41</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
-        <v>43</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13166,16 +13157,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13184,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13252,16 +13243,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13338,16 +13329,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13356,7 +13347,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13424,16 +13415,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13442,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13510,16 +13501,16 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13528,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13596,25 +13587,25 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
+        <v>37</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
         <v>40</v>
-      </c>
-      <c r="F153" t="s">
-        <v>35</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153" t="s">
-        <v>44</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13682,16 +13673,16 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13691,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13768,16 +13759,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13786,7 +13777,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13854,16 +13845,16 @@
         <v>6994933</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" t="s">
         <v>39</v>
-      </c>
-      <c r="F156" t="s">
-        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13872,7 +13863,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13940,16 +13931,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13958,7 +13949,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14026,16 +14017,16 @@
         <v>6994888</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45403.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14044,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14112,16 +14103,16 @@
         <v>7021641</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14130,7 +14121,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14198,16 +14189,16 @@
         <v>7021989</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14216,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J160">
         <v>3.25</v>
@@ -14284,16 +14275,16 @@
         <v>7060570</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14302,7 +14293,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>1.909</v>
@@ -14370,25 +14361,25 @@
         <v>7021640</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162" t="s">
         <v>42</v>
-      </c>
-      <c r="F162" t="s">
-        <v>35</v>
-      </c>
-      <c r="G162">
-        <v>2</v>
-      </c>
-      <c r="H162">
-        <v>2</v>
-      </c>
-      <c r="I162" t="s">
-        <v>45</v>
       </c>
       <c r="J162">
         <v>2.5</v>
@@ -14456,16 +14447,16 @@
         <v>7021642</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45411.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14474,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J163">
         <v>2.25</v>
@@ -14538,20 +14529,29 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>27</v>
+      <c r="B164">
+        <v>7060571</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" t="s">
+        <v>42</v>
       </c>
       <c r="J164">
         <v>2.8</v>
@@ -14563,59 +14563,80 @@
         <v>2.2</v>
       </c>
       <c r="M164">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N164">
         <v>3.6</v>
       </c>
       <c r="O164">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="P164">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q164">
+        <v>1.825</v>
+      </c>
+      <c r="R164">
         <v>1.975</v>
       </c>
-      <c r="R164">
-        <v>1.825</v>
-      </c>
       <c r="S164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>0.825</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>-0.5</v>
+      </c>
+      <c r="AB164">
+        <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="1:28">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>28</v>
+      <c r="B165">
+        <v>7060573</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
+        <v>37</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" t="s">
         <v>40</v>
       </c>
       <c r="J165">
@@ -14628,60 +14649,81 @@
         <v>3</v>
       </c>
       <c r="M165">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N165">
         <v>3.6</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
         <v>2.5</v>
       </c>
       <c r="T165">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>0.925</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.875</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>29</v>
+      <c r="B166">
+        <v>7083171</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45416.63541666666</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" t="s">
+        <v>40</v>
       </c>
       <c r="J166">
         <v>2.3</v>
@@ -14696,7 +14738,7 @@
         <v>1.666</v>
       </c>
       <c r="N166">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O166">
         <v>4</v>
@@ -14705,48 +14747,69 @@
         <v>-0.75</v>
       </c>
       <c r="Q166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
         <v>2.75</v>
       </c>
       <c r="T166">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z166">
+        <v>-1</v>
+      </c>
+      <c r="AA166">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB166">
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:28">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>30</v>
+      <c r="B167">
+        <v>7060572</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>40</v>
       </c>
       <c r="J167">
         <v>2.15</v>
@@ -14758,60 +14821,81 @@
         <v>3.1</v>
       </c>
       <c r="M167">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N167">
         <v>3.25</v>
       </c>
       <c r="O167">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P167">
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S167">
         <v>2.5</v>
       </c>
       <c r="T167">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V167">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>0.8</v>
+      </c>
+      <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>0.8</v>
       </c>
     </row>
     <row r="168" spans="1:28">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>31</v>
+      <c r="B168">
+        <v>7070464</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45417.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>42</v>
       </c>
       <c r="J168">
         <v>1.333</v>
@@ -14826,36 +14910,178 @@
         <v>1.333</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="O168">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P168">
         <v>-1.5</v>
       </c>
       <c r="Q168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T168">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U168">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>0.875</v>
+      </c>
+      <c r="AA168">
+        <v>-1</v>
+      </c>
+      <c r="AB168">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>32</v>
+      </c>
+      <c r="J169">
+        <v>1.5</v>
+      </c>
+      <c r="K169">
+        <v>4.5</v>
+      </c>
+      <c r="L169">
+        <v>4.5</v>
+      </c>
+      <c r="M169">
+        <v>1.45</v>
+      </c>
+      <c r="N169">
+        <v>4.5</v>
+      </c>
+      <c r="O169">
+        <v>4.75</v>
+      </c>
+      <c r="P169">
+        <v>-1</v>
+      </c>
+      <c r="Q169">
+        <v>1.8</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>2.75</v>
+      </c>
+      <c r="T169">
+        <v>1.875</v>
+      </c>
+      <c r="U169">
+        <v>1.925</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="s">
+        <v>29</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170">
+        <v>2.1</v>
+      </c>
+      <c r="K170">
+        <v>3.1</v>
+      </c>
+      <c r="L170">
+        <v>3.2</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>3.1</v>
+      </c>
+      <c r="O170">
+        <v>3.4</v>
+      </c>
+      <c r="P170">
+        <v>-0.25</v>
+      </c>
+      <c r="Q170">
+        <v>1.775</v>
+      </c>
+      <c r="R170">
+        <v>2.025</v>
+      </c>
+      <c r="S170">
+        <v>2.25</v>
+      </c>
+      <c r="T170">
+        <v>1.775</v>
+      </c>
+      <c r="U170">
+        <v>2.025</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -15070,10 +15070,10 @@
         <v>2.25</v>
       </c>
       <c r="T170">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U170">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V170">
         <v>0</v>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7093910</t>
+  </si>
+  <si>
+    <t>7093909</t>
+  </si>
+  <si>
+    <t>7096884</t>
   </si>
   <si>
     <t>7088565</t>
@@ -504,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB170"/>
+  <dimension ref="A1:AB173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,16 +610,16 @@
         <v>6816473</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -619,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>1.8</v>
@@ -687,16 +696,16 @@
         <v>6814327</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -705,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -773,16 +782,16 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -791,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -859,16 +868,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -877,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -945,16 +954,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -963,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1031,16 +1040,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1117,16 +1126,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1135,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1203,16 +1212,16 @@
         <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1221,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1.363</v>
@@ -1289,16 +1298,16 @@
         <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1307,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>2.35</v>
@@ -1375,16 +1384,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1393,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1461,16 +1470,16 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1479,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1547,16 +1556,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1565,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1633,16 +1642,16 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1719,16 +1728,16 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1737,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1805,16 +1814,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1823,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1891,16 +1900,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1909,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1977,16 +1986,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1995,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2063,16 +2072,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2081,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2149,17 +2158,17 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
       <c r="G20">
         <v>2</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2235,16 +2244,16 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2253,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2321,17 +2330,17 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
         <v>34</v>
       </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2407,16 +2416,16 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2425,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2493,16 +2502,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2511,7 +2520,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2579,17 +2588,17 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
       <c r="G25">
         <v>1</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2665,16 +2674,16 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2683,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2751,16 +2760,16 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2769,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2837,16 +2846,16 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2855,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2923,16 +2932,16 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2941,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3009,16 +3018,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3027,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3095,16 +3104,16 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3113,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3181,16 +3190,16 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3199,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3267,16 +3276,16 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3285,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3353,16 +3362,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3371,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3439,16 +3448,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3457,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3525,17 +3534,17 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
       <c r="G36">
         <v>2</v>
       </c>
@@ -3543,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3611,16 +3620,16 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3629,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3697,16 +3706,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3715,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3783,16 +3792,16 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3801,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3869,16 +3878,16 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3887,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3955,16 +3964,16 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3973,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4041,16 +4050,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4059,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4127,16 +4136,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4145,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4213,16 +4222,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
         <v>36</v>
-      </c>
-      <c r="F44" t="s">
-        <v>33</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4231,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4299,17 +4308,17 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
         <v>35</v>
       </c>
-      <c r="F45" t="s">
-        <v>32</v>
-      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4385,16 +4394,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4403,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4471,16 +4480,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4489,7 +4498,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4557,16 +4566,16 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4575,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4643,16 +4652,16 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4661,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4729,16 +4738,16 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4747,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4815,16 +4824,16 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4833,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4901,16 +4910,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4919,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4987,16 +4996,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5005,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5073,16 +5082,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5091,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5159,16 +5168,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5177,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5245,16 +5254,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5263,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5331,16 +5340,16 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5349,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5417,16 +5426,16 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5435,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5503,16 +5512,16 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5521,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5589,16 +5598,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5607,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5675,16 +5684,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5693,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5761,16 +5770,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5779,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5847,16 +5856,16 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5865,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5933,16 +5942,16 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5951,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6019,16 +6028,16 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6037,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6105,16 +6114,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6123,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6191,16 +6200,16 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6209,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6277,16 +6286,16 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6295,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6363,16 +6372,16 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6381,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6449,17 +6458,17 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
         <v>38</v>
       </c>
-      <c r="F70" t="s">
-        <v>35</v>
-      </c>
       <c r="G70">
         <v>0</v>
       </c>
@@ -6467,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6535,16 +6544,16 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6553,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6621,16 +6630,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6639,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6707,16 +6716,16 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6725,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6793,16 +6802,16 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6811,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6879,16 +6888,16 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6897,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6965,16 +6974,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6983,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7051,16 +7060,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7069,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7137,16 +7146,16 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7155,7 +7164,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7223,16 +7232,16 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7241,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7309,16 +7318,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7327,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7395,16 +7404,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7413,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7481,16 +7490,16 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7499,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7567,16 +7576,16 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7585,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7653,16 +7662,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7671,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7739,16 +7748,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7757,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7825,16 +7834,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7843,7 +7852,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7911,16 +7920,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7929,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7997,16 +8006,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8015,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8083,16 +8092,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8101,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8169,16 +8178,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8187,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8255,16 +8264,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8273,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8341,16 +8350,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8359,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8427,16 +8436,16 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8445,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8513,16 +8522,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8531,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8599,16 +8608,16 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8617,7 +8626,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8685,16 +8694,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8703,7 +8712,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8771,16 +8780,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8789,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8857,16 +8866,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8875,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8943,16 +8952,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8961,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9029,16 +9038,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9047,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9115,16 +9124,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9133,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9201,16 +9210,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9219,7 +9228,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9287,16 +9296,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9305,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9373,16 +9382,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9391,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9459,16 +9468,16 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9477,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9545,16 +9554,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9563,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9631,16 +9640,16 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9649,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9717,16 +9726,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9735,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9803,17 +9812,17 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s">
         <v>39</v>
       </c>
-      <c r="F109" t="s">
-        <v>36</v>
-      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -9821,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9889,16 +9898,16 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9907,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9975,16 +9984,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9993,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10061,16 +10070,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10079,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10147,17 +10156,17 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" t="s">
         <v>34</v>
       </c>
-      <c r="F113" t="s">
-        <v>31</v>
-      </c>
       <c r="G113">
         <v>2</v>
       </c>
@@ -10165,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10233,16 +10242,16 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10251,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10319,16 +10328,16 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10337,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10405,16 +10414,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10423,7 +10432,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10491,17 +10500,17 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" t="s">
         <v>33</v>
       </c>
-      <c r="F117" t="s">
-        <v>30</v>
-      </c>
       <c r="G117">
         <v>0</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10577,16 +10586,16 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10595,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10663,16 +10672,16 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10681,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10749,16 +10758,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10767,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10835,16 +10844,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10853,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10921,16 +10930,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10939,7 +10948,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11007,16 +11016,16 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11025,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11093,16 +11102,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11111,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11179,16 +11188,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11197,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11265,16 +11274,16 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11283,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11351,17 +11360,17 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" t="s">
         <v>37</v>
       </c>
-      <c r="F127" t="s">
-        <v>34</v>
-      </c>
       <c r="G127">
         <v>2</v>
       </c>
@@ -11369,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11437,16 +11446,16 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11455,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11523,16 +11532,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11541,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11609,16 +11618,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11627,7 +11636,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11695,16 +11704,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11713,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11781,16 +11790,16 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11799,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11867,17 +11876,17 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" t="s">
         <v>36</v>
       </c>
-      <c r="F133" t="s">
-        <v>33</v>
-      </c>
       <c r="G133">
         <v>1</v>
       </c>
@@ -11885,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11953,16 +11962,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11971,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12039,16 +12048,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
         <v>35</v>
-      </c>
-      <c r="F135" t="s">
-        <v>32</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12057,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12125,16 +12134,16 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12143,7 +12152,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12211,16 +12220,16 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12229,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12297,16 +12306,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12315,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12383,16 +12392,16 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12401,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12469,16 +12478,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12487,7 +12496,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12555,16 +12564,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12573,7 +12582,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12641,16 +12650,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12659,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12727,16 +12736,16 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12745,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12813,16 +12822,16 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12831,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12899,16 +12908,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12917,7 +12926,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12985,16 +12994,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13003,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13071,16 +13080,16 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13089,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13157,16 +13166,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13175,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13243,16 +13252,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13261,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13329,16 +13338,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13347,7 +13356,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13415,16 +13424,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13433,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13501,16 +13510,16 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13519,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13587,16 +13596,16 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13605,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13673,16 +13682,16 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13691,7 +13700,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13759,16 +13768,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13777,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13845,16 +13854,16 @@
         <v>6994933</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13863,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13931,16 +13940,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13949,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14017,16 +14026,16 @@
         <v>6994888</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45403.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14035,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14103,16 +14112,16 @@
         <v>7021641</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14121,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14189,16 +14198,16 @@
         <v>7021989</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14207,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>3.25</v>
@@ -14275,17 +14284,17 @@
         <v>7060570</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
         <v>38</v>
       </c>
-      <c r="F161" t="s">
-        <v>35</v>
-      </c>
       <c r="G161">
         <v>1</v>
       </c>
@@ -14293,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>1.909</v>
@@ -14361,16 +14370,16 @@
         <v>7021640</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14379,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J162">
         <v>2.5</v>
@@ -14447,16 +14456,16 @@
         <v>7021642</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45411.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14465,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J163">
         <v>2.25</v>
@@ -14533,16 +14542,16 @@
         <v>7060571</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14551,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J164">
         <v>2.8</v>
@@ -14619,16 +14628,16 @@
         <v>7060573</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14637,7 +14646,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J165">
         <v>2.1</v>
@@ -14705,16 +14714,16 @@
         <v>7083171</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45416.63541666666</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14723,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J166">
         <v>2.3</v>
@@ -14791,16 +14800,16 @@
         <v>7060572</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14809,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>2.15</v>
@@ -14877,16 +14886,16 @@
         <v>7070464</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45417.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14895,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J168">
         <v>1.333</v>
@@ -14963,52 +14972,52 @@
         <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
-        <v>45424.41666666666</v>
+        <v>45423.41666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J169">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K169">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M169">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="N169">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O169">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q169">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S169">
         <v>2.75</v>
       </c>
       <c r="T169">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U169">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V169">
         <v>0</v>
@@ -15028,46 +15037,46 @@
         <v>28</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
-        <v>45424.52083333334</v>
+        <v>45423.52083333334</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J170">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K170">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="M170">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N170">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="P170">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q170">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R170">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T170">
         <v>1.8</v>
@@ -15082,6 +15091,201 @@
         <v>0</v>
       </c>
       <c r="X170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45423.63541666666</v>
+      </c>
+      <c r="E171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F171" t="s">
+        <v>38</v>
+      </c>
+      <c r="J171">
+        <v>2.1</v>
+      </c>
+      <c r="K171">
+        <v>3.6</v>
+      </c>
+      <c r="L171">
+        <v>2.75</v>
+      </c>
+      <c r="M171">
+        <v>1.8</v>
+      </c>
+      <c r="N171">
+        <v>3.75</v>
+      </c>
+      <c r="O171">
+        <v>3.4</v>
+      </c>
+      <c r="P171">
+        <v>-0.5</v>
+      </c>
+      <c r="Q171">
+        <v>1.825</v>
+      </c>
+      <c r="R171">
+        <v>1.975</v>
+      </c>
+      <c r="S171">
+        <v>3</v>
+      </c>
+      <c r="T171">
+        <v>1.9</v>
+      </c>
+      <c r="U171">
+        <v>1.9</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="E172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172">
+        <v>1.5</v>
+      </c>
+      <c r="K172">
+        <v>4.5</v>
+      </c>
+      <c r="L172">
+        <v>4.5</v>
+      </c>
+      <c r="M172">
+        <v>1.45</v>
+      </c>
+      <c r="N172">
+        <v>4.5</v>
+      </c>
+      <c r="O172">
+        <v>4.75</v>
+      </c>
+      <c r="P172">
+        <v>-1</v>
+      </c>
+      <c r="Q172">
+        <v>1.8</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>2.75</v>
+      </c>
+      <c r="T172">
+        <v>1.875</v>
+      </c>
+      <c r="U172">
+        <v>1.925</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="E173" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" t="s">
+        <v>34</v>
+      </c>
+      <c r="J173">
+        <v>2.1</v>
+      </c>
+      <c r="K173">
+        <v>3.1</v>
+      </c>
+      <c r="L173">
+        <v>3.2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3.1</v>
+      </c>
+      <c r="O173">
+        <v>3.4</v>
+      </c>
+      <c r="P173">
+        <v>-0.25</v>
+      </c>
+      <c r="Q173">
+        <v>1.775</v>
+      </c>
+      <c r="R173">
+        <v>2.025</v>
+      </c>
+      <c r="S173">
+        <v>2.25</v>
+      </c>
+      <c r="T173">
+        <v>1.8</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
         <v>0</v>
       </c>
     </row>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -95,21 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7093910</t>
-  </si>
-  <si>
-    <t>7093909</t>
-  </si>
-  <si>
-    <t>7096884</t>
-  </si>
-  <si>
-    <t>7088565</t>
-  </si>
-  <si>
-    <t>7088566</t>
   </si>
   <si>
     <t>Slovenia Prva Liga</t>
@@ -513,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB173"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +595,16 @@
         <v>6816473</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -628,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>1.8</v>
@@ -696,16 +681,16 @@
         <v>6814327</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -714,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -782,25 +767,25 @@
         <v>6814324</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45129.63541666666</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
       </c>
       <c r="J4">
         <v>2.8</v>
@@ -868,16 +853,16 @@
         <v>6814325</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45130.52083333334</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -886,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -954,16 +939,16 @@
         <v>6814326</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45130.63541666666</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -972,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>3.1</v>
@@ -1040,16 +1025,16 @@
         <v>6814331</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45136.52083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1058,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>1.7</v>
@@ -1126,16 +1111,16 @@
         <v>6816472</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45136.63541666666</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1144,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>1.363</v>
@@ -1212,16 +1197,16 @@
         <v>6814330</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1230,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>1.363</v>
@@ -1298,25 +1283,25 @@
         <v>6814328</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45137.52083333334</v>
       </c>
       <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
       </c>
       <c r="J10">
         <v>2.35</v>
@@ -1384,16 +1369,16 @@
         <v>6814329</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45137.63541666666</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1402,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>1.65</v>
@@ -1470,25 +1455,25 @@
         <v>6814336</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
       </c>
       <c r="J12">
         <v>1.65</v>
@@ -1556,16 +1541,16 @@
         <v>6814339</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45150.63541666666</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1574,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>2.2</v>
@@ -1642,16 +1627,16 @@
         <v>6814337</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45151.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1660,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J14">
         <v>1.571</v>
@@ -1728,16 +1713,16 @@
         <v>6816470</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45151.63541666666</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1746,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>1.333</v>
@@ -1814,16 +1799,16 @@
         <v>6814338</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45152.63541666666</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1832,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J16">
         <v>2.05</v>
@@ -1900,16 +1885,16 @@
         <v>6814342</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45156.52083333334</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1918,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J17">
         <v>2.625</v>
@@ -1986,16 +1971,16 @@
         <v>6814341</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45157.52083333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2004,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>1.727</v>
@@ -2072,16 +2057,16 @@
         <v>6814340</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45157.63541666666</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2090,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J19">
         <v>4.333</v>
@@ -2158,16 +2143,16 @@
         <v>6816469</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45158.52083333334</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2176,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J20">
         <v>4.333</v>
@@ -2244,16 +2229,16 @@
         <v>6814343</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45158.63541666666</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2262,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>2.875</v>
@@ -2330,16 +2315,16 @@
         <v>6814347</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45163.63541666666</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2348,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>2.45</v>
@@ -2416,25 +2401,25 @@
         <v>6814345</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45164.63541666666</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>40</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>45</v>
       </c>
       <c r="J23">
         <v>1.533</v>
@@ -2502,16 +2487,16 @@
         <v>6814344</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45165.52083333334</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2520,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J24">
         <v>2.25</v>
@@ -2588,16 +2573,16 @@
         <v>7096893</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45165.63541666666</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J25">
         <v>2.625</v>
@@ -2674,16 +2659,16 @@
         <v>6814350</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2692,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J26">
         <v>1.95</v>
@@ -2760,16 +2745,16 @@
         <v>6814351</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45171.52083333334</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2778,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J27">
         <v>2.4</v>
@@ -2846,16 +2831,16 @@
         <v>6816467</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2864,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>2.55</v>
@@ -2932,16 +2917,16 @@
         <v>6814348</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45172.52083333334</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2950,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>2.25</v>
@@ -3018,16 +3003,16 @@
         <v>6814349</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45172.63541666666</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3036,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <v>3.1</v>
@@ -3104,17 +3089,17 @@
         <v>6816466</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45185.41666666666</v>
       </c>
       <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="F31" t="s">
-        <v>42</v>
-      </c>
       <c r="G31">
         <v>1</v>
       </c>
@@ -3122,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J31">
         <v>2.05</v>
@@ -3190,16 +3175,16 @@
         <v>6814355</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45185.52083333334</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3208,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>2.05</v>
@@ -3276,25 +3261,25 @@
         <v>6814352</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45185.63541666666</v>
       </c>
       <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
         <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>43</v>
       </c>
       <c r="J33">
         <v>2.15</v>
@@ -3362,16 +3347,16 @@
         <v>6814354</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45186.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3380,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J34">
         <v>2.8</v>
@@ -3448,16 +3433,16 @@
         <v>6814353</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45186.63541666666</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3466,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>2.8</v>
@@ -3534,16 +3519,16 @@
         <v>6814357</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45191.52083333334</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3552,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J36">
         <v>1.571</v>
@@ -3620,16 +3605,16 @@
         <v>6814356</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45192.33333333334</v>
       </c>
       <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
         <v>33</v>
-      </c>
-      <c r="F37" t="s">
-        <v>38</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -3638,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>3.75</v>
@@ -3706,16 +3691,16 @@
         <v>6816465</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45192.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3724,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3792,16 +3777,16 @@
         <v>6814358</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45192.52083333334</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3810,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>1.285</v>
@@ -3878,25 +3863,25 @@
         <v>6814359</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45193.63541666666</v>
       </c>
       <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>44</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3964,16 +3949,16 @@
         <v>6816464</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45196.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3982,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>3.2</v>
@@ -4050,16 +4035,16 @@
         <v>6814362</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45196.52083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4068,7 +4053,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>1.25</v>
@@ -4136,16 +4121,16 @@
         <v>6814363</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45196.63541666666</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4154,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J43">
         <v>2.15</v>
@@ -4222,16 +4207,16 @@
         <v>6814361</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45197.52083333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -4240,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J44">
         <v>1.25</v>
@@ -4308,16 +4293,16 @@
         <v>6814360</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45197.63541666666</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4326,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J45">
         <v>1.727</v>
@@ -4394,16 +4379,16 @@
         <v>6814364</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45199.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -4412,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4480,16 +4465,16 @@
         <v>6814365</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45199.63541666666</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4498,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>2.625</v>
@@ -4566,16 +4551,16 @@
         <v>6816463</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4584,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>6</v>
@@ -4652,16 +4637,16 @@
         <v>6814367</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45200.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4670,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>3.25</v>
@@ -4738,16 +4723,16 @@
         <v>6814366</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45200.63541666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4824,16 +4809,16 @@
         <v>6814371</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45206.52083333334</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4842,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>1.55</v>
@@ -4910,16 +4895,16 @@
         <v>6814370</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45206.63541666666</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4928,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.55</v>
@@ -4996,16 +4981,16 @@
         <v>6816462</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5014,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.75</v>
@@ -5082,16 +5067,16 @@
         <v>6814368</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45207.52083333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5100,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J54">
         <v>1.363</v>
@@ -5168,16 +5153,16 @@
         <v>6814369</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45207.63541666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -5186,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>1.65</v>
@@ -5254,16 +5239,16 @@
         <v>6816461</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45220.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5272,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J56">
         <v>5.5</v>
@@ -5340,16 +5325,16 @@
         <v>6814372</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45220.63541666666</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5358,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5426,16 +5411,16 @@
         <v>6814373</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5444,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J58">
         <v>4.333</v>
@@ -5512,16 +5497,16 @@
         <v>6814375</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45221.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5530,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5598,16 +5583,16 @@
         <v>6814374</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45221.63541666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5616,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J60">
         <v>2.5</v>
@@ -5684,16 +5669,16 @@
         <v>6814379</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45226.52083333334</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5702,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.55</v>
@@ -5770,16 +5755,16 @@
         <v>6814378</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45227.52083333334</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5788,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J62">
         <v>1.833</v>
@@ -5856,16 +5841,16 @@
         <v>6816460</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45227.63541666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5874,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1.4</v>
@@ -5942,16 +5927,16 @@
         <v>6814377</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45228.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5960,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J64">
         <v>2.7</v>
@@ -6028,16 +6013,16 @@
         <v>6814376</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45228.5625</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6046,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6114,16 +6099,16 @@
         <v>6816459</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45234.375</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6132,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J66">
         <v>3.6</v>
@@ -6200,16 +6185,16 @@
         <v>6814383</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45234.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6218,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>1.833</v>
@@ -6286,25 +6271,25 @@
         <v>6814381</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45234.5625</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
         <v>39</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>44</v>
       </c>
       <c r="J68">
         <v>3.4</v>
@@ -6372,16 +6357,16 @@
         <v>6814382</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45235.375</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6390,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J69">
         <v>2.05</v>
@@ -6458,16 +6443,16 @@
         <v>7409831</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45235.45833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6476,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J70">
         <v>2.05</v>
@@ -6544,16 +6529,16 @@
         <v>6814385</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45240.5625</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6562,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J71">
         <v>2.45</v>
@@ -6630,16 +6615,16 @@
         <v>6816458</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45241.45833333334</v>
       </c>
       <c r="E72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6648,7 +6633,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J72">
         <v>1.95</v>
@@ -6716,17 +6701,17 @@
         <v>6814386</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45241.5625</v>
       </c>
       <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
         <v>35</v>
       </c>
-      <c r="F73" t="s">
-        <v>40</v>
-      </c>
       <c r="G73">
         <v>0</v>
       </c>
@@ -6734,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>1.75</v>
@@ -6802,25 +6787,25 @@
         <v>6814387</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45242.45833333334</v>
       </c>
       <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>39</v>
-      </c>
-      <c r="F74" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
-        <v>44</v>
       </c>
       <c r="J74">
         <v>2.3</v>
@@ -6888,25 +6873,25 @@
         <v>6814384</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45242.5625</v>
       </c>
       <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
         <v>38</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
-        <v>43</v>
       </c>
       <c r="J75">
         <v>1.55</v>
@@ -6974,16 +6959,16 @@
         <v>7460149</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45255.375</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6992,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>2.6</v>
@@ -7060,16 +7045,16 @@
         <v>7460063</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45255.5625</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7078,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7146,16 +7131,16 @@
         <v>7460150</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45256.375</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7164,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>3.3</v>
@@ -7232,17 +7217,17 @@
         <v>7460162</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45256.45833333334</v>
       </c>
       <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
         <v>34</v>
       </c>
-      <c r="F79" t="s">
-        <v>39</v>
-      </c>
       <c r="G79">
         <v>0</v>
       </c>
@@ -7250,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J79">
         <v>3.1</v>
@@ -7318,16 +7303,16 @@
         <v>7460151</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45256.5625</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7336,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>3.75</v>
@@ -7404,16 +7389,16 @@
         <v>6814390</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45262.45833333334</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7422,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7490,16 +7475,16 @@
         <v>6814391</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45263.375</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7508,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J82">
         <v>2.15</v>
@@ -7576,16 +7561,16 @@
         <v>6814388</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45263.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -7594,7 +7579,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J83">
         <v>2.2</v>
@@ -7662,16 +7647,16 @@
         <v>6814394</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45265.5625</v>
       </c>
       <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" t="s">
         <v>36</v>
-      </c>
-      <c r="F84" t="s">
-        <v>41</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -7680,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J84">
         <v>6.5</v>
@@ -7748,16 +7733,16 @@
         <v>6814393</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45266.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7766,7 +7751,7 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>3.1</v>
@@ -7834,16 +7819,16 @@
         <v>6814395</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45266.5625</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -7852,7 +7837,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J86">
         <v>3.1</v>
@@ -7920,16 +7905,16 @@
         <v>6816456</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45267.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7938,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8006,16 +7991,16 @@
         <v>6814392</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45267.5625</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8024,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J88">
         <v>1.615</v>
@@ -8092,16 +8077,16 @@
         <v>6814398</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45269.45833333334</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8110,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J89">
         <v>4.75</v>
@@ -8178,16 +8163,16 @@
         <v>6816455</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45270.375</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -8196,7 +8181,7 @@
         <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>1.5</v>
@@ -8264,16 +8249,16 @@
         <v>6814396</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45270.45833333334</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8282,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J91">
         <v>2.875</v>
@@ -8350,16 +8335,16 @@
         <v>6814399</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45270.5625</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8368,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8436,16 +8421,16 @@
         <v>6814397</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45271.5625</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8454,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>3.6</v>
@@ -8522,16 +8507,16 @@
         <v>7554217</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45276.375</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -8540,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J94">
         <v>2.4</v>
@@ -8608,16 +8593,16 @@
         <v>7589677</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45332.375</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8626,7 +8611,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J95">
         <v>1.285</v>
@@ -8694,16 +8679,16 @@
         <v>7589676</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45332.45833333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8712,7 +8697,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J96">
         <v>2.375</v>
@@ -8780,16 +8765,16 @@
         <v>7667666</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45332.5625</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8798,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J97">
         <v>1.7</v>
@@ -8866,16 +8851,16 @@
         <v>7667664</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45333.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G98">
         <v>4</v>
@@ -8884,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J98">
         <v>1.533</v>
@@ -8952,16 +8937,16 @@
         <v>7667665</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45333.5625</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -8970,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>1.333</v>
@@ -9038,16 +9023,16 @@
         <v>7680772</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45338.5625</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9056,7 +9041,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J100">
         <v>3.3</v>
@@ -9124,16 +9109,16 @@
         <v>7680775</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45339.375</v>
       </c>
       <c r="E101" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -9142,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J101">
         <v>3.5</v>
@@ -9210,16 +9195,16 @@
         <v>7680774</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45339.45833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9228,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J102">
         <v>4.8</v>
@@ -9296,16 +9281,16 @@
         <v>7680773</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45340.375</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9314,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J103">
         <v>4.5</v>
@@ -9382,16 +9367,16 @@
         <v>6814411</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45342.5625</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9400,7 +9385,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9468,25 +9453,25 @@
         <v>6814408</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45343.45833333334</v>
       </c>
       <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
         <v>38</v>
-      </c>
-      <c r="F105" t="s">
-        <v>40</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>43</v>
       </c>
       <c r="J105">
         <v>1.533</v>
@@ -9554,16 +9539,16 @@
         <v>6816452</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45344.45833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>4</v>
@@ -9572,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J106">
         <v>1.25</v>
@@ -9640,16 +9625,16 @@
         <v>6814409</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45344.5625</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9658,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9726,16 +9711,16 @@
         <v>6814412</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45346.5625</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9744,7 +9729,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9812,16 +9797,16 @@
         <v>6816451</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45347.375</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9830,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J109">
         <v>6</v>
@@ -9898,16 +9883,16 @@
         <v>6814415</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45347.45833333334</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9916,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J110">
         <v>6</v>
@@ -9984,16 +9969,16 @@
         <v>6814413</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45347.5625</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10002,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J111">
         <v>1.952</v>
@@ -10070,16 +10055,16 @@
         <v>6814414</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45348.45833333334</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10088,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J112">
         <v>2.8</v>
@@ -10156,16 +10141,16 @@
         <v>6814419</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45352.5625</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10174,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J113">
         <v>2.75</v>
@@ -10242,16 +10227,16 @@
         <v>6814416</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45353.45833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10260,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>2.375</v>
@@ -10328,16 +10313,16 @@
         <v>6814417</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45353.5625</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10346,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J115">
         <v>1.5</v>
@@ -10414,16 +10399,16 @@
         <v>6816450</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45354.45833333334</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10432,7 +10417,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J116">
         <v>1.4</v>
@@ -10500,16 +10485,16 @@
         <v>6814418</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45354.5625</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10518,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J117">
         <v>3.1</v>
@@ -10586,16 +10571,16 @@
         <v>6814421</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45360.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10604,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10672,16 +10657,16 @@
         <v>6814423</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45360.5625</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10690,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -10758,16 +10743,16 @@
         <v>6816449</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45361.375</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10776,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>2.625</v>
@@ -10844,16 +10829,16 @@
         <v>6814420</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45361.45833333334</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10862,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>5.75</v>
@@ -10930,16 +10915,16 @@
         <v>6814427</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45364.44791666666</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10948,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J122">
         <v>2.5</v>
@@ -11016,17 +11001,17 @@
         <v>6816448</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45364.53125</v>
       </c>
       <c r="E123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
         <v>37</v>
       </c>
-      <c r="F123" t="s">
-        <v>42</v>
-      </c>
       <c r="G123">
         <v>0</v>
       </c>
@@ -11034,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J123">
         <v>2.15</v>
@@ -11102,16 +11087,16 @@
         <v>6814426</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45364.61458333334</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11120,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J124">
         <v>2.55</v>
@@ -11188,16 +11173,16 @@
         <v>6814425</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45365.53125</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11206,7 +11191,7 @@
         <v>3</v>
       </c>
       <c r="I125" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -11274,17 +11259,17 @@
         <v>6814428</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45367.45833333334</v>
       </c>
       <c r="E126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126" t="s">
         <v>33</v>
       </c>
-      <c r="F126" t="s">
-        <v>38</v>
-      </c>
       <c r="G126">
         <v>1</v>
       </c>
@@ -11292,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J126">
         <v>3.4</v>
@@ -11360,16 +11345,16 @@
         <v>6814751</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45367.67708333334</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11378,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J127">
         <v>1.727</v>
@@ -11446,16 +11431,16 @@
         <v>6816447</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45368.375</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11464,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J128">
         <v>2.4</v>
@@ -11532,16 +11517,16 @@
         <v>6814429</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45368.45833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11550,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J129">
         <v>1.285</v>
@@ -11618,16 +11603,16 @@
         <v>6814430</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45368.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11636,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J130">
         <v>1.666</v>
@@ -11704,16 +11689,16 @@
         <v>7907436</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45374.67708333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11722,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J131">
         <v>1.85</v>
@@ -11790,16 +11775,16 @@
         <v>6816446</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45380.45833333334</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11808,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J132">
         <v>2.8</v>
@@ -11876,16 +11861,16 @@
         <v>7977922</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45380.5625</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11894,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J133">
         <v>1.285</v>
@@ -11962,16 +11947,16 @@
         <v>7977924</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45380.67708333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11980,7 +11965,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12048,16 +12033,16 @@
         <v>7977921</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45381.45833333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12066,7 +12051,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12134,16 +12119,16 @@
         <v>7977923</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45381.5625</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12152,7 +12137,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J136">
         <v>1.2</v>
@@ -12220,25 +12205,25 @@
         <v>6814753</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45387.63541666666</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137" t="s">
         <v>39</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>2</v>
-      </c>
-      <c r="I137" t="s">
-        <v>44</v>
       </c>
       <c r="J137">
         <v>6</v>
@@ -12306,16 +12291,16 @@
         <v>8035687</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45388.41666666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12324,7 +12309,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J138">
         <v>6</v>
@@ -12392,16 +12377,16 @@
         <v>6814435</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45388.52083333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12410,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>2.55</v>
@@ -12478,16 +12463,16 @@
         <v>6837117</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45388.63541666666</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12496,7 +12481,7 @@
         <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J140">
         <v>5.25</v>
@@ -12564,16 +12549,16 @@
         <v>6814434</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45389.41666666666</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12582,7 +12567,7 @@
         <v>3</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J141">
         <v>1.833</v>
@@ -12650,16 +12635,16 @@
         <v>6852774</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45391.57291666666</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>5</v>
@@ -12668,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J142">
         <v>1.5</v>
@@ -12736,16 +12721,16 @@
         <v>6919052</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45392.40625</v>
       </c>
       <c r="E143" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12754,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J143">
         <v>1.444</v>
@@ -12822,16 +12807,16 @@
         <v>6828664</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45392.48958333334</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12840,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>1.95</v>
@@ -12908,16 +12893,16 @@
         <v>6860865</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45392.57291666666</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12926,7 +12911,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J145">
         <v>1.363</v>
@@ -12994,16 +12979,16 @@
         <v>6847813</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45393.48958333334</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13012,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J146">
         <v>1.615</v>
@@ -13080,16 +13065,16 @@
         <v>6957487</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45395.41666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13098,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J147">
         <v>6.5</v>
@@ -13166,16 +13151,16 @@
         <v>6979329</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45396.41666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13184,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J148">
         <v>3.4</v>
@@ -13252,16 +13237,16 @@
         <v>6957488</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45396.52083333334</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J149">
         <v>2.8</v>
@@ -13338,16 +13323,16 @@
         <v>6957486</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45396.63541666666</v>
       </c>
       <c r="E150" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -13356,7 +13341,7 @@
         <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13424,16 +13409,16 @@
         <v>6961772</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45397.52083333334</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13442,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J151">
         <v>3.2</v>
@@ -13510,25 +13495,25 @@
         <v>6814424</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45399.5625</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152" t="s">
         <v>39</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>2</v>
-      </c>
-      <c r="I152" t="s">
-        <v>44</v>
       </c>
       <c r="J152">
         <v>2.375</v>
@@ -13596,16 +13581,16 @@
         <v>8100619</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45400.45833333334</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13614,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J153">
         <v>3.1</v>
@@ -13682,16 +13667,16 @@
         <v>6994887</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45402.41666666666</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13700,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J154">
         <v>2.625</v>
@@ -13768,16 +13753,16 @@
         <v>6998172</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45402.52083333334</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -13786,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J155">
         <v>1.25</v>
@@ -13854,16 +13839,16 @@
         <v>6994933</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45403.41666666666</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -13872,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J156">
         <v>1.363</v>
@@ -13940,16 +13925,16 @@
         <v>6998173</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45403.52083333334</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13958,7 +13943,7 @@
         <v>3</v>
       </c>
       <c r="I157" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J157">
         <v>1.25</v>
@@ -14026,16 +14011,16 @@
         <v>6994888</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45403.63541666666</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -14044,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14112,16 +14097,16 @@
         <v>7021641</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45409.52083333334</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14130,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J159">
         <v>2</v>
@@ -14198,25 +14183,25 @@
         <v>7021989</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45409.63541666666</v>
       </c>
       <c r="E160" t="s">
+        <v>35</v>
+      </c>
+      <c r="F160" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160" t="s">
         <v>40</v>
-      </c>
-      <c r="F160" t="s">
-        <v>39</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160" t="s">
-        <v>45</v>
       </c>
       <c r="J160">
         <v>3.25</v>
@@ -14284,25 +14269,25 @@
         <v>7060570</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45410.41666666666</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
         <v>38</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161" t="s">
-        <v>43</v>
       </c>
       <c r="J161">
         <v>1.909</v>
@@ -14370,16 +14355,16 @@
         <v>7021640</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45410.52083333334</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14388,7 +14373,7 @@
         <v>2</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>2.5</v>
@@ -14456,16 +14441,16 @@
         <v>7021642</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45411.52083333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -14474,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J163">
         <v>2.25</v>
@@ -14542,16 +14527,16 @@
         <v>7060571</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45416.41666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14560,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J164">
         <v>2.8</v>
@@ -14628,16 +14613,16 @@
         <v>7060573</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45416.52083333334</v>
       </c>
       <c r="E165" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" t="s">
         <v>35</v>
-      </c>
-      <c r="F165" t="s">
-        <v>40</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14646,7 +14631,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J165">
         <v>2.1</v>
@@ -14714,16 +14699,16 @@
         <v>7083171</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45416.63541666666</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14732,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J166">
         <v>2.3</v>
@@ -14800,16 +14785,16 @@
         <v>7060572</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45417.41666666666</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14818,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J167">
         <v>2.15</v>
@@ -14886,16 +14871,16 @@
         <v>7070464</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45417.52083333334</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14904,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J168">
         <v>1.333</v>
@@ -14962,331 +14947,6 @@
       </c>
       <c r="AB168">
         <v>0.875</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169" t="s">
-        <v>32</v>
-      </c>
-      <c r="D169" s="2">
-        <v>45423.41666666666</v>
-      </c>
-      <c r="E169" t="s">
-        <v>42</v>
-      </c>
-      <c r="F169" t="s">
-        <v>37</v>
-      </c>
-      <c r="J169">
-        <v>2.1</v>
-      </c>
-      <c r="K169">
-        <v>3.5</v>
-      </c>
-      <c r="L169">
-        <v>2.8</v>
-      </c>
-      <c r="M169">
-        <v>1.727</v>
-      </c>
-      <c r="N169">
-        <v>3.75</v>
-      </c>
-      <c r="O169">
-        <v>3.75</v>
-      </c>
-      <c r="P169">
-        <v>-0.5</v>
-      </c>
-      <c r="Q169">
-        <v>1.775</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>2.75</v>
-      </c>
-      <c r="T169">
-        <v>1.95</v>
-      </c>
-      <c r="U169">
-        <v>1.85</v>
-      </c>
-      <c r="V169">
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>28</v>
-      </c>
-      <c r="C170" t="s">
-        <v>32</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45423.52083333334</v>
-      </c>
-      <c r="E170" t="s">
-        <v>40</v>
-      </c>
-      <c r="F170" t="s">
-        <v>36</v>
-      </c>
-      <c r="J170">
-        <v>2.6</v>
-      </c>
-      <c r="K170">
-        <v>3.2</v>
-      </c>
-      <c r="L170">
-        <v>2.4</v>
-      </c>
-      <c r="M170">
-        <v>3.4</v>
-      </c>
-      <c r="N170">
-        <v>3.4</v>
-      </c>
-      <c r="O170">
-        <v>1.909</v>
-      </c>
-      <c r="P170">
-        <v>0.5</v>
-      </c>
-      <c r="Q170">
-        <v>1.8</v>
-      </c>
-      <c r="R170">
-        <v>2</v>
-      </c>
-      <c r="S170">
-        <v>2.75</v>
-      </c>
-      <c r="T170">
-        <v>1.8</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>0</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>29</v>
-      </c>
-      <c r="C171" t="s">
-        <v>32</v>
-      </c>
-      <c r="D171" s="2">
-        <v>45423.63541666666</v>
-      </c>
-      <c r="E171" t="s">
-        <v>39</v>
-      </c>
-      <c r="F171" t="s">
-        <v>38</v>
-      </c>
-      <c r="J171">
-        <v>2.1</v>
-      </c>
-      <c r="K171">
-        <v>3.6</v>
-      </c>
-      <c r="L171">
-        <v>2.75</v>
-      </c>
-      <c r="M171">
-        <v>1.8</v>
-      </c>
-      <c r="N171">
-        <v>3.75</v>
-      </c>
-      <c r="O171">
-        <v>3.4</v>
-      </c>
-      <c r="P171">
-        <v>-0.5</v>
-      </c>
-      <c r="Q171">
-        <v>1.825</v>
-      </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
-      <c r="S171">
-        <v>3</v>
-      </c>
-      <c r="T171">
-        <v>1.9</v>
-      </c>
-      <c r="U171">
-        <v>1.9</v>
-      </c>
-      <c r="V171">
-        <v>0</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>30</v>
-      </c>
-      <c r="C172" t="s">
-        <v>32</v>
-      </c>
-      <c r="D172" s="2">
-        <v>45424.41666666666</v>
-      </c>
-      <c r="E172" t="s">
-        <v>41</v>
-      </c>
-      <c r="F172" t="s">
-        <v>35</v>
-      </c>
-      <c r="J172">
-        <v>1.5</v>
-      </c>
-      <c r="K172">
-        <v>4.5</v>
-      </c>
-      <c r="L172">
-        <v>4.5</v>
-      </c>
-      <c r="M172">
-        <v>1.45</v>
-      </c>
-      <c r="N172">
-        <v>4.5</v>
-      </c>
-      <c r="O172">
-        <v>4.75</v>
-      </c>
-      <c r="P172">
-        <v>-1</v>
-      </c>
-      <c r="Q172">
-        <v>1.8</v>
-      </c>
-      <c r="R172">
-        <v>2</v>
-      </c>
-      <c r="S172">
-        <v>2.75</v>
-      </c>
-      <c r="T172">
-        <v>1.875</v>
-      </c>
-      <c r="U172">
-        <v>1.925</v>
-      </c>
-      <c r="V172">
-        <v>0</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>31</v>
-      </c>
-      <c r="C173" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45424.52083333334</v>
-      </c>
-      <c r="E173" t="s">
-        <v>33</v>
-      </c>
-      <c r="F173" t="s">
-        <v>34</v>
-      </c>
-      <c r="J173">
-        <v>2.1</v>
-      </c>
-      <c r="K173">
-        <v>3.1</v>
-      </c>
-      <c r="L173">
-        <v>3.2</v>
-      </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>3.1</v>
-      </c>
-      <c r="O173">
-        <v>3.4</v>
-      </c>
-      <c r="P173">
-        <v>-0.25</v>
-      </c>
-      <c r="Q173">
-        <v>1.775</v>
-      </c>
-      <c r="R173">
-        <v>2.025</v>
-      </c>
-      <c r="S173">
-        <v>2.25</v>
-      </c>
-      <c r="T173">
-        <v>1.8</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
+++ b/Slovenia Prva Liga/Slovenia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,19 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7133777</t>
+  </si>
+  <si>
+    <t>7124152</t>
+  </si>
+  <si>
     <t>Slovenia Prva Liga</t>
   </si>
   <si>
-    <t>NK Bravo</t>
+    <t>NS Mura</t>
   </si>
   <si>
-    <t>NS Mura</t>
+    <t>NK Bravo</t>
   </si>
   <si>
     <t>FC Koper</t>
@@ -130,10 +136,10 @@
     <t>NK Rogaska</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -498,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AB175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,16 +598,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6816473</v>
+        <v>6814327</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -610,67 +616,67 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O2">
         <v>3.75</v>
       </c>
       <c r="P2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -678,85 +684,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6814327</v>
+        <v>6816473</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45129.52083333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4